--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1575,6 +1575,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1620,7 +1621,6 @@
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1935,10 +1935,10 @@
   <dimension ref="A1:DP182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I169" sqref="I169"/>
+      <selection pane="bottomRight" activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1954,28 +1954,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="49" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="50">
         <f ca="1">TODAY()</f>
-        <v>44343</v>
+        <v>44346</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2075,11 +2075,11 @@
         <v>7056.76</v>
       </c>
       <c r="C6" s="17">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>564540.80000000005</v>
+        <v>705676</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>213</v>
@@ -2682,11 +2682,11 @@
         <v>896.24</v>
       </c>
       <c r="C13" s="17">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>71699.199999999997</v>
+        <v>179248</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>269</v>
@@ -2976,11 +2976,11 @@
         <v>916.29</v>
       </c>
       <c r="C18" s="17">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>54977.399999999994</v>
+        <v>183258</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>269</v>
@@ -2994,11 +2994,11 @@
         <v>916.29</v>
       </c>
       <c r="C19" s="17">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>54977.399999999994</v>
+        <v>183258</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>269</v>
@@ -3081,11 +3081,11 @@
         <v>1032.58</v>
       </c>
       <c r="C21" s="17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>103258</v>
+        <v>206516</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>269</v>
@@ -3610,11 +3610,11 @@
         <v>969.42</v>
       </c>
       <c r="C26" s="17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>96942</v>
+        <v>193884</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>269</v>
@@ -4895,17 +4895,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>222</v>
       </c>
       <c r="B37" s="34">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>200</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>235760</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>269</v>
@@ -5026,17 +5028,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>257</v>
       </c>
       <c r="B38" s="34">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>100</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>0</v>
+        <v>112008</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>269</v>
@@ -5546,17 +5550,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>205</v>
       </c>
       <c r="B42" s="34">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>140</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>199133.2</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>269</v>
@@ -6206,66 +6212,68 @@
         <v>0</v>
       </c>
       <c r="E47" s="18"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="71"/>
-      <c r="V47" s="71"/>
-      <c r="W47" s="71"/>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="71"/>
-      <c r="Z47" s="71"/>
-      <c r="AA47" s="71"/>
-      <c r="AB47" s="71"/>
-      <c r="AC47" s="71"/>
-      <c r="AD47" s="71"/>
-      <c r="AE47" s="71"/>
-      <c r="AF47" s="71"/>
-      <c r="AG47" s="71"/>
-      <c r="AH47" s="71"/>
-      <c r="AI47" s="71"/>
-      <c r="AJ47" s="71"/>
-      <c r="AK47" s="71"/>
-      <c r="AL47" s="71"/>
-      <c r="AM47" s="71"/>
-      <c r="AN47" s="71"/>
-      <c r="AO47" s="71"/>
-      <c r="AP47" s="71"/>
-      <c r="AQ47" s="71"/>
-      <c r="AR47" s="71"/>
-      <c r="AS47" s="71"/>
-      <c r="AT47" s="71"/>
-      <c r="AU47" s="71"/>
-      <c r="AV47" s="71"/>
-      <c r="AW47" s="71"/>
-      <c r="AX47" s="71"/>
-      <c r="AY47" s="71"/>
-      <c r="AZ47" s="71"/>
-      <c r="BA47" s="71"/>
-    </row>
-    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="56"/>
+      <c r="AB47" s="56"/>
+      <c r="AC47" s="56"/>
+      <c r="AD47" s="56"/>
+      <c r="AE47" s="56"/>
+      <c r="AF47" s="56"/>
+      <c r="AG47" s="56"/>
+      <c r="AH47" s="56"/>
+      <c r="AI47" s="56"/>
+      <c r="AJ47" s="56"/>
+      <c r="AK47" s="56"/>
+      <c r="AL47" s="56"/>
+      <c r="AM47" s="56"/>
+      <c r="AN47" s="56"/>
+      <c r="AO47" s="56"/>
+      <c r="AP47" s="56"/>
+      <c r="AQ47" s="56"/>
+      <c r="AR47" s="56"/>
+      <c r="AS47" s="56"/>
+      <c r="AT47" s="56"/>
+      <c r="AU47" s="56"/>
+      <c r="AV47" s="56"/>
+      <c r="AW47" s="56"/>
+      <c r="AX47" s="56"/>
+      <c r="AY47" s="56"/>
+      <c r="AZ47" s="56"/>
+      <c r="BA47" s="56"/>
+    </row>
+    <row r="48" spans="1:120" ht="15" customHeight="1">
       <c r="A48" s="42" t="s">
         <v>272</v>
       </c>
       <c r="B48" s="34">
         <v>1101.75</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="17">
+        <v>20</v>
+      </c>
       <c r="D48" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22035</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>269</v>
@@ -6517,17 +6525,19 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="43" t="s">
         <v>275</v>
       </c>
       <c r="B50" s="34">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17">
+        <v>40</v>
+      </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42666.400000000001</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>269</v>
@@ -10148,11 +10158,11 @@
         <v>1246.96</v>
       </c>
       <c r="C85" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>49878.400000000001</v>
+        <v>74817.600000000006</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -10210,17 +10220,19 @@
       <c r="BD85" s="31"/>
       <c r="BE85" s="31"/>
     </row>
-    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>285</v>
       </c>
       <c r="B86" s="34">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>120</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>156751.20000000001</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>269</v>
@@ -11128,17 +11140,19 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="94" spans="1:120" s="14" customFormat="1">
       <c r="A94" s="43" t="s">
         <v>240</v>
       </c>
       <c r="B94" s="34">
-        <v>1150.8699999999999</v>
-      </c>
-      <c r="C94" s="17"/>
+        <v>1306.26</v>
+      </c>
+      <c r="C94" s="17">
+        <v>40</v>
+      </c>
       <c r="D94" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52250.400000000001</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>269</v>
@@ -11387,17 +11401,19 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>283</v>
       </c>
       <c r="B97" s="34">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>20</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28066.6</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>269</v>
@@ -11971,11 +11987,11 @@
         <v>1188.82</v>
       </c>
       <c r="C102" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>23776.399999999998</v>
+        <v>118882</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>269</v>
@@ -19427,7 +19443,7 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A167" s="42" t="s">
         <v>297</v>
       </c>
@@ -19691,19 +19707,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
         <v>298</v>
       </c>
       <c r="B169" s="34">
         <v>9056.51</v>
       </c>
-      <c r="C169" s="17">
-        <v>10</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" si="5"/>
-        <v>90565.1</v>
+        <v>0</v>
       </c>
       <c r="E169" s="48" t="s">
         <v>300</v>
@@ -19956,17 +19970,17 @@
       <c r="DP170" s="15"/>
     </row>
     <row r="171" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A171" s="64" t="s">
+      <c r="A171" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B171" s="65"/>
+      <c r="B171" s="66"/>
       <c r="C171" s="51">
-        <f>SUM(C5:C170)</f>
-        <v>670</v>
+        <f>SUBTOTAL(9,C6:C170)</f>
+        <v>2060</v>
       </c>
       <c r="D171" s="51">
-        <f>SUM(D5:D170)</f>
-        <v>1523489.5000000002</v>
+        <f>SUBTOTAL(9,D6:D170)</f>
+        <v>3107085.2</v>
       </c>
       <c r="E171" s="52"/>
       <c r="F171" s="32"/>
@@ -20208,17 +20222,17 @@
       <c r="DP172" s="15"/>
     </row>
     <row r="173" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B173" s="56"/>
-      <c r="C173" s="56"/>
-      <c r="D173" s="56"/>
-      <c r="E173" s="56"/>
+      <c r="B173" s="57"/>
+      <c r="C173" s="57"/>
+      <c r="D173" s="57"/>
+      <c r="E173" s="57"/>
     </row>
     <row r="174" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B174" s="61" t="s">
+      <c r="B174" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C174" s="62"/>
-      <c r="D174" s="63"/>
+      <c r="C174" s="63"/>
+      <c r="D174" s="64"/>
       <c r="E174" s="30"/>
     </row>
     <row r="175" spans="1:120" ht="9" customHeight="1" thickBot="1"/>
@@ -20239,7 +20253,7 @@
         <v>291</v>
       </c>
       <c r="C177" s="25">
-        <v>1500000</v>
+        <v>3100000</v>
       </c>
       <c r="D177" s="26"/>
       <c r="E177" s="24" t="s">
@@ -20268,7 +20282,7 @@
       </c>
       <c r="C180" s="40">
         <f>SUM(C177:C179)</f>
-        <v>1500000</v>
+        <v>3100000</v>
       </c>
       <c r="D180" s="41"/>
       <c r="E180" s="29"/>
@@ -20318,33 +20332,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70" t="e">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="70"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -22285,10 +22299,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="66" t="s">
+      <c r="A101" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="66"/>
+      <c r="B101" s="67"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$170</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -883,9 +883,6 @@
     <t>L140</t>
   </si>
   <si>
-    <t>Carabian Blue &amp; Red Colour</t>
-  </si>
-  <si>
     <t>L46</t>
   </si>
   <si>
@@ -929,6 +926,9 @@
   </si>
   <si>
     <t>ATOM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carabian Blue </t>
   </si>
 </sst>
 </file>
@@ -1935,10 +1935,10 @@
   <dimension ref="A1:DP182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H179" sqref="H179"/>
+      <selection pane="bottomRight" activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1967,7 +1967,7 @@
         <v>88</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="49" t="s">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E2" s="50">
         <f ca="1">TODAY()</f>
-        <v>44346</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2067,19 +2067,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B6" s="34">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>100</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>705676</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>213</v>
@@ -2674,19 +2672,17 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" customHeight="1">
+    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="42" t="s">
         <v>248</v>
       </c>
       <c r="B13" s="34">
         <v>896.24</v>
       </c>
-      <c r="C13" s="17">
-        <v>200</v>
-      </c>
+      <c r="C13" s="17"/>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>179248</v>
+        <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>269</v>
@@ -2968,37 +2964,33 @@
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
     </row>
-    <row r="18" spans="1:120" ht="15" customHeight="1">
+    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>284</v>
       </c>
       <c r="B18" s="34">
         <v>916.29</v>
       </c>
-      <c r="C18" s="17">
-        <v>200</v>
-      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>183258</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" customHeight="1">
+    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>263</v>
       </c>
       <c r="B19" s="34">
         <v>916.29</v>
       </c>
-      <c r="C19" s="17">
-        <v>200</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>183258</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>269</v>
@@ -3073,19 +3065,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B21" s="34">
         <v>1032.58</v>
       </c>
-      <c r="C21" s="17">
-        <v>200</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>206516</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>269</v>
@@ -3602,19 +3592,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>273</v>
       </c>
       <c r="B26" s="34">
         <v>969.42</v>
       </c>
-      <c r="C26" s="17">
-        <v>200</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>193884</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>269</v>
@@ -4895,19 +4883,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>222</v>
       </c>
       <c r="B37" s="34">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>200</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>235760</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>269</v>
@@ -5028,19 +5014,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>257</v>
       </c>
       <c r="B38" s="34">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17">
-        <v>100</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>112008</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>269</v>
@@ -5550,19 +5534,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>205</v>
       </c>
       <c r="B42" s="34">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>140</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>199133.2</v>
+        <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>269</v>
@@ -6533,11 +6515,11 @@
         <v>1066.6600000000001</v>
       </c>
       <c r="C50" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>42666.400000000001</v>
+        <v>21333.200000000001</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>269</v>
@@ -8867,20 +8849,22 @@
       <c r="AZ69" s="31"/>
       <c r="BA69" s="31"/>
     </row>
-    <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="70" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B70" s="34">
-        <v>5427.89</v>
-      </c>
-      <c r="C70" s="17"/>
+        <v>5603.31</v>
+      </c>
+      <c r="C70" s="17">
+        <v>35</v>
+      </c>
       <c r="D70" s="18">
         <f t="shared" ref="D70:D101" si="2">B70*C70</f>
-        <v>0</v>
+        <v>196115.85</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="31"/>
@@ -9633,17 +9617,19 @@
       <c r="DO79" s="15"/>
       <c r="DP79" s="15"/>
     </row>
-    <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="80" spans="1:120" ht="15" customHeight="1">
       <c r="A80" s="42" t="s">
         <v>270</v>
       </c>
       <c r="B80" s="34">
         <v>6405.21</v>
       </c>
-      <c r="C80" s="17"/>
+      <c r="C80" s="17">
+        <v>10</v>
+      </c>
       <c r="D80" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>64052.1</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>269</v>
@@ -10158,11 +10144,11 @@
         <v>1246.96</v>
       </c>
       <c r="C85" s="17">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>74817.600000000006</v>
+        <v>37408.800000000003</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -10220,19 +10206,17 @@
       <c r="BD85" s="31"/>
       <c r="BE85" s="31"/>
     </row>
-    <row r="86" spans="1:120" ht="15" customHeight="1">
+    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>285</v>
       </c>
       <c r="B86" s="34">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17">
-        <v>120</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>156751.20000000001</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>269</v>
@@ -11140,19 +11124,17 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" s="14" customFormat="1">
+    <row r="94" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A94" s="43" t="s">
         <v>240</v>
       </c>
       <c r="B94" s="34">
         <v>1306.26</v>
       </c>
-      <c r="C94" s="17">
-        <v>40</v>
-      </c>
+      <c r="C94" s="17"/>
       <c r="D94" s="18">
         <f t="shared" si="2"/>
-        <v>52250.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>269</v>
@@ -11268,19 +11250,17 @@
       <c r="AZ95" s="31"/>
       <c r="BA95" s="31"/>
     </row>
-    <row r="96" spans="1:120" ht="15" customHeight="1">
+    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="43" t="s">
         <v>278</v>
       </c>
       <c r="B96" s="34">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17">
-        <v>40</v>
-      </c>
+      <c r="C96" s="17"/>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>54578</v>
+        <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>269</v>
@@ -11802,11 +11782,11 @@
         <v>1178.94</v>
       </c>
       <c r="C100" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>47157.600000000006</v>
+        <v>23578.800000000003</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>269</v>
@@ -11981,17 +11961,17 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B102" s="34">
         <v>1188.82</v>
       </c>
       <c r="C102" s="17">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>118882</v>
+        <v>23776.399999999998</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>269</v>
@@ -18663,7 +18643,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B161" s="34">
         <v>7066.79</v>
@@ -18674,7 +18654,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F161" s="32"/>
       <c r="G161" s="32"/>
@@ -18794,7 +18774,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B162" s="34">
         <v>8101.24</v>
@@ -18923,7 +18903,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B163" s="34">
         <v>7501.24</v>
@@ -19050,20 +19030,22 @@
       <c r="DO163" s="15"/>
       <c r="DP163" s="15"/>
     </row>
-    <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="164" spans="1:120" ht="15" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B164" s="34">
         <v>7778.48</v>
       </c>
-      <c r="C164" s="17"/>
+      <c r="C164" s="17">
+        <v>5</v>
+      </c>
       <c r="D164" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>38892.399999999994</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="32"/>
@@ -19181,20 +19163,22 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B165" s="34">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="17">
+        <v>2</v>
+      </c>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>18133.080000000002</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="F165" s="32"/>
       <c r="G165" s="32"/>
@@ -19443,19 +19427,19 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1">
       <c r="A167" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B167" s="34">
         <v>7778.48</v>
       </c>
       <c r="C167" s="17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>311139.19999999995</v>
+        <v>233354.4</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>269</v>
@@ -19576,17 +19560,19 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:120" ht="15" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B168" s="34">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17"/>
+      <c r="C168" s="17">
+        <v>10</v>
+      </c>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90565.1</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>269</v>
@@ -19707,20 +19693,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B169" s="34">
         <v>9056.51</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>5</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E169" s="48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F169" s="32"/>
       <c r="G169" s="32"/>
@@ -19840,7 +19828,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A170" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B170" s="34">
         <v>10133.07</v>
@@ -19975,12 +19963,12 @@
       </c>
       <c r="B171" s="66"/>
       <c r="C171" s="51">
-        <f>SUBTOTAL(9,C6:C170)</f>
-        <v>2060</v>
+        <f>SUBTOTAL(9,C48:C170)</f>
+        <v>227</v>
       </c>
       <c r="D171" s="51">
-        <f>SUBTOTAL(9,D6:D170)</f>
-        <v>3107085.2</v>
+        <f>SUBTOTAL(9,D48:D170)</f>
+        <v>842594.27999999991</v>
       </c>
       <c r="E171" s="52"/>
       <c r="F171" s="32"/>
@@ -20250,10 +20238,10 @@
     </row>
     <row r="177" spans="2:5" ht="15" customHeight="1">
       <c r="B177" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C177" s="25">
-        <v>3100000</v>
+        <v>800000</v>
       </c>
       <c r="D177" s="26"/>
       <c r="E177" s="24" t="s">
@@ -20282,7 +20270,7 @@
       </c>
       <c r="C180" s="40">
         <f>SUM(C177:C179)</f>
-        <v>3100000</v>
+        <v>800000</v>
       </c>
       <c r="D180" s="41"/>
       <c r="E180" s="29"/>
@@ -20290,7 +20278,7 @@
     <row r="181" spans="2:5" ht="15" customHeight="1"/>
     <row r="182" spans="2:5" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A4:E171">
+  <autoFilter ref="A4:E170">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1938,7 +1938,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I100" sqref="I100"/>
+      <selection pane="bottomRight" activeCell="L175" sqref="L175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E2" s="50">
         <f ca="1">TODAY()</f>
-        <v>44347</v>
+        <v>44350</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2672,17 +2672,19 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="13" spans="1:120" ht="15" customHeight="1">
       <c r="A13" s="42" t="s">
         <v>248</v>
       </c>
       <c r="B13" s="34">
         <v>896.24</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="17">
+        <v>70</v>
+      </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62736.800000000003</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>269</v>
@@ -2980,17 +2982,19 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:120" ht="15" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>263</v>
       </c>
       <c r="B19" s="34">
         <v>916.29</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="17">
+        <v>60</v>
+      </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54977.399999999994</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>269</v>
@@ -3065,17 +3069,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B21" s="34">
         <v>1032.58</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>100</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103258</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>269</v>
@@ -3592,17 +3598,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>273</v>
       </c>
       <c r="B26" s="34">
         <v>969.42</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>100</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96942</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>269</v>
@@ -6243,19 +6251,17 @@
       <c r="AZ47" s="56"/>
       <c r="BA47" s="56"/>
     </row>
-    <row r="48" spans="1:120" ht="15" customHeight="1">
+    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="42" t="s">
         <v>272</v>
       </c>
       <c r="B48" s="34">
         <v>1101.75</v>
       </c>
-      <c r="C48" s="17">
-        <v>20</v>
-      </c>
+      <c r="C48" s="17"/>
       <c r="D48" s="18">
         <f t="shared" si="1"/>
-        <v>22035</v>
+        <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>269</v>
@@ -6507,19 +6513,17 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
         <v>275</v>
       </c>
       <c r="B50" s="34">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17">
-        <v>20</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>21333.200000000001</v>
+        <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>269</v>
@@ -8849,19 +8853,17 @@
       <c r="AZ69" s="31"/>
       <c r="BA69" s="31"/>
     </row>
-    <row r="70" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B70" s="34">
         <v>5603.31</v>
       </c>
-      <c r="C70" s="17">
-        <v>35</v>
-      </c>
+      <c r="C70" s="17"/>
       <c r="D70" s="18">
         <f t="shared" ref="D70:D101" si="2">B70*C70</f>
-        <v>196115.85</v>
+        <v>0</v>
       </c>
       <c r="E70" s="18" t="s">
         <v>213</v>
@@ -9617,19 +9619,17 @@
       <c r="DO79" s="15"/>
       <c r="DP79" s="15"/>
     </row>
-    <row r="80" spans="1:120" ht="15" customHeight="1">
+    <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
         <v>270</v>
       </c>
       <c r="B80" s="34">
         <v>6405.21</v>
       </c>
-      <c r="C80" s="17">
-        <v>10</v>
-      </c>
+      <c r="C80" s="17"/>
       <c r="D80" s="18">
         <f t="shared" si="2"/>
-        <v>64052.1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>269</v>
@@ -10136,19 +10136,17 @@
       <c r="AZ84" s="31"/>
       <c r="BA84" s="31"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="43" t="s">
         <v>274</v>
       </c>
       <c r="B85" s="34">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>30</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>37408.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -11381,19 +11379,17 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>283</v>
       </c>
       <c r="B97" s="34">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17">
-        <v>20</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>28066.6</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>269</v>
@@ -11774,19 +11770,17 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B100" s="34">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17">
-        <v>20</v>
-      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>23578.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>269</v>
@@ -11959,19 +11953,17 @@
       <c r="AZ101" s="31"/>
       <c r="BA101" s="31"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B102" s="34">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17">
-        <v>20</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>23776.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>269</v>
@@ -19030,7 +19022,7 @@
       <c r="DO163" s="15"/>
       <c r="DP163" s="15"/>
     </row>
-    <row r="164" spans="1:120" ht="15" customHeight="1">
+    <row r="164" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A164" s="42" t="s">
         <v>294</v>
       </c>
@@ -19038,11 +19030,11 @@
         <v>7778.48</v>
       </c>
       <c r="C164" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D164" s="18">
         <f t="shared" si="4"/>
-        <v>38892.399999999994</v>
+        <v>77784.799999999988</v>
       </c>
       <c r="E164" s="18" t="s">
         <v>301</v>
@@ -19163,19 +19155,17 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1">
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
         <v>295</v>
       </c>
       <c r="B165" s="34">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17">
-        <v>2</v>
-      </c>
+      <c r="C165" s="17"/>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>18133.080000000002</v>
+        <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
         <v>291</v>
@@ -19427,19 +19417,17 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="42" t="s">
         <v>296</v>
       </c>
       <c r="B167" s="34">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17">
-        <v>30</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>233354.4</v>
+        <v>0</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>269</v>
@@ -19560,19 +19548,17 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" customHeight="1">
+    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
         <v>288</v>
       </c>
       <c r="B168" s="34">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17">
-        <v>10</v>
-      </c>
+      <c r="C168" s="17"/>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>90565.1</v>
+        <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>269</v>
@@ -19693,19 +19679,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
         <v>297</v>
       </c>
       <c r="B169" s="34">
         <v>9056.51</v>
       </c>
-      <c r="C169" s="17">
-        <v>5</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" si="5"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E169" s="48" t="s">
         <v>299</v>
@@ -19963,12 +19947,12 @@
       </c>
       <c r="B171" s="66"/>
       <c r="C171" s="51">
-        <f>SUBTOTAL(9,C48:C170)</f>
-        <v>227</v>
+        <f>SUBTOTAL(9,C13:C170)</f>
+        <v>340</v>
       </c>
       <c r="D171" s="51">
-        <f>SUBTOTAL(9,D48:D170)</f>
-        <v>842594.27999999991</v>
+        <f>SUBTOTAL(9,D13:D170)</f>
+        <v>395699</v>
       </c>
       <c r="E171" s="52"/>
       <c r="F171" s="32"/>
@@ -20241,7 +20225,7 @@
         <v>290</v>
       </c>
       <c r="C177" s="25">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="D177" s="26"/>
       <c r="E177" s="24" t="s">
@@ -20270,7 +20254,7 @@
       </c>
       <c r="C180" s="40">
         <f>SUM(C177:C179)</f>
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="D180" s="41"/>
       <c r="E180" s="29"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -865,9 +865,6 @@
     <t>Z30pro</t>
   </si>
   <si>
-    <t>Mix COLOUR</t>
-  </si>
-  <si>
     <t>ATOM</t>
   </si>
   <si>
@@ -929,6 +926,12 @@
   </si>
   <si>
     <t xml:space="preserve">Carabian Blue </t>
+  </si>
+  <si>
+    <t>Persian Blue Must</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1421,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1620,6 +1623,9 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1938,7 +1944,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L175" sqref="L175"/>
+      <selection pane="bottomRight" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1967,7 +1973,7 @@
         <v>88</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="49" t="s">
@@ -1975,7 +1981,7 @@
       </c>
       <c r="E2" s="50">
         <f ca="1">TODAY()</f>
-        <v>44350</v>
+        <v>44354</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1998,7 +2004,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" s="34">
         <v>6610.7</v>
@@ -2069,7 +2075,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="34">
         <v>7056.76</v>
@@ -2680,11 +2686,11 @@
         <v>896.24</v>
       </c>
       <c r="C13" s="17">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>62736.800000000003</v>
+        <v>35849.599999999999</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>269</v>
@@ -2966,17 +2972,19 @@
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
     </row>
-    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:120" ht="15" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B18" s="34">
         <v>916.29</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="17">
+        <v>20</v>
+      </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18325.8</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>269</v>
@@ -2990,11 +2998,11 @@
         <v>916.29</v>
       </c>
       <c r="C19" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>54977.399999999994</v>
+        <v>36651.599999999999</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>269</v>
@@ -3077,11 +3085,11 @@
         <v>1032.58</v>
       </c>
       <c r="C21" s="17">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>103258</v>
+        <v>41303.199999999997</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>269</v>
@@ -3606,11 +3614,11 @@
         <v>969.42</v>
       </c>
       <c r="C26" s="17">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>96942</v>
+        <v>38776.799999999996</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>269</v>
@@ -5022,17 +5030,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>257</v>
       </c>
       <c r="B38" s="34">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>40</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>0</v>
+        <v>44803.199999999997</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>269</v>
@@ -5542,20 +5552,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>205</v>
       </c>
       <c r="B42" s="34">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>60</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85342.8</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -6513,17 +6525,19 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="43" t="s">
         <v>275</v>
       </c>
       <c r="B50" s="34">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17">
+        <v>20</v>
+      </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21333.200000000001</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>269</v>
@@ -8855,7 +8869,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B70" s="34">
         <v>5603.31</v>
@@ -10136,17 +10150,19 @@
       <c r="AZ84" s="31"/>
       <c r="BA84" s="31"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="43" t="s">
         <v>274</v>
       </c>
       <c r="B85" s="34">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>40</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49878.400000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -10206,7 +10222,7 @@
     </row>
     <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B86" s="34">
         <v>1306.26</v>
@@ -11248,17 +11264,19 @@
       <c r="AZ95" s="31"/>
       <c r="BA95" s="31"/>
     </row>
-    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:120" ht="15" customHeight="1">
       <c r="A96" s="43" t="s">
         <v>278</v>
       </c>
       <c r="B96" s="34">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17"/>
+      <c r="C96" s="17">
+        <v>20</v>
+      </c>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27289</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>269</v>
@@ -11379,17 +11397,19 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B97" s="34">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>20</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28066.6</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>269</v>
@@ -11770,17 +11790,19 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B100" s="34">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="17">
+        <v>20</v>
+      </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23578.800000000003</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>269</v>
@@ -11955,7 +11977,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B102" s="34">
         <v>1188.82</v>
@@ -18635,7 +18657,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B161" s="34">
         <v>7066.79</v>
@@ -18646,7 +18668,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F161" s="32"/>
       <c r="G161" s="32"/>
@@ -18766,7 +18788,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B162" s="34">
         <v>8101.24</v>
@@ -18895,7 +18917,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B163" s="34">
         <v>7501.24</v>
@@ -19022,22 +19044,20 @@
       <c r="DO163" s="15"/>
       <c r="DP163" s="15"/>
     </row>
-    <row r="164" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B164" s="34">
         <v>7778.48</v>
       </c>
-      <c r="C164" s="17">
-        <v>10</v>
-      </c>
+      <c r="C164" s="17"/>
       <c r="D164" s="18">
         <f t="shared" si="4"/>
-        <v>77784.799999999988</v>
+        <v>0</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="32"/>
@@ -19157,7 +19177,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B165" s="34">
         <v>9066.5400000000009</v>
@@ -19168,7 +19188,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F165" s="32"/>
       <c r="G165" s="32"/>
@@ -19286,20 +19306,22 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A166" s="42" t="s">
         <v>279</v>
       </c>
       <c r="B166" s="34">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>5</v>
+      </c>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D170" si="5">B166*C166</f>
-        <v>0</v>
-      </c>
-      <c r="E166" s="18" t="s">
-        <v>280</v>
+        <v>49367.25</v>
+      </c>
+      <c r="E166" s="72" t="s">
+        <v>301</v>
       </c>
       <c r="F166" s="32"/>
       <c r="G166" s="32"/>
@@ -19419,7 +19441,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B167" s="34">
         <v>7778.48</v>
@@ -19550,7 +19572,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B168" s="34">
         <v>9056.51</v>
@@ -19681,7 +19703,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B169" s="34">
         <v>9056.51</v>
@@ -19692,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F169" s="32"/>
       <c r="G169" s="32"/>
@@ -19812,7 +19834,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A170" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B170" s="34">
         <v>10133.07</v>
@@ -19948,11 +19970,11 @@
       <c r="B171" s="66"/>
       <c r="C171" s="51">
         <f>SUBTOTAL(9,C13:C170)</f>
-        <v>340</v>
+        <v>405</v>
       </c>
       <c r="D171" s="51">
         <f>SUBTOTAL(9,D13:D170)</f>
-        <v>395699</v>
+        <v>500566.25</v>
       </c>
       <c r="E171" s="52"/>
       <c r="F171" s="32"/>
@@ -20222,10 +20244,10 @@
     </row>
     <row r="177" spans="2:5" ht="15" customHeight="1">
       <c r="B177" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C177" s="25">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="D177" s="26"/>
       <c r="E177" s="24" t="s">
@@ -20254,7 +20276,7 @@
       </c>
       <c r="C180" s="40">
         <f>SUM(C177:C179)</f>
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="D180" s="41"/>
       <c r="E180" s="29"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -928,10 +928,10 @@
     <t xml:space="preserve">Carabian Blue </t>
   </si>
   <si>
-    <t>Persian Blue Must</t>
-  </si>
-  <si>
     <t>White</t>
+  </si>
+  <si>
+    <t>Persian Blue &amp; Amazon Green</t>
   </si>
 </sst>
 </file>
@@ -1579,6 +1579,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="12" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1623,9 +1626,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1944,7 +1944,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I97" sqref="I97"/>
+      <selection pane="bottomRight" activeCell="I179" sqref="I179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1960,28 +1960,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="49" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="50">
         <f ca="1">TODAY()</f>
-        <v>44354</v>
+        <v>44355</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2980,11 +2980,11 @@
         <v>916.29</v>
       </c>
       <c r="C18" s="17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>18325.8</v>
+        <v>27488.699999999997</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>269</v>
@@ -3085,11 +3085,11 @@
         <v>1032.58</v>
       </c>
       <c r="C21" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>41303.199999999997</v>
+        <v>20651.599999999999</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>269</v>
@@ -3614,11 +3614,11 @@
         <v>969.42</v>
       </c>
       <c r="C26" s="17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>38776.799999999996</v>
+        <v>96942</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>269</v>
@@ -5030,19 +5030,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>257</v>
       </c>
       <c r="B38" s="34">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17">
-        <v>40</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>44803.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>269</v>
@@ -5552,22 +5550,20 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>205</v>
       </c>
       <c r="B42" s="34">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>60</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>85342.8</v>
+        <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -6525,19 +6521,17 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
         <v>275</v>
       </c>
       <c r="B50" s="34">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17">
-        <v>20</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>21333.200000000001</v>
+        <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>269</v>
@@ -10150,19 +10144,17 @@
       <c r="AZ84" s="31"/>
       <c r="BA84" s="31"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="43" t="s">
         <v>274</v>
       </c>
       <c r="B85" s="34">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>40</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>49878.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -11264,19 +11256,17 @@
       <c r="AZ95" s="31"/>
       <c r="BA95" s="31"/>
     </row>
-    <row r="96" spans="1:120" ht="15" customHeight="1">
+    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="43" t="s">
         <v>278</v>
       </c>
       <c r="B96" s="34">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17">
-        <v>20</v>
-      </c>
+      <c r="C96" s="17"/>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>27289</v>
+        <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>269</v>
@@ -11397,19 +11387,17 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>282</v>
       </c>
       <c r="B97" s="34">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17">
-        <v>20</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>28066.6</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>269</v>
@@ -11790,19 +11778,17 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B100" s="34">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17">
-        <v>20</v>
-      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>23578.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>269</v>
@@ -19320,8 +19306,8 @@
         <f t="shared" ref="D166:D170" si="5">B166*C166</f>
         <v>49367.25</v>
       </c>
-      <c r="E166" s="72" t="s">
-        <v>301</v>
+      <c r="E166" s="57" t="s">
+        <v>302</v>
       </c>
       <c r="F166" s="32"/>
       <c r="G166" s="32"/>
@@ -19964,17 +19950,17 @@
       <c r="DP170" s="15"/>
     </row>
     <row r="171" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A171" s="65" t="s">
+      <c r="A171" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B171" s="66"/>
+      <c r="B171" s="67"/>
       <c r="C171" s="51">
         <f>SUBTOTAL(9,C13:C170)</f>
-        <v>405</v>
+        <v>235</v>
       </c>
       <c r="D171" s="51">
         <f>SUBTOTAL(9,D13:D170)</f>
-        <v>500566.25</v>
+        <v>266950.75</v>
       </c>
       <c r="E171" s="52"/>
       <c r="F171" s="32"/>
@@ -20216,17 +20202,17 @@
       <c r="DP172" s="15"/>
     </row>
     <row r="173" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B173" s="57"/>
-      <c r="C173" s="57"/>
-      <c r="D173" s="57"/>
-      <c r="E173" s="57"/>
+      <c r="B173" s="58"/>
+      <c r="C173" s="58"/>
+      <c r="D173" s="58"/>
+      <c r="E173" s="58"/>
     </row>
     <row r="174" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B174" s="62" t="s">
+      <c r="B174" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C174" s="63"/>
-      <c r="D174" s="64"/>
+      <c r="C174" s="64"/>
+      <c r="D174" s="65"/>
       <c r="E174" s="30"/>
     </row>
     <row r="175" spans="1:120" ht="9" customHeight="1" thickBot="1"/>
@@ -20247,7 +20233,7 @@
         <v>289</v>
       </c>
       <c r="C177" s="25">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="D177" s="26"/>
       <c r="E177" s="24" t="s">
@@ -20276,7 +20262,7 @@
       </c>
       <c r="C180" s="40">
         <f>SUM(C177:C179)</f>
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="D180" s="41"/>
       <c r="E180" s="29"/>
@@ -20326,33 +20312,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71" t="e">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -22293,10 +22279,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="67" t="s">
+      <c r="A101" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="67"/>
+      <c r="B101" s="68"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1944,7 +1944,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I179" sqref="I179"/>
+      <selection pane="bottomRight" activeCell="J175" sqref="J175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="E2" s="50">
         <f ca="1">TODAY()</f>
-        <v>44355</v>
+        <v>44357</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2686,11 +2686,11 @@
         <v>896.24</v>
       </c>
       <c r="C13" s="17">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>35849.599999999999</v>
+        <v>179248</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>269</v>
@@ -2972,19 +2972,17 @@
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
     </row>
-    <row r="18" spans="1:120" ht="15" customHeight="1">
+    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>283</v>
       </c>
       <c r="B18" s="34">
         <v>916.29</v>
       </c>
-      <c r="C18" s="17">
-        <v>30</v>
-      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>27488.699999999997</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>269</v>
@@ -2998,11 +2996,11 @@
         <v>916.29</v>
       </c>
       <c r="C19" s="17">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>36651.599999999999</v>
+        <v>183258</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>269</v>
@@ -3085,11 +3083,11 @@
         <v>1032.58</v>
       </c>
       <c r="C21" s="17">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>20651.599999999999</v>
+        <v>206516</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>269</v>
@@ -3606,19 +3604,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>273</v>
       </c>
       <c r="B26" s="34">
         <v>969.42</v>
       </c>
-      <c r="C26" s="17">
-        <v>100</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>96942</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>269</v>
@@ -10144,17 +10140,19 @@
       <c r="AZ84" s="31"/>
       <c r="BA84" s="31"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="43" t="s">
         <v>274</v>
       </c>
       <c r="B85" s="34">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>40</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49878.400000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -10212,17 +10210,19 @@
       <c r="BD85" s="31"/>
       <c r="BE85" s="31"/>
     </row>
-    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>284</v>
       </c>
       <c r="B86" s="34">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>40</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52250.400000000001</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>269</v>
@@ -11961,17 +11961,19 @@
       <c r="AZ101" s="31"/>
       <c r="BA101" s="31"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B102" s="34">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>40</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>0</v>
+        <v>47552.799999999996</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>269</v>
@@ -15403,17 +15405,19 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A131" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B131" s="34">
         <v>1208.01</v>
       </c>
-      <c r="C131" s="17"/>
+      <c r="C131" s="17">
+        <v>20</v>
+      </c>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24160.2</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>269</v>
@@ -18255,7 +18259,7 @@
       <c r="DC156" s="14"/>
       <c r="DD156" s="14"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A157" s="42" t="s">
         <v>133</v>
       </c>
@@ -18317,7 +18321,7 @@
       <c r="AZ157" s="31"/>
       <c r="BA157" s="31"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="42" t="s">
         <v>247</v>
       </c>
@@ -19292,19 +19296,17 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
         <v>279</v>
       </c>
       <c r="B166" s="34">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17">
-        <v>5</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D170" si="5">B166*C166</f>
-        <v>49367.25</v>
+        <v>0</v>
       </c>
       <c r="E166" s="57" t="s">
         <v>302</v>
@@ -19956,11 +19958,11 @@
       <c r="B171" s="67"/>
       <c r="C171" s="51">
         <f>SUBTOTAL(9,C13:C170)</f>
-        <v>235</v>
+        <v>740</v>
       </c>
       <c r="D171" s="51">
         <f>SUBTOTAL(9,D13:D170)</f>
-        <v>266950.75</v>
+        <v>742863.8</v>
       </c>
       <c r="E171" s="52"/>
       <c r="F171" s="32"/>
@@ -20233,7 +20235,7 @@
         <v>289</v>
       </c>
       <c r="C177" s="25">
-        <v>200000</v>
+        <v>700000</v>
       </c>
       <c r="D177" s="26"/>
       <c r="E177" s="24" t="s">
@@ -20262,7 +20264,7 @@
       </c>
       <c r="C180" s="40">
         <f>SUM(C177:C179)</f>
-        <v>200000</v>
+        <v>700000</v>
       </c>
       <c r="D180" s="41"/>
       <c r="E180" s="29"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="302">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -926,9 +926,6 @@
   </si>
   <si>
     <t xml:space="preserve">Carabian Blue </t>
-  </si>
-  <si>
-    <t>White</t>
   </si>
   <si>
     <t>Persian Blue &amp; Amazon Green</t>
@@ -1944,7 +1941,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J175" sqref="J175"/>
+      <selection pane="bottomRight" activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1981,7 +1978,7 @@
       </c>
       <c r="E2" s="50">
         <f ca="1">TODAY()</f>
-        <v>44357</v>
+        <v>44360</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2002,20 +1999,22 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:120" ht="15" customHeight="1">
       <c r="A5" s="42" t="s">
         <v>280</v>
       </c>
       <c r="B5" s="34">
-        <v>6610.7</v>
-      </c>
-      <c r="C5" s="17"/>
+        <v>7244.21</v>
+      </c>
+      <c r="C5" s="17">
+        <v>10</v>
+      </c>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>0</v>
+        <v>72442.100000000006</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2678,19 +2677,17 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" customHeight="1">
+    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="42" t="s">
         <v>248</v>
       </c>
       <c r="B13" s="34">
         <v>896.24</v>
       </c>
-      <c r="C13" s="17">
-        <v>200</v>
-      </c>
+      <c r="C13" s="17"/>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>179248</v>
+        <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>269</v>
@@ -2988,19 +2985,17 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" customHeight="1">
+    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>263</v>
       </c>
       <c r="B19" s="34">
         <v>916.29</v>
       </c>
-      <c r="C19" s="17">
-        <v>200</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>183258</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>269</v>
@@ -4895,17 +4890,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>222</v>
       </c>
       <c r="B37" s="34">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>20</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23576</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>269</v>
@@ -5026,17 +5023,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>257</v>
       </c>
       <c r="B38" s="34">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>40</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>0</v>
+        <v>44803.199999999997</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>269</v>
@@ -5546,20 +5545,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>205</v>
       </c>
       <c r="B42" s="34">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>25</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35559.5</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -6255,17 +6256,19 @@
       <c r="AZ47" s="56"/>
       <c r="BA47" s="56"/>
     </row>
-    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="48" spans="1:120" ht="15" customHeight="1">
       <c r="A48" s="42" t="s">
         <v>272</v>
       </c>
       <c r="B48" s="34">
         <v>1101.75</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="17">
+        <v>20</v>
+      </c>
       <c r="D48" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22035</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>269</v>
@@ -6517,17 +6520,19 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="43" t="s">
         <v>275</v>
       </c>
       <c r="B50" s="34">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17">
+        <v>40</v>
+      </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42666.400000000001</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>269</v>
@@ -10148,11 +10153,11 @@
         <v>1246.96</v>
       </c>
       <c r="C85" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>49878.400000000001</v>
+        <v>24939.200000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -10210,19 +10215,17 @@
       <c r="BD85" s="31"/>
       <c r="BE85" s="31"/>
     </row>
-    <row r="86" spans="1:120" ht="15" customHeight="1">
+    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>284</v>
       </c>
       <c r="B86" s="34">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17">
-        <v>40</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>52250.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>269</v>
@@ -11256,17 +11259,19 @@
       <c r="AZ95" s="31"/>
       <c r="BA95" s="31"/>
     </row>
-    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:120" ht="15" customHeight="1">
       <c r="A96" s="43" t="s">
         <v>278</v>
       </c>
       <c r="B96" s="34">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17"/>
+      <c r="C96" s="17">
+        <v>20</v>
+      </c>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27289</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>269</v>
@@ -11387,17 +11392,19 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>282</v>
       </c>
       <c r="B97" s="34">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>20</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28066.6</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>269</v>
@@ -11778,17 +11785,19 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B100" s="34">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="17">
+        <v>20</v>
+      </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23578.800000000003</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>269</v>
@@ -11961,7 +11970,7 @@
       <c r="AZ101" s="31"/>
       <c r="BA101" s="31"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A102" s="42" t="s">
         <v>285</v>
       </c>
@@ -15405,19 +15414,17 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B131" s="34">
         <v>1208.01</v>
       </c>
-      <c r="C131" s="17">
-        <v>20</v>
-      </c>
+      <c r="C131" s="17"/>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>24160.2</v>
+        <v>0</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>269</v>
@@ -19309,7 +19316,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F166" s="32"/>
       <c r="G166" s="32"/>
@@ -19957,12 +19964,12 @@
       </c>
       <c r="B171" s="67"/>
       <c r="C171" s="51">
-        <f>SUBTOTAL(9,C13:C170)</f>
-        <v>740</v>
+        <f>SUBTOTAL(9,C5:C170)</f>
+        <v>475</v>
       </c>
       <c r="D171" s="51">
-        <f>SUBTOTAL(9,D13:D170)</f>
-        <v>742863.8</v>
+        <f>SUBTOTAL(9,D5:D170)</f>
+        <v>599024.60000000009</v>
       </c>
       <c r="E171" s="52"/>
       <c r="F171" s="32"/>
@@ -20235,7 +20242,7 @@
         <v>289</v>
       </c>
       <c r="C177" s="25">
-        <v>700000</v>
+        <v>600000</v>
       </c>
       <c r="D177" s="26"/>
       <c r="E177" s="24" t="s">
@@ -20264,7 +20271,7 @@
       </c>
       <c r="C180" s="40">
         <f>SUM(C177:C179)</f>
-        <v>700000</v>
+        <v>600000</v>
       </c>
       <c r="D180" s="41"/>
       <c r="E180" s="29"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$171</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -929,6 +929,9 @@
   </si>
   <si>
     <t>Persian Blue &amp; Amazon Green</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1421,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1623,6 +1626,9 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1941,7 +1947,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G171" sqref="G171"/>
+      <selection pane="bottomRight" activeCell="J176" sqref="J176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1978,7 +1984,7 @@
       </c>
       <c r="E2" s="50">
         <f ca="1">TODAY()</f>
-        <v>44360</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1999,19 +2005,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" customHeight="1">
+    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="42" t="s">
         <v>280</v>
       </c>
       <c r="B5" s="34">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="17">
-        <v>10</v>
-      </c>
+      <c r="C5" s="17"/>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>72442.100000000006</v>
+        <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>213</v>
@@ -3070,19 +3074,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B21" s="34">
         <v>1032.58</v>
       </c>
-      <c r="C21" s="17">
-        <v>200</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>206516</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>269</v>
@@ -5553,14 +5555,14 @@
         <v>1422.38</v>
       </c>
       <c r="C42" s="17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>35559.5</v>
+        <v>28447.600000000002</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -6256,19 +6258,17 @@
       <c r="AZ47" s="56"/>
       <c r="BA47" s="56"/>
     </row>
-    <row r="48" spans="1:120" ht="15" customHeight="1">
+    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="42" t="s">
         <v>272</v>
       </c>
       <c r="B48" s="34">
         <v>1101.75</v>
       </c>
-      <c r="C48" s="17">
-        <v>20</v>
-      </c>
+      <c r="C48" s="17"/>
       <c r="D48" s="18">
         <f t="shared" si="1"/>
-        <v>22035</v>
+        <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>269</v>
@@ -6528,11 +6528,11 @@
         <v>1066.6600000000001</v>
       </c>
       <c r="C50" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>42666.400000000001</v>
+        <v>21333.200000000001</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>269</v>
@@ -10153,11 +10153,11 @@
         <v>1246.96</v>
       </c>
       <c r="C85" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>24939.200000000001</v>
+        <v>49878.400000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -11785,19 +11785,17 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B100" s="34">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17">
-        <v>20</v>
-      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>23578.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>269</v>
@@ -11970,7 +11968,7 @@
       <c r="AZ101" s="31"/>
       <c r="BA101" s="31"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>285</v>
       </c>
@@ -15414,17 +15412,19 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:120" ht="15" customHeight="1">
       <c r="A131" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B131" s="34">
         <v>1208.01</v>
       </c>
-      <c r="C131" s="17"/>
+      <c r="C131" s="17">
+        <v>20</v>
+      </c>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24160.2</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>269</v>
@@ -18266,7 +18266,7 @@
       <c r="DC156" s="14"/>
       <c r="DD156" s="14"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A157" s="42" t="s">
         <v>133</v>
       </c>
@@ -18328,7 +18328,7 @@
       <c r="AZ157" s="31"/>
       <c r="BA157" s="31"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="42" t="s">
         <v>247</v>
       </c>
@@ -18521,17 +18521,19 @@
       <c r="DO159" s="15"/>
       <c r="DP159" s="15"/>
     </row>
-    <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="160" spans="1:120" ht="15" customHeight="1">
       <c r="A160" s="42" t="s">
         <v>266</v>
       </c>
       <c r="B160" s="34">
-        <v>7593.04</v>
-      </c>
-      <c r="C160" s="17"/>
+        <v>7093.04</v>
+      </c>
+      <c r="C160" s="17">
+        <v>20</v>
+      </c>
       <c r="D160" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>141860.79999999999</v>
       </c>
       <c r="E160" s="18" t="s">
         <v>269</v>
@@ -19434,17 +19436,19 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A167" s="42" t="s">
         <v>295</v>
       </c>
       <c r="B167" s="34">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17">
+        <v>47</v>
+      </c>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>365588.56</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>269</v>
@@ -19964,12 +19968,12 @@
       </c>
       <c r="B171" s="67"/>
       <c r="C171" s="51">
-        <f>SUBTOTAL(9,C5:C170)</f>
-        <v>475</v>
-      </c>
-      <c r="D171" s="51">
-        <f>SUBTOTAL(9,D5:D170)</f>
-        <v>599024.60000000009</v>
+        <f>SUM(C5:C170)</f>
+        <v>307</v>
+      </c>
+      <c r="D171" s="73">
+        <f>SUM(D5:D170)</f>
+        <v>802556.36</v>
       </c>
       <c r="E171" s="52"/>
       <c r="F171" s="32"/>
@@ -20242,7 +20246,7 @@
         <v>289</v>
       </c>
       <c r="C177" s="25">
-        <v>600000</v>
+        <v>800000</v>
       </c>
       <c r="D177" s="26"/>
       <c r="E177" s="24" t="s">
@@ -20271,7 +20275,7 @@
       </c>
       <c r="C180" s="40">
         <f>SUM(C177:C179)</f>
-        <v>600000</v>
+        <v>800000</v>
       </c>
       <c r="D180" s="41"/>
       <c r="E180" s="29"/>
@@ -20279,7 +20283,7 @@
     <row r="181" spans="2:5" ht="15" customHeight="1"/>
     <row r="182" spans="2:5" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A4:E170">
+  <autoFilter ref="A4:E171">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$170</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1582,6 +1582,9 @@
     <xf numFmtId="43" fontId="12" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="21" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1626,9 +1629,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1947,7 +1947,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J176" sqref="J176"/>
+      <selection pane="bottomRight" activeCell="J179" sqref="J179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1963,28 +1963,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="49" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="50">
         <f ca="1">TODAY()</f>
-        <v>44361</v>
+        <v>44362</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3074,17 +3074,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>256</v>
       </c>
       <c r="B21" s="34">
         <v>1032.58</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>100</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103258</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>269</v>
@@ -5547,19 +5549,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>205</v>
       </c>
       <c r="B42" s="34">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>302</v>
@@ -6258,17 +6258,19 @@
       <c r="AZ47" s="56"/>
       <c r="BA47" s="56"/>
     </row>
-    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="48" spans="1:120" ht="15" customHeight="1">
       <c r="A48" s="42" t="s">
         <v>272</v>
       </c>
       <c r="B48" s="34">
         <v>1101.75</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="17">
+        <v>20</v>
+      </c>
       <c r="D48" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22035</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>269</v>
@@ -6520,19 +6522,17 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
         <v>275</v>
       </c>
       <c r="B50" s="34">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17">
-        <v>20</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>21333.200000000001</v>
+        <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>269</v>
@@ -10145,19 +10145,17 @@
       <c r="AZ84" s="31"/>
       <c r="BA84" s="31"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="43" t="s">
         <v>274</v>
       </c>
       <c r="B85" s="34">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>40</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>49878.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -10215,17 +10213,19 @@
       <c r="BD85" s="31"/>
       <c r="BE85" s="31"/>
     </row>
-    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>284</v>
       </c>
       <c r="B86" s="34">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>20</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26125.200000000001</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>269</v>
@@ -11259,19 +11259,17 @@
       <c r="AZ95" s="31"/>
       <c r="BA95" s="31"/>
     </row>
-    <row r="96" spans="1:120" ht="15" customHeight="1">
+    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="43" t="s">
         <v>278</v>
       </c>
       <c r="B96" s="34">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17">
-        <v>20</v>
-      </c>
+      <c r="C96" s="17"/>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>27289</v>
+        <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>269</v>
@@ -11400,11 +11398,11 @@
         <v>1403.33</v>
       </c>
       <c r="C97" s="17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>28066.6</v>
+        <v>42099.899999999994</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>269</v>
@@ -11968,19 +11966,17 @@
       <c r="AZ101" s="31"/>
       <c r="BA101" s="31"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B102" s="34">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17">
-        <v>40</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>47552.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>269</v>
@@ -15412,19 +15408,17 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" customHeight="1">
+    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B131" s="34">
         <v>1208.01</v>
       </c>
-      <c r="C131" s="17">
-        <v>20</v>
-      </c>
+      <c r="C131" s="17"/>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>24160.2</v>
+        <v>0</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>269</v>
@@ -18521,19 +18515,17 @@
       <c r="DO159" s="15"/>
       <c r="DP159" s="15"/>
     </row>
-    <row r="160" spans="1:120" ht="15" customHeight="1">
+    <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="42" t="s">
         <v>266</v>
       </c>
       <c r="B160" s="34">
         <v>7093.04</v>
       </c>
-      <c r="C160" s="17">
-        <v>20</v>
-      </c>
+      <c r="C160" s="17"/>
       <c r="D160" s="18">
         <f t="shared" si="4"/>
-        <v>141860.79999999999</v>
+        <v>0</v>
       </c>
       <c r="E160" s="18" t="s">
         <v>269</v>
@@ -19436,19 +19428,17 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="42" t="s">
         <v>295</v>
       </c>
       <c r="B167" s="34">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17">
-        <v>47</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>365588.56</v>
+        <v>0</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>269</v>
@@ -19700,17 +19690,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="42" t="s">
         <v>296</v>
       </c>
       <c r="B169" s="34">
         <v>9056.51</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>5</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E169" s="48" t="s">
         <v>298</v>
@@ -19963,17 +19955,17 @@
       <c r="DP170" s="15"/>
     </row>
     <row r="171" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A171" s="66" t="s">
+      <c r="A171" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B171" s="67"/>
+      <c r="B171" s="68"/>
       <c r="C171" s="51">
-        <f>SUM(C5:C170)</f>
-        <v>307</v>
-      </c>
-      <c r="D171" s="73">
-        <f>SUM(D5:D170)</f>
-        <v>802556.36</v>
+        <f>SUBTOTAL(9,C21:C170)</f>
+        <v>235</v>
+      </c>
+      <c r="D171" s="58">
+        <f>SUBTOTAL(9,D21:D170)</f>
+        <v>307179.85000000003</v>
       </c>
       <c r="E171" s="52"/>
       <c r="F171" s="32"/>
@@ -20215,17 +20207,17 @@
       <c r="DP172" s="15"/>
     </row>
     <row r="173" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B173" s="58"/>
-      <c r="C173" s="58"/>
-      <c r="D173" s="58"/>
-      <c r="E173" s="58"/>
+      <c r="B173" s="59"/>
+      <c r="C173" s="59"/>
+      <c r="D173" s="59"/>
+      <c r="E173" s="59"/>
     </row>
     <row r="174" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B174" s="63" t="s">
+      <c r="B174" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C174" s="64"/>
-      <c r="D174" s="65"/>
+      <c r="C174" s="65"/>
+      <c r="D174" s="66"/>
       <c r="E174" s="30"/>
     </row>
     <row r="175" spans="1:120" ht="9" customHeight="1" thickBot="1"/>
@@ -20246,7 +20238,7 @@
         <v>289</v>
       </c>
       <c r="C177" s="25">
-        <v>800000</v>
+        <v>300000</v>
       </c>
       <c r="D177" s="26"/>
       <c r="E177" s="24" t="s">
@@ -20275,7 +20267,7 @@
       </c>
       <c r="C180" s="40">
         <f>SUM(C177:C179)</f>
-        <v>800000</v>
+        <v>300000</v>
       </c>
       <c r="D180" s="41"/>
       <c r="E180" s="29"/>
@@ -20283,7 +20275,7 @@
     <row r="181" spans="2:5" ht="15" customHeight="1"/>
     <row r="182" spans="2:5" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A4:E171">
+  <autoFilter ref="A4:E170">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20325,33 +20317,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72" t="e">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="72"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -22292,10 +22284,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="68" t="s">
+      <c r="A101" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="68"/>
+      <c r="B101" s="69"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$171</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="304">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -886,9 +886,6 @@
     <t>Z18</t>
   </si>
   <si>
-    <t>Z35</t>
-  </si>
-  <si>
     <t>Mugdho Corporation</t>
   </si>
   <si>
@@ -928,10 +925,16 @@
     <t xml:space="preserve">Carabian Blue </t>
   </si>
   <si>
-    <t>Persian Blue &amp; Amazon Green</t>
-  </si>
-  <si>
     <t>White</t>
+  </si>
+  <si>
+    <t>Persian Blue  Must be</t>
+  </si>
+  <si>
+    <t>Z35(3+32)</t>
+  </si>
+  <si>
+    <t>Z35(4+64)</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1098,6 +1101,30 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1421,7 +1448,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1538,12 +1565,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1551,13 +1572,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="12" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="19" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1583,6 +1598,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="21" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1941,18 +1969,18 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:DP182"/>
+  <dimension ref="A1:DP183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J179" sqref="J179"/>
+      <selection pane="bottomRight" activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="22" style="56" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="33" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="14" customWidth="1"/>
     <col min="4" max="4" width="18" style="14" customWidth="1"/>
@@ -1963,50 +1991,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="46">
         <f ca="1">TODAY()</f>
-        <v>44362</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:120" ht="15" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="51" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="57" t="s">
         <v>280</v>
       </c>
       <c r="B5" s="34">
@@ -2077,8 +2105,8 @@
       <c r="DD5" s="14"/>
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>299</v>
+      <c r="A6" s="57" t="s">
+        <v>298</v>
       </c>
       <c r="B6" s="34">
         <v>7056.76</v>
@@ -2144,7 +2172,7 @@
       <c r="DD6" s="14"/>
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="57" t="s">
         <v>220</v>
       </c>
       <c r="B7" s="34">
@@ -2215,7 +2243,7 @@
       <c r="DD7" s="14"/>
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B8" s="34">
@@ -2344,7 +2372,7 @@
       <c r="DP8" s="15"/>
     </row>
     <row r="9" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="57" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="34">
@@ -2473,7 +2501,7 @@
       <c r="DP9" s="15"/>
     </row>
     <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="57" t="s">
         <v>156</v>
       </c>
       <c r="B10" s="34">
@@ -2542,7 +2570,7 @@
       <c r="DD10" s="14"/>
     </row>
     <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="57" t="s">
         <v>157</v>
       </c>
       <c r="B11" s="34">
@@ -2611,7 +2639,7 @@
       <c r="DD11" s="14"/>
     </row>
     <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="57" t="s">
         <v>170</v>
       </c>
       <c r="B12" s="34">
@@ -2682,7 +2710,7 @@
       <c r="DD12" s="14"/>
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="57" t="s">
         <v>248</v>
       </c>
       <c r="B13" s="34">
@@ -2698,7 +2726,7 @@
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="57" t="s">
         <v>254</v>
       </c>
       <c r="B14" s="34">
@@ -2767,7 +2795,7 @@
       <c r="DD14" s="14"/>
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="57" t="s">
         <v>219</v>
       </c>
       <c r="B15" s="34">
@@ -2836,7 +2864,7 @@
       <c r="DD15" s="14"/>
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="57" t="s">
         <v>225</v>
       </c>
       <c r="B16" s="34">
@@ -2905,7 +2933,7 @@
       <c r="DD16" s="14"/>
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="57" t="s">
         <v>236</v>
       </c>
       <c r="B17" s="34">
@@ -2974,7 +3002,7 @@
       <c r="DD17" s="14"/>
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="57" t="s">
         <v>283</v>
       </c>
       <c r="B18" s="34">
@@ -2990,7 +3018,7 @@
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="57" t="s">
         <v>263</v>
       </c>
       <c r="B19" s="34">
@@ -3006,7 +3034,7 @@
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="57" t="s">
         <v>158</v>
       </c>
       <c r="B20" s="34">
@@ -3074,19 +3102,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
-      <c r="A21" s="42" t="s">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A21" s="57" t="s">
         <v>256</v>
       </c>
       <c r="B21" s="34">
         <v>1032.58</v>
       </c>
-      <c r="C21" s="17">
-        <v>100</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>103258</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>269</v>
@@ -3144,7 +3170,7 @@
       <c r="DD21" s="14"/>
     </row>
     <row r="22" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="34">
@@ -3215,7 +3241,7 @@
       <c r="DD22" s="14"/>
     </row>
     <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="57" t="s">
         <v>155</v>
       </c>
       <c r="B23" s="34">
@@ -3344,7 +3370,7 @@
       <c r="DP23" s="15"/>
     </row>
     <row r="24" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="57" t="s">
         <v>124</v>
       </c>
       <c r="B24" s="34">
@@ -3473,7 +3499,7 @@
       <c r="DP24" s="15"/>
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="57" t="s">
         <v>183</v>
       </c>
       <c r="B25" s="34">
@@ -3604,7 +3630,7 @@
       <c r="DP25" s="15"/>
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="57" t="s">
         <v>273</v>
       </c>
       <c r="B26" s="34">
@@ -3735,7 +3761,7 @@
       <c r="DP26" s="15"/>
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="57" t="s">
         <v>224</v>
       </c>
       <c r="B27" s="34">
@@ -3864,7 +3890,7 @@
       <c r="DP27" s="15"/>
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="57" t="s">
         <v>244</v>
       </c>
       <c r="B28" s="34">
@@ -3993,7 +4019,7 @@
       <c r="DP28" s="15"/>
     </row>
     <row r="29" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="57" t="s">
         <v>128</v>
       </c>
       <c r="B29" s="34">
@@ -4122,7 +4148,7 @@
       <c r="DP29" s="15"/>
     </row>
     <row r="30" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="57" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="34">
@@ -4251,7 +4277,7 @@
       <c r="DP30" s="15"/>
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="57" t="s">
         <v>223</v>
       </c>
       <c r="B31" s="34">
@@ -4382,7 +4408,7 @@
       <c r="DP31" s="15"/>
     </row>
     <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="57" t="s">
         <v>147</v>
       </c>
       <c r="B32" s="34">
@@ -4511,7 +4537,7 @@
       <c r="DP32" s="15"/>
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="57" t="s">
         <v>195</v>
       </c>
       <c r="B33" s="34">
@@ -4573,7 +4599,7 @@
       <c r="BA33" s="31"/>
     </row>
     <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="57" t="s">
         <v>154</v>
       </c>
       <c r="B34" s="34">
@@ -4635,7 +4661,7 @@
       <c r="BA34" s="31"/>
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B35" s="34">
@@ -4764,7 +4790,7 @@
       <c r="DP35" s="15"/>
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="57" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="34">
@@ -4895,7 +4921,7 @@
       <c r="DP36" s="15"/>
     </row>
     <row r="37" spans="1:120" ht="15" customHeight="1">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="57" t="s">
         <v>222</v>
       </c>
       <c r="B37" s="34">
@@ -5028,18 +5054,18 @@
       <c r="DP37" s="15"/>
     </row>
     <row r="38" spans="1:120" ht="15" customHeight="1">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="57" t="s">
         <v>257</v>
       </c>
       <c r="B38" s="34">
         <v>1120.08</v>
       </c>
       <c r="C38" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>44803.199999999997</v>
+        <v>22401.599999999999</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>269</v>
@@ -5161,7 +5187,7 @@
       <c r="DP38" s="15"/>
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="57" t="s">
         <v>200</v>
       </c>
       <c r="B39" s="34">
@@ -5292,7 +5318,7 @@
       <c r="DP39" s="15"/>
     </row>
     <row r="40" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="57" t="s">
         <v>117</v>
       </c>
       <c r="B40" s="34">
@@ -5421,7 +5447,7 @@
       <c r="DP40" s="15"/>
     </row>
     <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="57" t="s">
         <v>159</v>
       </c>
       <c r="B41" s="34">
@@ -5549,20 +5575,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A42" s="42" t="s">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
+      <c r="A42" s="57" t="s">
         <v>205</v>
       </c>
       <c r="B42" s="34">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>20</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28447.600000000002</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -5681,7 +5709,7 @@
       <c r="DP42" s="15"/>
     </row>
     <row r="43" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="57" t="s">
         <v>118</v>
       </c>
       <c r="B43" s="34">
@@ -5810,7 +5838,7 @@
       <c r="DP43" s="15"/>
     </row>
     <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="57" t="s">
         <v>161</v>
       </c>
       <c r="B44" s="34">
@@ -5939,7 +5967,7 @@
       <c r="DP44" s="15"/>
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="57" t="s">
         <v>235</v>
       </c>
       <c r="B45" s="34">
@@ -6068,7 +6096,7 @@
       <c r="DP45" s="15"/>
     </row>
     <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="58" t="s">
         <v>160</v>
       </c>
       <c r="B46" s="34">
@@ -6196,8 +6224,8 @@
       <c r="DO46" s="15"/>
       <c r="DP46" s="15"/>
     </row>
-    <row r="47" spans="1:120" s="44" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A47" s="42" t="s">
+    <row r="47" spans="1:120" s="42" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A47" s="57" t="s">
         <v>255</v>
       </c>
       <c r="B47" s="34">
@@ -6209,57 +6237,57 @@
         <v>0</v>
       </c>
       <c r="E47" s="18"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="56"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="56"/>
-      <c r="AC47" s="56"/>
-      <c r="AD47" s="56"/>
-      <c r="AE47" s="56"/>
-      <c r="AF47" s="56"/>
-      <c r="AG47" s="56"/>
-      <c r="AH47" s="56"/>
-      <c r="AI47" s="56"/>
-      <c r="AJ47" s="56"/>
-      <c r="AK47" s="56"/>
-      <c r="AL47" s="56"/>
-      <c r="AM47" s="56"/>
-      <c r="AN47" s="56"/>
-      <c r="AO47" s="56"/>
-      <c r="AP47" s="56"/>
-      <c r="AQ47" s="56"/>
-      <c r="AR47" s="56"/>
-      <c r="AS47" s="56"/>
-      <c r="AT47" s="56"/>
-      <c r="AU47" s="56"/>
-      <c r="AV47" s="56"/>
-      <c r="AW47" s="56"/>
-      <c r="AX47" s="56"/>
-      <c r="AY47" s="56"/>
-      <c r="AZ47" s="56"/>
-      <c r="BA47" s="56"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
+      <c r="AK47" s="52"/>
+      <c r="AL47" s="52"/>
+      <c r="AM47" s="52"/>
+      <c r="AN47" s="52"/>
+      <c r="AO47" s="52"/>
+      <c r="AP47" s="52"/>
+      <c r="AQ47" s="52"/>
+      <c r="AR47" s="52"/>
+      <c r="AS47" s="52"/>
+      <c r="AT47" s="52"/>
+      <c r="AU47" s="52"/>
+      <c r="AV47" s="52"/>
+      <c r="AW47" s="52"/>
+      <c r="AX47" s="52"/>
+      <c r="AY47" s="52"/>
+      <c r="AZ47" s="52"/>
+      <c r="BA47" s="52"/>
     </row>
     <row r="48" spans="1:120" ht="15" customHeight="1">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="57" t="s">
         <v>272</v>
       </c>
       <c r="B48" s="34">
@@ -6392,7 +6420,7 @@
       <c r="DP48" s="15"/>
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="58" t="s">
         <v>138</v>
       </c>
       <c r="B49" s="34">
@@ -6522,17 +6550,19 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A50" s="43" t="s">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
+      <c r="A50" s="58" t="s">
         <v>275</v>
       </c>
       <c r="B50" s="34">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17">
+        <v>20</v>
+      </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21333.200000000001</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>269</v>
@@ -6654,7 +6684,7 @@
       <c r="DP50" s="15"/>
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="57" t="s">
         <v>253</v>
       </c>
       <c r="B51" s="34">
@@ -6785,7 +6815,7 @@
       <c r="DP51" s="15"/>
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="57" t="s">
         <v>185</v>
       </c>
       <c r="B52" s="34">
@@ -6914,7 +6944,7 @@
       <c r="DP52" s="15"/>
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="58" t="s">
         <v>238</v>
       </c>
       <c r="B53" s="34">
@@ -7045,7 +7075,7 @@
       <c r="DP53" s="15"/>
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="58" t="s">
         <v>259</v>
       </c>
       <c r="B54" s="34">
@@ -7176,7 +7206,7 @@
       <c r="DP54" s="15"/>
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="57" t="s">
         <v>178</v>
       </c>
       <c r="B55" s="34">
@@ -7305,7 +7335,7 @@
       <c r="DP55" s="15"/>
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="57" t="s">
         <v>177</v>
       </c>
       <c r="B56" s="34">
@@ -7434,7 +7464,7 @@
       <c r="DP56" s="15"/>
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="57" t="s">
         <v>116</v>
       </c>
       <c r="B57" s="34">
@@ -7563,7 +7593,7 @@
       <c r="DP57" s="15"/>
     </row>
     <row r="58" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="57" t="s">
         <v>125</v>
       </c>
       <c r="B58" s="34">
@@ -7694,7 +7724,7 @@
       <c r="DP58" s="15"/>
     </row>
     <row r="59" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="57" t="s">
         <v>193</v>
       </c>
       <c r="B59" s="34">
@@ -7823,7 +7853,7 @@
       <c r="DP59" s="15"/>
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="57" t="s">
         <v>150</v>
       </c>
       <c r="B60" s="34">
@@ -7952,7 +7982,7 @@
       <c r="DP60" s="15"/>
     </row>
     <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="57" t="s">
         <v>144</v>
       </c>
       <c r="B61" s="34">
@@ -8081,7 +8111,7 @@
       <c r="DP61" s="15"/>
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="57" t="s">
         <v>267</v>
       </c>
       <c r="B62" s="34">
@@ -8212,7 +8242,7 @@
       <c r="DP62" s="15"/>
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="57" t="s">
         <v>175</v>
       </c>
       <c r="B63" s="34">
@@ -8341,7 +8371,7 @@
       <c r="DP63" s="15"/>
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="57" t="s">
         <v>174</v>
       </c>
       <c r="B64" s="34">
@@ -8470,7 +8500,7 @@
       <c r="DP64" s="15"/>
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="57" t="s">
         <v>212</v>
       </c>
       <c r="B65" s="34">
@@ -8599,7 +8629,7 @@
       <c r="DP65" s="15"/>
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="57" t="s">
         <v>251</v>
       </c>
       <c r="B66" s="34">
@@ -8670,7 +8700,7 @@
       <c r="DD66" s="14"/>
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="57" t="s">
         <v>132</v>
       </c>
       <c r="B67" s="34">
@@ -8739,7 +8769,7 @@
       <c r="DD67" s="14"/>
     </row>
     <row r="68" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="57" t="s">
         <v>203</v>
       </c>
       <c r="B68" s="34">
@@ -8801,7 +8831,7 @@
       <c r="BA68" s="31"/>
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="57" t="s">
         <v>261</v>
       </c>
       <c r="B69" s="34">
@@ -8863,7 +8893,7 @@
       <c r="BA69" s="31"/>
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="57" t="s">
         <v>281</v>
       </c>
       <c r="B70" s="34">
@@ -8927,7 +8957,7 @@
       <c r="BA70" s="31"/>
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="57" t="s">
         <v>234</v>
       </c>
       <c r="B71" s="34">
@@ -8991,7 +9021,7 @@
       <c r="BA71" s="31"/>
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="57" t="s">
         <v>207</v>
       </c>
       <c r="B72" s="34">
@@ -9053,7 +9083,7 @@
       <c r="BA72" s="31"/>
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="57" t="s">
         <v>243</v>
       </c>
       <c r="B73" s="34">
@@ -9117,7 +9147,7 @@
       <c r="BA73" s="31"/>
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="57" t="s">
         <v>168</v>
       </c>
       <c r="B74" s="34">
@@ -9181,7 +9211,7 @@
       <c r="BA74" s="31"/>
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="57" t="s">
         <v>140</v>
       </c>
       <c r="B75" s="34">
@@ -9243,7 +9273,7 @@
       <c r="BA75" s="31"/>
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="57" t="s">
         <v>151</v>
       </c>
       <c r="B76" s="34">
@@ -9305,7 +9335,7 @@
       <c r="BA76" s="31"/>
     </row>
     <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="57" t="s">
         <v>199</v>
       </c>
       <c r="B77" s="34">
@@ -9367,7 +9397,7 @@
       <c r="BA77" s="31"/>
     </row>
     <row r="78" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="57" t="s">
         <v>226</v>
       </c>
       <c r="B78" s="34">
@@ -9498,7 +9528,7 @@
       <c r="DP78" s="15"/>
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="57" t="s">
         <v>271</v>
       </c>
       <c r="B79" s="34">
@@ -9629,7 +9659,7 @@
       <c r="DP79" s="15"/>
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="57" t="s">
         <v>270</v>
       </c>
       <c r="B80" s="34">
@@ -9760,7 +9790,7 @@
       <c r="DP80" s="15"/>
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="58" t="s">
         <v>126</v>
       </c>
       <c r="B81" s="34">
@@ -9891,7 +9921,7 @@
       <c r="DP81" s="15"/>
     </row>
     <row r="82" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="58" t="s">
         <v>172</v>
       </c>
       <c r="B82" s="34">
@@ -10020,7 +10050,7 @@
       <c r="DP82" s="15"/>
     </row>
     <row r="83" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="58" t="s">
         <v>149</v>
       </c>
       <c r="B83" s="34">
@@ -10082,7 +10112,7 @@
       <c r="BA83" s="31"/>
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="58" t="s">
         <v>230</v>
       </c>
       <c r="B84" s="34">
@@ -10145,17 +10175,19 @@
       <c r="AZ84" s="31"/>
       <c r="BA84" s="31"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A85" s="43" t="s">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A85" s="58" t="s">
         <v>274</v>
       </c>
       <c r="B85" s="34">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>20</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24939.200000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -10214,18 +10246,18 @@
       <c r="BE85" s="31"/>
     </row>
     <row r="86" spans="1:120" ht="15" customHeight="1">
-      <c r="A86" s="43" t="s">
+      <c r="A86" s="58" t="s">
         <v>284</v>
       </c>
       <c r="B86" s="34">
         <v>1306.26</v>
       </c>
       <c r="C86" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>26125.200000000001</v>
+        <v>52250.400000000001</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>269</v>
@@ -10347,7 +10379,7 @@
       <c r="DP86" s="15"/>
     </row>
     <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A87" s="43" t="s">
+      <c r="A87" s="58" t="s">
         <v>137</v>
       </c>
       <c r="B87" s="34">
@@ -10416,7 +10448,7 @@
       <c r="DD87" s="14"/>
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A88" s="43" t="s">
+      <c r="A88" s="58" t="s">
         <v>135</v>
       </c>
       <c r="B88" s="34">
@@ -10485,7 +10517,7 @@
       <c r="DD88" s="14"/>
     </row>
     <row r="89" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A89" s="42" t="s">
+      <c r="A89" s="57" t="s">
         <v>148</v>
       </c>
       <c r="B89" s="34">
@@ -10616,7 +10648,7 @@
       <c r="DP89" s="15"/>
     </row>
     <row r="90" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A90" s="43" t="s">
+      <c r="A90" s="58" t="s">
         <v>54</v>
       </c>
       <c r="B90" s="34">
@@ -10747,7 +10779,7 @@
       <c r="DP90" s="15"/>
     </row>
     <row r="91" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A91" s="43" t="s">
+      <c r="A91" s="58" t="s">
         <v>171</v>
       </c>
       <c r="B91" s="34">
@@ -10876,7 +10908,7 @@
       <c r="DP91" s="15"/>
     </row>
     <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B92" s="34">
@@ -11005,7 +11037,7 @@
       <c r="DP92" s="15"/>
     </row>
     <row r="93" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A93" s="43" t="s">
+      <c r="A93" s="58" t="s">
         <v>202</v>
       </c>
       <c r="B93" s="34">
@@ -11134,7 +11166,7 @@
       <c r="DP93" s="15"/>
     </row>
     <row r="94" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A94" s="43" t="s">
+      <c r="A94" s="58" t="s">
         <v>240</v>
       </c>
       <c r="B94" s="34">
@@ -11198,7 +11230,7 @@
       <c r="BA94" s="31"/>
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A95" s="43" t="s">
+      <c r="A95" s="58" t="s">
         <v>166</v>
       </c>
       <c r="B95" s="34">
@@ -11260,7 +11292,7 @@
       <c r="BA95" s="31"/>
     </row>
     <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A96" s="43" t="s">
+      <c r="A96" s="58" t="s">
         <v>278</v>
       </c>
       <c r="B96" s="34">
@@ -11390,19 +11422,17 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
-      <c r="A97" s="43" t="s">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A97" s="58" t="s">
         <v>282</v>
       </c>
       <c r="B97" s="34">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17">
-        <v>30</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>42099.899999999994</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>269</v>
@@ -11524,7 +11554,7 @@
       <c r="DP97" s="15"/>
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A98" s="43" t="s">
+      <c r="A98" s="58" t="s">
         <v>127</v>
       </c>
       <c r="B98" s="34">
@@ -11653,7 +11683,7 @@
       <c r="DP98" s="15"/>
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A99" s="42" t="s">
+      <c r="A99" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B99" s="34">
@@ -11784,7 +11814,7 @@
       <c r="DP99" s="15"/>
     </row>
     <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A100" s="42" t="s">
+      <c r="A100" s="57" t="s">
         <v>233</v>
       </c>
       <c r="B100" s="34">
@@ -11903,7 +11933,7 @@
       <c r="DD100" s="31"/>
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A101" s="42" t="s">
+      <c r="A101" s="57" t="s">
         <v>265</v>
       </c>
       <c r="B101" s="34">
@@ -11966,17 +11996,19 @@
       <c r="AZ101" s="31"/>
       <c r="BA101" s="31"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A102" s="42" t="s">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A102" s="57" t="s">
         <v>285</v>
       </c>
       <c r="B102" s="34">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>60</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>0</v>
+        <v>71329.2</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>269</v>
@@ -12086,7 +12118,7 @@
       <c r="DD102" s="31"/>
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A103" s="43" t="s">
+      <c r="A103" s="58" t="s">
         <v>189</v>
       </c>
       <c r="B103" s="34">
@@ -12148,7 +12180,7 @@
       <c r="BA103" s="31"/>
     </row>
     <row r="104" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A104" s="43" t="s">
+      <c r="A104" s="58" t="s">
         <v>130</v>
       </c>
       <c r="B104" s="34">
@@ -12279,7 +12311,7 @@
       <c r="DP104" s="15"/>
     </row>
     <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A105" s="43" t="s">
+      <c r="A105" s="58" t="s">
         <v>201</v>
       </c>
       <c r="B105" s="34">
@@ -12410,7 +12442,7 @@
       <c r="DP105" s="15"/>
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A106" s="43" t="s">
+      <c r="A106" s="58" t="s">
         <v>162</v>
       </c>
       <c r="B106" s="34">
@@ -12539,7 +12571,7 @@
       <c r="DP106" s="15"/>
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A107" s="43" t="s">
+      <c r="A107" s="58" t="s">
         <v>179</v>
       </c>
       <c r="B107" s="34">
@@ -12668,7 +12700,7 @@
       <c r="DP107" s="15"/>
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A108" s="43" t="s">
+      <c r="A108" s="58" t="s">
         <v>187</v>
       </c>
       <c r="B108" s="34">
@@ -12799,7 +12831,7 @@
       <c r="DP108" s="15"/>
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A109" s="43" t="s">
+      <c r="A109" s="58" t="s">
         <v>167</v>
       </c>
       <c r="B109" s="34">
@@ -12928,7 +12960,7 @@
       <c r="DP109" s="15"/>
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A110" s="43" t="s">
+      <c r="A110" s="58" t="s">
         <v>268</v>
       </c>
       <c r="B110" s="34">
@@ -12999,7 +13031,7 @@
       <c r="DD110" s="14"/>
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A111" s="42" t="s">
+      <c r="A111" s="57" t="s">
         <v>145</v>
       </c>
       <c r="B111" s="34">
@@ -13068,7 +13100,7 @@
       <c r="DD111" s="14"/>
     </row>
     <row r="112" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="57" t="s">
         <v>121</v>
       </c>
       <c r="B112" s="34">
@@ -13137,7 +13169,7 @@
       <c r="DD112" s="14"/>
     </row>
     <row r="113" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A113" s="42" t="s">
+      <c r="A113" s="57" t="s">
         <v>131</v>
       </c>
       <c r="B113" s="34">
@@ -13266,7 +13298,7 @@
       <c r="DP113" s="15"/>
     </row>
     <row r="114" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A114" s="42" t="s">
+      <c r="A114" s="57" t="s">
         <v>141</v>
       </c>
       <c r="B114" s="34">
@@ -13395,7 +13427,7 @@
       <c r="DP114" s="15"/>
     </row>
     <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A115" s="42" t="s">
+      <c r="A115" s="57" t="s">
         <v>204</v>
       </c>
       <c r="B115" s="34">
@@ -13526,7 +13558,7 @@
       <c r="DP115" s="15"/>
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A116" s="42" t="s">
+      <c r="A116" s="57" t="s">
         <v>122</v>
       </c>
       <c r="B116" s="34">
@@ -13655,7 +13687,7 @@
       <c r="DP116" s="15"/>
     </row>
     <row r="117" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A117" s="42" t="s">
+      <c r="A117" s="57" t="s">
         <v>93</v>
       </c>
       <c r="B117" s="34">
@@ -13786,7 +13818,7 @@
       <c r="DP117" s="15"/>
     </row>
     <row r="118" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="57" t="s">
         <v>95</v>
       </c>
       <c r="B118" s="34">
@@ -13915,7 +13947,7 @@
       <c r="DP118" s="15"/>
     </row>
     <row r="119" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A119" s="42" t="s">
+      <c r="A119" s="57" t="s">
         <v>94</v>
       </c>
       <c r="B119" s="34">
@@ -14044,7 +14076,7 @@
       <c r="DP119" s="15"/>
     </row>
     <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A120" s="42" t="s">
+      <c r="A120" s="57" t="s">
         <v>237</v>
       </c>
       <c r="B120" s="34">
@@ -14175,7 +14207,7 @@
       <c r="DP120" s="15"/>
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A121" s="42" t="s">
+      <c r="A121" s="57" t="s">
         <v>229</v>
       </c>
       <c r="B121" s="34">
@@ -14304,7 +14336,7 @@
       <c r="DP121" s="15"/>
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A122" s="43" t="s">
+      <c r="A122" s="58" t="s">
         <v>74</v>
       </c>
       <c r="B122" s="34">
@@ -14433,7 +14465,7 @@
       <c r="DP122" s="15"/>
     </row>
     <row r="123" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A123" s="43" t="s">
+      <c r="A123" s="58" t="s">
         <v>142</v>
       </c>
       <c r="B123" s="34">
@@ -14502,7 +14534,7 @@
       <c r="DD123" s="14"/>
     </row>
     <row r="124" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A124" s="43" t="s">
+      <c r="A124" s="58" t="s">
         <v>75</v>
       </c>
       <c r="B124" s="34">
@@ -14631,7 +14663,7 @@
       <c r="DP124" s="15"/>
     </row>
     <row r="125" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A125" s="43" t="s">
+      <c r="A125" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B125" s="34">
@@ -14760,7 +14792,7 @@
       <c r="DP125" s="15"/>
     </row>
     <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A126" s="42" t="s">
+      <c r="A126" s="57" t="s">
         <v>186</v>
       </c>
       <c r="B126" s="34">
@@ -14891,7 +14923,7 @@
       <c r="DP126" s="15"/>
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A127" s="42" t="s">
+      <c r="A127" s="57" t="s">
         <v>191</v>
       </c>
       <c r="B127" s="34">
@@ -15022,7 +15054,7 @@
       <c r="DP127" s="15"/>
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A128" s="42" t="s">
+      <c r="A128" s="57" t="s">
         <v>258</v>
       </c>
       <c r="B128" s="34">
@@ -15151,7 +15183,7 @@
       <c r="DP128" s="15"/>
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A129" s="42" t="s">
+      <c r="A129" s="57" t="s">
         <v>119</v>
       </c>
       <c r="B129" s="34">
@@ -15280,7 +15312,7 @@
       <c r="DP129" s="15"/>
     </row>
     <row r="130" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A130" s="42" t="s">
+      <c r="A130" s="57" t="s">
         <v>139</v>
       </c>
       <c r="B130" s="34">
@@ -15408,17 +15440,19 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A131" s="42" t="s">
+    <row r="131" spans="1:120" ht="15" customHeight="1">
+      <c r="A131" s="57" t="s">
         <v>277</v>
       </c>
       <c r="B131" s="34">
         <v>1208.01</v>
       </c>
-      <c r="C131" s="17"/>
+      <c r="C131" s="17">
+        <v>20</v>
+      </c>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24160.2</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>269</v>
@@ -15540,7 +15574,7 @@
       <c r="DP131" s="15"/>
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A132" s="42" t="s">
+      <c r="A132" s="57" t="s">
         <v>242</v>
       </c>
       <c r="B132" s="34">
@@ -15671,7 +15705,7 @@
       <c r="DP132" s="15"/>
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A133" s="42" t="s">
+      <c r="A133" s="57" t="s">
         <v>241</v>
       </c>
       <c r="B133" s="34">
@@ -15802,7 +15836,7 @@
       <c r="DP133" s="15"/>
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A134" s="42" t="s">
+      <c r="A134" s="57" t="s">
         <v>198</v>
       </c>
       <c r="B134" s="34">
@@ -15933,7 +15967,7 @@
       <c r="DP134" s="15"/>
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A135" s="42" t="s">
+      <c r="A135" s="57" t="s">
         <v>146</v>
       </c>
       <c r="B135" s="34">
@@ -16061,7 +16095,7 @@
       <c r="DP135" s="15"/>
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A136" s="42" t="s">
+      <c r="A136" s="57" t="s">
         <v>173</v>
       </c>
       <c r="B136" s="34">
@@ -16190,7 +16224,7 @@
       <c r="DP136" s="15"/>
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A137" s="42" t="s">
+      <c r="A137" s="57" t="s">
         <v>163</v>
       </c>
       <c r="B137" s="34">
@@ -16319,7 +16353,7 @@
       <c r="DP137" s="15"/>
     </row>
     <row r="138" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A138" s="43" t="s">
+      <c r="A138" s="58" t="s">
         <v>217</v>
       </c>
       <c r="B138" s="34">
@@ -16330,7 +16364,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E138" s="45" t="s">
+      <c r="E138" s="43" t="s">
         <v>209</v>
       </c>
       <c r="F138" s="31"/>
@@ -16383,7 +16417,7 @@
       <c r="BA138" s="31"/>
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A139" s="42" t="s">
+      <c r="A139" s="57" t="s">
         <v>197</v>
       </c>
       <c r="B139" s="34">
@@ -16394,7 +16428,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E139" s="46"/>
+      <c r="E139" s="44"/>
       <c r="F139" s="31"/>
       <c r="G139" s="31"/>
       <c r="H139" s="31"/>
@@ -16445,7 +16479,7 @@
       <c r="BA139" s="31"/>
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A140" s="42" t="s">
+      <c r="A140" s="57" t="s">
         <v>181</v>
       </c>
       <c r="B140" s="34">
@@ -16507,7 +16541,7 @@
       <c r="BA140" s="31"/>
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A141" s="42" t="s">
+      <c r="A141" s="57" t="s">
         <v>176</v>
       </c>
       <c r="B141" s="34">
@@ -16569,7 +16603,7 @@
       <c r="BA141" s="31"/>
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A142" s="42" t="s">
+      <c r="A142" s="57" t="s">
         <v>184</v>
       </c>
       <c r="B142" s="34">
@@ -16631,7 +16665,7 @@
       <c r="BA142" s="31"/>
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A143" s="43" t="s">
+      <c r="A143" s="58" t="s">
         <v>123</v>
       </c>
       <c r="B143" s="34">
@@ -16695,7 +16729,7 @@
       <c r="BA143" s="31"/>
     </row>
     <row r="144" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A144" s="43" t="s">
+      <c r="A144" s="58" t="s">
         <v>169</v>
       </c>
       <c r="B144" s="34">
@@ -16757,7 +16791,7 @@
       <c r="BA144" s="31"/>
     </row>
     <row r="145" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A145" s="42" t="s">
+      <c r="A145" s="57" t="s">
         <v>221</v>
       </c>
       <c r="B145" s="38">
@@ -16888,7 +16922,7 @@
       <c r="DP145" s="15"/>
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A146" s="43" t="s">
+      <c r="A146" s="58" t="s">
         <v>190</v>
       </c>
       <c r="B146" s="34">
@@ -17019,7 +17053,7 @@
       <c r="DP146" s="15"/>
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A147" s="43" t="s">
+      <c r="A147" s="58" t="s">
         <v>153</v>
       </c>
       <c r="B147" s="34">
@@ -17148,7 +17182,7 @@
       <c r="DP147" s="15"/>
     </row>
     <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A148" s="43" t="s">
+      <c r="A148" s="58" t="s">
         <v>129</v>
       </c>
       <c r="B148" s="34">
@@ -17159,7 +17193,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E148" s="45" t="s">
+      <c r="E148" s="43" t="s">
         <v>227</v>
       </c>
       <c r="F148" s="32"/>
@@ -17279,7 +17313,7 @@
       <c r="DP148" s="15"/>
     </row>
     <row r="149" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A149" s="43" t="s">
+      <c r="A149" s="58" t="s">
         <v>164</v>
       </c>
       <c r="B149" s="38">
@@ -17408,7 +17442,7 @@
       <c r="DP149" s="15"/>
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A150" s="43" t="s">
+      <c r="A150" s="58" t="s">
         <v>188</v>
       </c>
       <c r="B150" s="38">
@@ -17539,7 +17573,7 @@
       <c r="DP150" s="15"/>
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A151" s="43" t="s">
+      <c r="A151" s="58" t="s">
         <v>143</v>
       </c>
       <c r="B151" s="38">
@@ -17670,7 +17704,7 @@
       <c r="DP151" s="15"/>
     </row>
     <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A152" s="43" t="s">
+      <c r="A152" s="58" t="s">
         <v>165</v>
       </c>
       <c r="B152" s="34">
@@ -17799,7 +17833,7 @@
       <c r="DP152" s="15"/>
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A153" s="43" t="s">
+      <c r="A153" s="58" t="s">
         <v>196</v>
       </c>
       <c r="B153" s="34">
@@ -17928,7 +17962,7 @@
       <c r="DP153" s="15"/>
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A154" s="43" t="s">
+      <c r="A154" s="58" t="s">
         <v>180</v>
       </c>
       <c r="B154" s="34">
@@ -17939,7 +17973,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E154" s="46" t="s">
+      <c r="E154" s="44" t="s">
         <v>209</v>
       </c>
       <c r="F154" s="32"/>
@@ -18059,7 +18093,7 @@
       <c r="DP154" s="15"/>
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A155" s="43" t="s">
+      <c r="A155" s="58" t="s">
         <v>231</v>
       </c>
       <c r="B155" s="34">
@@ -18190,7 +18224,7 @@
       <c r="DP155" s="15"/>
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A156" s="42" t="s">
+      <c r="A156" s="57" t="s">
         <v>264</v>
       </c>
       <c r="B156" s="34">
@@ -18261,7 +18295,7 @@
       <c r="DD156" s="14"/>
     </row>
     <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A157" s="42" t="s">
+      <c r="A157" s="57" t="s">
         <v>133</v>
       </c>
       <c r="B157" s="34">
@@ -18323,7 +18357,7 @@
       <c r="BA157" s="31"/>
     </row>
     <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A158" s="42" t="s">
+      <c r="A158" s="57" t="s">
         <v>247</v>
       </c>
       <c r="B158" s="34">
@@ -18387,7 +18421,7 @@
       <c r="BA158" s="31"/>
     </row>
     <row r="159" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A159" s="42" t="s">
+      <c r="A159" s="57" t="s">
         <v>206</v>
       </c>
       <c r="B159" s="34">
@@ -18516,7 +18550,7 @@
       <c r="DP159" s="15"/>
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A160" s="42" t="s">
+      <c r="A160" s="57" t="s">
         <v>266</v>
       </c>
       <c r="B160" s="34">
@@ -18647,7 +18681,7 @@
       <c r="DP160" s="15"/>
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A161" s="42" t="s">
+      <c r="A161" s="57" t="s">
         <v>286</v>
       </c>
       <c r="B161" s="34">
@@ -18659,7 +18693,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F161" s="32"/>
       <c r="G161" s="32"/>
@@ -18778,8 +18812,8 @@
       <c r="DP161" s="15"/>
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A162" s="42" t="s">
-        <v>291</v>
+      <c r="A162" s="57" t="s">
+        <v>290</v>
       </c>
       <c r="B162" s="34">
         <v>8101.24</v>
@@ -18907,8 +18941,8 @@
       <c r="DP162" s="15"/>
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A163" s="42" t="s">
-        <v>292</v>
+      <c r="A163" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="B163" s="34">
         <v>7501.24</v>
@@ -19036,8 +19070,8 @@
       <c r="DP163" s="15"/>
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A164" s="42" t="s">
-        <v>293</v>
+      <c r="A164" s="57" t="s">
+        <v>292</v>
       </c>
       <c r="B164" s="34">
         <v>7778.48</v>
@@ -19048,7 +19082,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="32"/>
@@ -19167,8 +19201,8 @@
       <c r="DP164" s="15"/>
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A165" s="42" t="s">
-        <v>294</v>
+      <c r="A165" s="57" t="s">
+        <v>293</v>
       </c>
       <c r="B165" s="34">
         <v>9066.5400000000009</v>
@@ -19179,7 +19213,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F165" s="32"/>
       <c r="G165" s="32"/>
@@ -19297,19 +19331,21 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A166" s="42" t="s">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
+      <c r="A166" s="57" t="s">
         <v>279</v>
       </c>
       <c r="B166" s="34">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>3</v>
+      </c>
       <c r="D166" s="18">
-        <f t="shared" ref="D166:D170" si="5">B166*C166</f>
-        <v>0</v>
-      </c>
-      <c r="E166" s="57" t="s">
+        <f t="shared" ref="D166:D171" si="5">B166*C166</f>
+        <v>29620.350000000002</v>
+      </c>
+      <c r="E166" s="53" t="s">
         <v>301</v>
       </c>
       <c r="F166" s="32"/>
@@ -19428,17 +19464,19 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A167" s="42" t="s">
-        <v>295</v>
+    <row r="167" spans="1:120" ht="15" customHeight="1">
+      <c r="A167" s="57" t="s">
+        <v>294</v>
       </c>
       <c r="B167" s="34">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17">
+        <v>21</v>
+      </c>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>163348.07999999999</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>269</v>
@@ -19559,17 +19597,19 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A168" s="42" t="s">
-        <v>287</v>
+    <row r="168" spans="1:120" ht="15" customHeight="1" thickBot="1">
+      <c r="A168" s="57" t="s">
+        <v>302</v>
       </c>
       <c r="B168" s="34">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17"/>
+      <c r="C168" s="17">
+        <v>2</v>
+      </c>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>18113.02</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>269</v>
@@ -19690,22 +19730,20 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A169" s="42" t="s">
-        <v>296</v>
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A169" s="57" t="s">
+        <v>303</v>
       </c>
       <c r="B169" s="34">
         <v>9056.51</v>
       </c>
-      <c r="C169" s="17">
-        <v>5</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
-        <f t="shared" si="5"/>
-        <v>45282.55</v>
-      </c>
-      <c r="E169" s="48" t="s">
-        <v>298</v>
+        <f t="shared" ref="D169" si="6">B169*C169</f>
+        <v>0</v>
+      </c>
+      <c r="E169" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="F169" s="32"/>
       <c r="G169" s="32"/>
@@ -19755,10 +19793,10 @@
       <c r="AY169" s="32"/>
       <c r="AZ169" s="32"/>
       <c r="BA169" s="32"/>
-      <c r="BB169" s="32"/>
-      <c r="BC169" s="32"/>
-      <c r="BD169" s="32"/>
-      <c r="BE169" s="32"/>
+      <c r="BB169" s="15"/>
+      <c r="BC169" s="15"/>
+      <c r="BD169" s="15"/>
+      <c r="BE169" s="15"/>
       <c r="BF169" s="15"/>
       <c r="BG169" s="15"/>
       <c r="BH169" s="15"/>
@@ -19823,20 +19861,20 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
-      <c r="A170" s="42" t="s">
-        <v>297</v>
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A170" s="57" t="s">
+        <v>295</v>
       </c>
       <c r="B170" s="34">
-        <v>10133.07</v>
+        <v>9056.51</v>
       </c>
       <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E170" s="18" t="s">
-        <v>269</v>
+      <c r="E170" s="45" t="s">
+        <v>297</v>
       </c>
       <c r="F170" s="32"/>
       <c r="G170" s="32"/>
@@ -19886,10 +19924,10 @@
       <c r="AY170" s="32"/>
       <c r="AZ170" s="32"/>
       <c r="BA170" s="32"/>
-      <c r="BB170" s="15"/>
-      <c r="BC170" s="15"/>
-      <c r="BD170" s="15"/>
-      <c r="BE170" s="15"/>
+      <c r="BB170" s="32"/>
+      <c r="BC170" s="32"/>
+      <c r="BD170" s="32"/>
+      <c r="BE170" s="32"/>
       <c r="BF170" s="15"/>
       <c r="BG170" s="15"/>
       <c r="BH170" s="15"/>
@@ -19954,20 +19992,21 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A171" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B171" s="68"/>
-      <c r="C171" s="51">
-        <f>SUBTOTAL(9,C21:C170)</f>
-        <v>235</v>
-      </c>
-      <c r="D171" s="58">
-        <f>SUBTOTAL(9,D21:D170)</f>
-        <v>307179.85000000003</v>
-      </c>
-      <c r="E171" s="52"/>
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="A171" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="B171" s="34">
+        <v>10133.07</v>
+      </c>
+      <c r="C171" s="17"/>
+      <c r="D171" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E171" s="18" t="s">
+        <v>269</v>
+      </c>
       <c r="F171" s="32"/>
       <c r="G171" s="32"/>
       <c r="H171" s="32"/>
@@ -20016,61 +20055,61 @@
       <c r="AY171" s="32"/>
       <c r="AZ171" s="32"/>
       <c r="BA171" s="32"/>
-      <c r="BB171" s="32"/>
-      <c r="BC171" s="32"/>
-      <c r="BD171" s="32"/>
-      <c r="BE171" s="32"/>
-      <c r="BF171" s="32"/>
-      <c r="BG171" s="32"/>
-      <c r="BH171" s="32"/>
-      <c r="BI171" s="32"/>
-      <c r="BJ171" s="32"/>
-      <c r="BK171" s="32"/>
-      <c r="BL171" s="32"/>
-      <c r="BM171" s="32"/>
-      <c r="BN171" s="32"/>
-      <c r="BO171" s="32"/>
-      <c r="BP171" s="32"/>
-      <c r="BQ171" s="32"/>
-      <c r="BR171" s="32"/>
-      <c r="BS171" s="32"/>
-      <c r="BT171" s="32"/>
-      <c r="BU171" s="32"/>
-      <c r="BV171" s="32"/>
-      <c r="BW171" s="32"/>
-      <c r="BX171" s="32"/>
-      <c r="BY171" s="32"/>
-      <c r="BZ171" s="32"/>
-      <c r="CA171" s="32"/>
-      <c r="CB171" s="32"/>
-      <c r="CC171" s="32"/>
-      <c r="CD171" s="32"/>
-      <c r="CE171" s="32"/>
-      <c r="CF171" s="32"/>
-      <c r="CG171" s="32"/>
-      <c r="CH171" s="32"/>
-      <c r="CI171" s="32"/>
-      <c r="CJ171" s="32"/>
-      <c r="CK171" s="32"/>
-      <c r="CL171" s="32"/>
-      <c r="CM171" s="32"/>
-      <c r="CN171" s="32"/>
-      <c r="CO171" s="32"/>
-      <c r="CP171" s="32"/>
-      <c r="CQ171" s="32"/>
-      <c r="CR171" s="32"/>
-      <c r="CS171" s="32"/>
-      <c r="CT171" s="32"/>
-      <c r="CU171" s="32"/>
-      <c r="CV171" s="32"/>
-      <c r="CW171" s="32"/>
-      <c r="CX171" s="32"/>
-      <c r="CY171" s="32"/>
-      <c r="CZ171" s="32"/>
-      <c r="DA171" s="32"/>
-      <c r="DB171" s="32"/>
-      <c r="DC171" s="32"/>
-      <c r="DD171" s="32"/>
+      <c r="BB171" s="15"/>
+      <c r="BC171" s="15"/>
+      <c r="BD171" s="15"/>
+      <c r="BE171" s="15"/>
+      <c r="BF171" s="15"/>
+      <c r="BG171" s="15"/>
+      <c r="BH171" s="15"/>
+      <c r="BI171" s="15"/>
+      <c r="BJ171" s="15"/>
+      <c r="BK171" s="15"/>
+      <c r="BL171" s="15"/>
+      <c r="BM171" s="15"/>
+      <c r="BN171" s="15"/>
+      <c r="BO171" s="15"/>
+      <c r="BP171" s="15"/>
+      <c r="BQ171" s="15"/>
+      <c r="BR171" s="15"/>
+      <c r="BS171" s="15"/>
+      <c r="BT171" s="15"/>
+      <c r="BU171" s="15"/>
+      <c r="BV171" s="15"/>
+      <c r="BW171" s="15"/>
+      <c r="BX171" s="15"/>
+      <c r="BY171" s="15"/>
+      <c r="BZ171" s="15"/>
+      <c r="CA171" s="15"/>
+      <c r="CB171" s="15"/>
+      <c r="CC171" s="15"/>
+      <c r="CD171" s="15"/>
+      <c r="CE171" s="15"/>
+      <c r="CF171" s="15"/>
+      <c r="CG171" s="15"/>
+      <c r="CH171" s="15"/>
+      <c r="CI171" s="15"/>
+      <c r="CJ171" s="15"/>
+      <c r="CK171" s="15"/>
+      <c r="CL171" s="15"/>
+      <c r="CM171" s="15"/>
+      <c r="CN171" s="15"/>
+      <c r="CO171" s="15"/>
+      <c r="CP171" s="15"/>
+      <c r="CQ171" s="15"/>
+      <c r="CR171" s="15"/>
+      <c r="CS171" s="15"/>
+      <c r="CT171" s="15"/>
+      <c r="CU171" s="15"/>
+      <c r="CV171" s="15"/>
+      <c r="CW171" s="15"/>
+      <c r="CX171" s="15"/>
+      <c r="CY171" s="15"/>
+      <c r="CZ171" s="15"/>
+      <c r="DA171" s="15"/>
+      <c r="DB171" s="15"/>
+      <c r="DC171" s="15"/>
+      <c r="DD171" s="15"/>
       <c r="DE171" s="15"/>
       <c r="DF171" s="15"/>
       <c r="DG171" s="15"/>
@@ -20084,12 +20123,20 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1">
-      <c r="A172" s="47"/>
-      <c r="B172" s="35"/>
-      <c r="C172" s="20"/>
-      <c r="D172" s="21"/>
-      <c r="E172" s="21"/>
+    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
+      <c r="A172" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B172" s="69"/>
+      <c r="C172" s="47">
+        <f>SUBTOTAL(9,C37:C171)</f>
+        <v>266</v>
+      </c>
+      <c r="D172" s="54">
+        <f>SUBTOTAL(9,D37:D171)</f>
+        <v>501553.85</v>
+      </c>
+      <c r="E172" s="48"/>
       <c r="F172" s="32"/>
       <c r="G172" s="32"/>
       <c r="H172" s="32"/>
@@ -20206,76 +20253,198 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B173" s="59"/>
-      <c r="C173" s="59"/>
-      <c r="D173" s="59"/>
-      <c r="E173" s="59"/>
-    </row>
-    <row r="174" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B174" s="64" t="s">
+    <row r="173" spans="1:120" ht="15" customHeight="1">
+      <c r="A173" s="59"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="32"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="32"/>
+      <c r="I173" s="32"/>
+      <c r="J173" s="32"/>
+      <c r="K173" s="32"/>
+      <c r="L173" s="32"/>
+      <c r="M173" s="32"/>
+      <c r="N173" s="32"/>
+      <c r="O173" s="32"/>
+      <c r="P173" s="32"/>
+      <c r="Q173" s="32"/>
+      <c r="R173" s="32"/>
+      <c r="S173" s="32"/>
+      <c r="T173" s="32"/>
+      <c r="U173" s="32"/>
+      <c r="V173" s="32"/>
+      <c r="W173" s="32"/>
+      <c r="X173" s="32"/>
+      <c r="Y173" s="32"/>
+      <c r="Z173" s="32"/>
+      <c r="AA173" s="32"/>
+      <c r="AB173" s="32"/>
+      <c r="AC173" s="32"/>
+      <c r="AD173" s="32"/>
+      <c r="AE173" s="32"/>
+      <c r="AF173" s="32"/>
+      <c r="AG173" s="32"/>
+      <c r="AH173" s="32"/>
+      <c r="AI173" s="32"/>
+      <c r="AJ173" s="32"/>
+      <c r="AK173" s="32"/>
+      <c r="AL173" s="32"/>
+      <c r="AM173" s="32"/>
+      <c r="AN173" s="32"/>
+      <c r="AO173" s="32"/>
+      <c r="AP173" s="32"/>
+      <c r="AQ173" s="32"/>
+      <c r="AR173" s="32"/>
+      <c r="AS173" s="32"/>
+      <c r="AT173" s="32"/>
+      <c r="AU173" s="32"/>
+      <c r="AV173" s="32"/>
+      <c r="AW173" s="32"/>
+      <c r="AX173" s="32"/>
+      <c r="AY173" s="32"/>
+      <c r="AZ173" s="32"/>
+      <c r="BA173" s="32"/>
+      <c r="BB173" s="32"/>
+      <c r="BC173" s="32"/>
+      <c r="BD173" s="32"/>
+      <c r="BE173" s="32"/>
+      <c r="BF173" s="32"/>
+      <c r="BG173" s="32"/>
+      <c r="BH173" s="32"/>
+      <c r="BI173" s="32"/>
+      <c r="BJ173" s="32"/>
+      <c r="BK173" s="32"/>
+      <c r="BL173" s="32"/>
+      <c r="BM173" s="32"/>
+      <c r="BN173" s="32"/>
+      <c r="BO173" s="32"/>
+      <c r="BP173" s="32"/>
+      <c r="BQ173" s="32"/>
+      <c r="BR173" s="32"/>
+      <c r="BS173" s="32"/>
+      <c r="BT173" s="32"/>
+      <c r="BU173" s="32"/>
+      <c r="BV173" s="32"/>
+      <c r="BW173" s="32"/>
+      <c r="BX173" s="32"/>
+      <c r="BY173" s="32"/>
+      <c r="BZ173" s="32"/>
+      <c r="CA173" s="32"/>
+      <c r="CB173" s="32"/>
+      <c r="CC173" s="32"/>
+      <c r="CD173" s="32"/>
+      <c r="CE173" s="32"/>
+      <c r="CF173" s="32"/>
+      <c r="CG173" s="32"/>
+      <c r="CH173" s="32"/>
+      <c r="CI173" s="32"/>
+      <c r="CJ173" s="32"/>
+      <c r="CK173" s="32"/>
+      <c r="CL173" s="32"/>
+      <c r="CM173" s="32"/>
+      <c r="CN173" s="32"/>
+      <c r="CO173" s="32"/>
+      <c r="CP173" s="32"/>
+      <c r="CQ173" s="32"/>
+      <c r="CR173" s="32"/>
+      <c r="CS173" s="32"/>
+      <c r="CT173" s="32"/>
+      <c r="CU173" s="32"/>
+      <c r="CV173" s="32"/>
+      <c r="CW173" s="32"/>
+      <c r="CX173" s="32"/>
+      <c r="CY173" s="32"/>
+      <c r="CZ173" s="32"/>
+      <c r="DA173" s="32"/>
+      <c r="DB173" s="32"/>
+      <c r="DC173" s="32"/>
+      <c r="DD173" s="32"/>
+      <c r="DE173" s="15"/>
+      <c r="DF173" s="15"/>
+      <c r="DG173" s="15"/>
+      <c r="DH173" s="15"/>
+      <c r="DI173" s="15"/>
+      <c r="DJ173" s="15"/>
+      <c r="DK173" s="15"/>
+      <c r="DL173" s="15"/>
+      <c r="DM173" s="15"/>
+      <c r="DN173" s="15"/>
+      <c r="DO173" s="15"/>
+      <c r="DP173" s="15"/>
+    </row>
+    <row r="174" spans="1:120" ht="9" customHeight="1" thickBot="1">
+      <c r="B174" s="60"/>
+      <c r="C174" s="60"/>
+      <c r="D174" s="60"/>
+      <c r="E174" s="60"/>
+    </row>
+    <row r="175" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B175" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="C174" s="65"/>
-      <c r="D174" s="66"/>
-      <c r="E174" s="30"/>
-    </row>
-    <row r="175" spans="1:120" ht="9" customHeight="1" thickBot="1"/>
-    <row r="176" spans="1:120">
-      <c r="B176" s="36" t="s">
+      <c r="C175" s="66"/>
+      <c r="D175" s="67"/>
+      <c r="E175" s="30"/>
+    </row>
+    <row r="176" spans="1:120" ht="9" customHeight="1" thickBot="1"/>
+    <row r="177" spans="2:5">
+      <c r="B177" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C176" s="22" t="s">
+      <c r="C177" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D176" s="23" t="s">
+      <c r="D177" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E176" s="24"/>
-    </row>
-    <row r="177" spans="2:5" ht="15" customHeight="1">
-      <c r="B177" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="C177" s="25">
-        <v>300000</v>
-      </c>
-      <c r="D177" s="26"/>
-      <c r="E177" s="24" t="s">
+      <c r="E177" s="24"/>
+    </row>
+    <row r="178" spans="2:5" ht="15" customHeight="1">
+      <c r="B178" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="C178" s="25">
+        <v>500000</v>
+      </c>
+      <c r="D178" s="26"/>
+      <c r="E178" s="24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="178" spans="2:5">
-      <c r="B178" s="37" t="s">
+    <row r="179" spans="2:5">
+      <c r="B179" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C178" s="25"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="28"/>
-    </row>
-    <row r="179" spans="2:5" ht="15" customHeight="1">
-      <c r="B179" s="37" t="s">
+      <c r="C179" s="25"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="28"/>
+    </row>
+    <row r="180" spans="2:5" ht="15" customHeight="1">
+      <c r="B180" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="C179" s="25"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="24"/>
-    </row>
-    <row r="180" spans="2:5" ht="15" customHeight="1" thickBot="1">
-      <c r="B180" s="39" t="s">
+      <c r="C180" s="25"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="24"/>
+    </row>
+    <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B181" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C180" s="40">
-        <f>SUM(C177:C179)</f>
-        <v>300000</v>
-      </c>
-      <c r="D180" s="41"/>
-      <c r="E180" s="29"/>
-    </row>
-    <row r="181" spans="2:5" ht="15" customHeight="1"/>
-    <row r="182" spans="2:5" ht="15.75" customHeight="1"/>
+      <c r="C181" s="40">
+        <f>SUM(C178:C180)</f>
+        <v>500000</v>
+      </c>
+      <c r="D181" s="41"/>
+      <c r="E181" s="29"/>
+    </row>
+    <row r="182" spans="2:5" ht="15" customHeight="1"/>
+    <row r="183" spans="2:5" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A4:E170">
+  <autoFilter ref="A4:E171">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20289,11 +20458,11 @@
     <sortCondition ref="A5"/>
   </sortState>
   <mergeCells count="5">
-    <mergeCell ref="B173:E173"/>
+    <mergeCell ref="B174:E174"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="A172:B172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20317,33 +20486,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="e">
+      <c r="B3" s="73"/>
+      <c r="C3" s="74" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="73"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -22284,10 +22453,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="69" t="s">
+      <c r="A101" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="69"/>
+      <c r="B101" s="70"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1975,7 +1975,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J173" sqref="J173"/>
+      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E2" s="46">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>44367</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -4928,11 +4928,11 @@
         <v>1178.8</v>
       </c>
       <c r="C37" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>23576</v>
+        <v>47152</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>269</v>
@@ -5061,11 +5061,11 @@
         <v>1120.08</v>
       </c>
       <c r="C38" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>22401.599999999999</v>
+        <v>44803.199999999997</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>269</v>
@@ -5583,11 +5583,11 @@
         <v>1422.38</v>
       </c>
       <c r="C42" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>56895.200000000004</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>300</v>
@@ -6286,19 +6286,17 @@
       <c r="AZ47" s="52"/>
       <c r="BA47" s="52"/>
     </row>
-    <row r="48" spans="1:120" ht="15" customHeight="1">
+    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="57" t="s">
         <v>272</v>
       </c>
       <c r="B48" s="34">
         <v>1101.75</v>
       </c>
-      <c r="C48" s="17">
-        <v>20</v>
-      </c>
+      <c r="C48" s="17"/>
       <c r="D48" s="18">
         <f t="shared" si="1"/>
-        <v>22035</v>
+        <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>269</v>
@@ -6558,11 +6556,11 @@
         <v>1066.6600000000001</v>
       </c>
       <c r="C50" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>21333.200000000001</v>
+        <v>42666.400000000001</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>269</v>
@@ -10183,11 +10181,11 @@
         <v>1246.96</v>
       </c>
       <c r="C85" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>24939.200000000001</v>
+        <v>49878.400000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -11291,17 +11289,19 @@
       <c r="AZ95" s="31"/>
       <c r="BA95" s="31"/>
     </row>
-    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:120" ht="15" customHeight="1">
       <c r="A96" s="58" t="s">
         <v>278</v>
       </c>
       <c r="B96" s="34">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17"/>
+      <c r="C96" s="17">
+        <v>20</v>
+      </c>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27289</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>269</v>
@@ -11422,17 +11422,19 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="58" t="s">
         <v>282</v>
       </c>
       <c r="B97" s="34">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>20</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28066.6</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>269</v>
@@ -11813,17 +11815,19 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="57" t="s">
         <v>233</v>
       </c>
       <c r="B100" s="34">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="17">
+        <v>30</v>
+      </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35368.200000000004</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>269</v>
@@ -11996,7 +12000,7 @@
       <c r="AZ101" s="31"/>
       <c r="BA101" s="31"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A102" s="57" t="s">
         <v>285</v>
       </c>
@@ -12004,11 +12008,11 @@
         <v>1188.82</v>
       </c>
       <c r="C102" s="17">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>71329.2</v>
+        <v>118882</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>269</v>
@@ -15440,19 +15444,17 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" customHeight="1">
+    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="57" t="s">
         <v>277</v>
       </c>
       <c r="B131" s="34">
         <v>1208.01</v>
       </c>
-      <c r="C131" s="17">
-        <v>20</v>
-      </c>
+      <c r="C131" s="17"/>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>24160.2</v>
+        <v>0</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>269</v>
@@ -18294,7 +18296,7 @@
       <c r="DC156" s="14"/>
       <c r="DD156" s="14"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A157" s="57" t="s">
         <v>133</v>
       </c>
@@ -18356,7 +18358,7 @@
       <c r="AZ157" s="31"/>
       <c r="BA157" s="31"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="57" t="s">
         <v>247</v>
       </c>
@@ -19331,19 +19333,17 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="57" t="s">
         <v>279</v>
       </c>
       <c r="B166" s="34">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17">
-        <v>3</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>29620.350000000002</v>
+        <v>0</v>
       </c>
       <c r="E166" s="53" t="s">
         <v>301</v>
@@ -19464,19 +19464,17 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="57" t="s">
         <v>294</v>
       </c>
       <c r="B167" s="34">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17">
-        <v>21</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>163348.07999999999</v>
+        <v>0</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>269</v>
@@ -19597,19 +19595,17 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="57" t="s">
         <v>302</v>
       </c>
       <c r="B168" s="34">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17">
-        <v>2</v>
-      </c>
+      <c r="C168" s="17"/>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>18113.02</v>
+        <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>269</v>
@@ -20130,11 +20126,11 @@
       <c r="B172" s="69"/>
       <c r="C172" s="47">
         <f>SUBTOTAL(9,C37:C171)</f>
-        <v>266</v>
+        <v>410</v>
       </c>
       <c r="D172" s="54">
         <f>SUBTOTAL(9,D37:D171)</f>
-        <v>501553.85</v>
+        <v>503251.39999999997</v>
       </c>
       <c r="E172" s="48"/>
       <c r="F172" s="32"/>
@@ -20407,7 +20403,7 @@
         <v>288</v>
       </c>
       <c r="C178" s="25">
-        <v>500000</v>
+        <v>450000</v>
       </c>
       <c r="D178" s="26"/>
       <c r="E178" s="24" t="s">
@@ -20426,7 +20422,9 @@
       <c r="B180" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="C180" s="25"/>
+      <c r="C180" s="25">
+        <v>58504</v>
+      </c>
       <c r="D180" s="26"/>
       <c r="E180" s="24"/>
     </row>
@@ -20436,7 +20434,7 @@
       </c>
       <c r="C181" s="40">
         <f>SUM(C178:C180)</f>
-        <v>500000</v>
+        <v>508504</v>
       </c>
       <c r="D181" s="41"/>
       <c r="E181" s="29"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1975,7 +1975,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomRight" activeCell="K178" sqref="K178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E2" s="46">
         <f ca="1">TODAY()</f>
-        <v>44367</v>
+        <v>44368</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -4920,19 +4920,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="57" t="s">
         <v>222</v>
       </c>
       <c r="B37" s="34">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>40</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>47152</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>269</v>
@@ -5053,19 +5051,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="57" t="s">
         <v>257</v>
       </c>
       <c r="B38" s="34">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17">
-        <v>40</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>44803.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>269</v>
@@ -6286,17 +6282,19 @@
       <c r="AZ47" s="52"/>
       <c r="BA47" s="52"/>
     </row>
-    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="48" spans="1:120" ht="15" customHeight="1">
       <c r="A48" s="57" t="s">
         <v>272</v>
       </c>
       <c r="B48" s="34">
         <v>1101.75</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="17">
+        <v>20</v>
+      </c>
       <c r="D48" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22035</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>269</v>
@@ -10181,11 +10179,11 @@
         <v>1246.96</v>
       </c>
       <c r="C85" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>49878.400000000001</v>
+        <v>24939.200000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -10251,11 +10249,11 @@
         <v>1306.26</v>
       </c>
       <c r="C86" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>52250.400000000001</v>
+        <v>26125.200000000001</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>269</v>
@@ -11815,19 +11813,17 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="57" t="s">
         <v>233</v>
       </c>
       <c r="B100" s="34">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17">
-        <v>30</v>
-      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>35368.200000000004</v>
+        <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>269</v>
@@ -12008,11 +12004,11 @@
         <v>1188.82</v>
       </c>
       <c r="C102" s="17">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>118882</v>
+        <v>71329.2</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>269</v>
@@ -20125,12 +20121,12 @@
       </c>
       <c r="B172" s="69"/>
       <c r="C172" s="47">
-        <f>SUBTOTAL(9,C37:C171)</f>
-        <v>410</v>
+        <f>SUBTOTAL(9,C42:C171)</f>
+        <v>240</v>
       </c>
       <c r="D172" s="54">
         <f>SUBTOTAL(9,D37:D171)</f>
-        <v>503251.39999999997</v>
+        <v>299345.80000000005</v>
       </c>
       <c r="E172" s="48"/>
       <c r="F172" s="32"/>
@@ -20403,7 +20399,7 @@
         <v>288</v>
       </c>
       <c r="C178" s="25">
-        <v>450000</v>
+        <v>300000</v>
       </c>
       <c r="D178" s="26"/>
       <c r="E178" s="24" t="s">
@@ -20423,7 +20419,7 @@
         <v>260</v>
       </c>
       <c r="C180" s="25">
-        <v>58504</v>
+        <v>0</v>
       </c>
       <c r="D180" s="26"/>
       <c r="E180" s="24"/>
@@ -20434,7 +20430,7 @@
       </c>
       <c r="C181" s="40">
         <f>SUM(C178:C180)</f>
-        <v>508504</v>
+        <v>300000</v>
       </c>
       <c r="D181" s="41"/>
       <c r="E181" s="29"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1975,7 +1975,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K178" sqref="K178"/>
+      <selection pane="bottomRight" activeCell="J167" sqref="J167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E2" s="46">
         <f ca="1">TODAY()</f>
-        <v>44368</v>
+        <v>44369</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2104,17 +2104,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="57" t="s">
         <v>298</v>
       </c>
       <c r="B6" s="34">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>100</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>705676</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>213</v>
@@ -4920,17 +4922,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="57" t="s">
         <v>222</v>
       </c>
       <c r="B37" s="34">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>100</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>117880</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>269</v>
@@ -5579,11 +5583,11 @@
         <v>1422.38</v>
       </c>
       <c r="C42" s="17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>56895.200000000004</v>
+        <v>142238</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>300</v>
@@ -6290,11 +6294,11 @@
         <v>1101.75</v>
       </c>
       <c r="C48" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D48" s="18">
         <f t="shared" si="1"/>
-        <v>22035</v>
+        <v>110175</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>269</v>
@@ -6554,11 +6558,11 @@
         <v>1066.6600000000001</v>
       </c>
       <c r="C50" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>42666.400000000001</v>
+        <v>63999.600000000006</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>269</v>
@@ -10179,11 +10183,11 @@
         <v>1246.96</v>
       </c>
       <c r="C85" s="17">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>24939.200000000001</v>
+        <v>99756.800000000003</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -10249,11 +10253,11 @@
         <v>1306.26</v>
       </c>
       <c r="C86" s="17">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>26125.200000000001</v>
+        <v>104500.8</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>269</v>
@@ -11295,11 +11299,11 @@
         <v>1364.45</v>
       </c>
       <c r="C96" s="17">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>27289</v>
+        <v>191023</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>269</v>
@@ -11428,11 +11432,11 @@
         <v>1403.33</v>
       </c>
       <c r="C97" s="17">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>28066.6</v>
+        <v>182432.9</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>269</v>
@@ -11813,17 +11817,19 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="57" t="s">
         <v>233</v>
       </c>
       <c r="B100" s="34">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="17">
+        <v>120</v>
+      </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>141472.80000000002</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>269</v>
@@ -11996,7 +12002,7 @@
       <c r="AZ101" s="31"/>
       <c r="BA101" s="31"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="57" t="s">
         <v>285</v>
       </c>
@@ -12004,11 +12010,11 @@
         <v>1188.82</v>
       </c>
       <c r="C102" s="17">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>71329.2</v>
+        <v>237764</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>269</v>
@@ -15440,17 +15446,19 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:120" ht="15" customHeight="1">
       <c r="A131" s="57" t="s">
         <v>277</v>
       </c>
       <c r="B131" s="34">
         <v>1208.01</v>
       </c>
-      <c r="C131" s="17"/>
+      <c r="C131" s="17">
+        <v>40</v>
+      </c>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>48320.4</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>269</v>
@@ -18292,7 +18300,7 @@
       <c r="DC156" s="14"/>
       <c r="DD156" s="14"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A157" s="57" t="s">
         <v>133</v>
       </c>
@@ -18354,7 +18362,7 @@
       <c r="AZ157" s="31"/>
       <c r="BA157" s="31"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="57" t="s">
         <v>247</v>
       </c>
@@ -19460,17 +19468,19 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A167" s="57" t="s">
         <v>294</v>
       </c>
       <c r="B167" s="34">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17">
+        <v>20</v>
+      </c>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>155569.59999999998</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>269</v>
@@ -20121,12 +20131,12 @@
       </c>
       <c r="B172" s="69"/>
       <c r="C172" s="47">
-        <f>SUBTOTAL(9,C42:C171)</f>
-        <v>240</v>
+        <f>SUBTOTAL(9,C6:C171)</f>
+        <v>1270</v>
       </c>
       <c r="D172" s="54">
-        <f>SUBTOTAL(9,D37:D171)</f>
-        <v>299345.80000000005</v>
+        <f>SUBTOTAL(9,D6:D171)</f>
+        <v>2300808.9000000004</v>
       </c>
       <c r="E172" s="48"/>
       <c r="F172" s="32"/>
@@ -20399,7 +20409,7 @@
         <v>288</v>
       </c>
       <c r="C178" s="25">
-        <v>300000</v>
+        <v>2300000</v>
       </c>
       <c r="D178" s="26"/>
       <c r="E178" s="24" t="s">
@@ -20430,7 +20440,7 @@
       </c>
       <c r="C181" s="40">
         <f>SUM(C178:C180)</f>
-        <v>300000</v>
+        <v>2300000</v>
       </c>
       <c r="D181" s="41"/>
       <c r="E181" s="29"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1975,7 +1975,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J167" sqref="J167"/>
+      <selection pane="bottomRight" activeCell="K181" sqref="K181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E2" s="46">
         <f ca="1">TODAY()</f>
-        <v>44369</v>
+        <v>44370</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2104,19 +2104,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="57" t="s">
         <v>298</v>
       </c>
       <c r="B6" s="34">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>100</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>705676</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>213</v>
@@ -4922,19 +4920,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="57" t="s">
         <v>222</v>
       </c>
       <c r="B37" s="34">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>100</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>117880</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>269</v>
@@ -5583,11 +5579,11 @@
         <v>1422.38</v>
       </c>
       <c r="C42" s="17">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>142238</v>
+        <v>56895.200000000004</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>300</v>
@@ -6286,19 +6282,17 @@
       <c r="AZ47" s="52"/>
       <c r="BA47" s="52"/>
     </row>
-    <row r="48" spans="1:120" ht="15" customHeight="1">
+    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="57" t="s">
         <v>272</v>
       </c>
       <c r="B48" s="34">
         <v>1101.75</v>
       </c>
-      <c r="C48" s="17">
-        <v>100</v>
-      </c>
+      <c r="C48" s="17"/>
       <c r="D48" s="18">
         <f t="shared" si="1"/>
-        <v>110175</v>
+        <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>269</v>
@@ -10183,11 +10177,11 @@
         <v>1246.96</v>
       </c>
       <c r="C85" s="17">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>99756.800000000003</v>
+        <v>174574.4</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -10245,19 +10239,17 @@
       <c r="BD85" s="31"/>
       <c r="BE85" s="31"/>
     </row>
-    <row r="86" spans="1:120" ht="15" customHeight="1">
+    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="58" t="s">
         <v>284</v>
       </c>
       <c r="B86" s="34">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17">
-        <v>80</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>104500.8</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>269</v>
@@ -11291,19 +11283,17 @@
       <c r="AZ95" s="31"/>
       <c r="BA95" s="31"/>
     </row>
-    <row r="96" spans="1:120" ht="15" customHeight="1">
+    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="58" t="s">
         <v>278</v>
       </c>
       <c r="B96" s="34">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17">
-        <v>140</v>
-      </c>
+      <c r="C96" s="17"/>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>191023</v>
+        <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>269</v>
@@ -11424,19 +11414,17 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="58" t="s">
         <v>282</v>
       </c>
       <c r="B97" s="34">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17">
-        <v>130</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>182432.9</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>269</v>
@@ -11817,19 +11805,17 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="57" t="s">
         <v>233</v>
       </c>
       <c r="B100" s="34">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17">
-        <v>120</v>
-      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>141472.80000000002</v>
+        <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>269</v>
@@ -12010,11 +11996,11 @@
         <v>1188.82</v>
       </c>
       <c r="C102" s="17">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>237764</v>
+        <v>71329.2</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>269</v>
@@ -15446,7 +15432,7 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" customHeight="1">
+    <row r="131" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A131" s="57" t="s">
         <v>277</v>
       </c>
@@ -15454,11 +15440,11 @@
         <v>1208.01</v>
       </c>
       <c r="C131" s="17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>48320.4</v>
+        <v>47112.39</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>269</v>
@@ -18300,7 +18286,7 @@
       <c r="DC156" s="14"/>
       <c r="DD156" s="14"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A157" s="57" t="s">
         <v>133</v>
       </c>
@@ -18362,7 +18348,7 @@
       <c r="AZ157" s="31"/>
       <c r="BA157" s="31"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="57" t="s">
         <v>247</v>
       </c>
@@ -19468,19 +19454,17 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="57" t="s">
         <v>294</v>
       </c>
       <c r="B167" s="34">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17">
-        <v>20</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>155569.59999999998</v>
+        <v>0</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>269</v>
@@ -20132,11 +20116,11 @@
       <c r="B172" s="69"/>
       <c r="C172" s="47">
         <f>SUBTOTAL(9,C6:C171)</f>
-        <v>1270</v>
+        <v>339</v>
       </c>
       <c r="D172" s="54">
         <f>SUBTOTAL(9,D6:D171)</f>
-        <v>2300808.9000000004</v>
+        <v>413910.79000000004</v>
       </c>
       <c r="E172" s="48"/>
       <c r="F172" s="32"/>
@@ -20409,7 +20393,7 @@
         <v>288</v>
       </c>
       <c r="C178" s="25">
-        <v>2300000</v>
+        <v>400000</v>
       </c>
       <c r="D178" s="26"/>
       <c r="E178" s="24" t="s">
@@ -20440,7 +20424,7 @@
       </c>
       <c r="C181" s="40">
         <f>SUM(C178:C180)</f>
-        <v>2300000</v>
+        <v>400000</v>
       </c>
       <c r="D181" s="41"/>
       <c r="E181" s="29"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1975,7 +1975,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K181" sqref="K181"/>
+      <selection pane="bottomRight" activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E2" s="46">
         <f ca="1">TODAY()</f>
-        <v>44370</v>
+        <v>44371</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -5571,19 +5571,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="57" t="s">
         <v>205</v>
       </c>
       <c r="B42" s="34">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>40</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>56895.200000000004</v>
+        <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>300</v>
@@ -6544,19 +6542,17 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="58" t="s">
         <v>275</v>
       </c>
       <c r="B50" s="34">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17">
-        <v>60</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>63999.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>269</v>
@@ -10169,19 +10165,17 @@
       <c r="AZ84" s="31"/>
       <c r="BA84" s="31"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="58" t="s">
         <v>274</v>
       </c>
       <c r="B85" s="34">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>140</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>174574.4</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -11988,19 +11982,17 @@
       <c r="AZ101" s="31"/>
       <c r="BA101" s="31"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="57" t="s">
         <v>285</v>
       </c>
       <c r="B102" s="34">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17">
-        <v>60</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>71329.2</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>269</v>
@@ -15432,19 +15424,17 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="57" t="s">
         <v>277</v>
       </c>
       <c r="B131" s="34">
         <v>1208.01</v>
       </c>
-      <c r="C131" s="17">
-        <v>39</v>
-      </c>
+      <c r="C131" s="17"/>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>47112.39</v>
+        <v>0</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>269</v>
@@ -18286,7 +18276,7 @@
       <c r="DC156" s="14"/>
       <c r="DD156" s="14"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A157" s="57" t="s">
         <v>133</v>
       </c>
@@ -18348,7 +18338,7 @@
       <c r="AZ157" s="31"/>
       <c r="BA157" s="31"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="57" t="s">
         <v>247</v>
       </c>
@@ -19323,17 +19313,19 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
       <c r="A166" s="57" t="s">
         <v>279</v>
       </c>
       <c r="B166" s="34">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>5</v>
+      </c>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>0</v>
+        <v>49367.25</v>
       </c>
       <c r="E166" s="53" t="s">
         <v>301</v>
@@ -19454,17 +19446,19 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1">
       <c r="A167" s="57" t="s">
         <v>294</v>
       </c>
       <c r="B167" s="34">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17">
+        <v>20</v>
+      </c>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>155569.59999999998</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>269</v>
@@ -19847,17 +19841,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="57" t="s">
         <v>295</v>
       </c>
       <c r="B170" s="34">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>10</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90565.1</v>
       </c>
       <c r="E170" s="45" t="s">
         <v>297</v>
@@ -20116,11 +20112,11 @@
       <c r="B172" s="69"/>
       <c r="C172" s="47">
         <f>SUBTOTAL(9,C6:C171)</f>
-        <v>339</v>
+        <v>35</v>
       </c>
       <c r="D172" s="54">
         <f>SUBTOTAL(9,D6:D171)</f>
-        <v>413910.79000000004</v>
+        <v>295501.94999999995</v>
       </c>
       <c r="E172" s="48"/>
       <c r="F172" s="32"/>
@@ -20393,7 +20389,7 @@
         <v>288</v>
       </c>
       <c r="C178" s="25">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="D178" s="26"/>
       <c r="E178" s="24" t="s">
@@ -20424,7 +20420,7 @@
       </c>
       <c r="C181" s="40">
         <f>SUM(C178:C180)</f>
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="D181" s="41"/>
       <c r="E181" s="29"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -284,9 +284,6 @@
   </si>
   <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>BRAC</t>
   </si>
   <si>
     <t xml:space="preserve">Dealer: </t>
@@ -1975,7 +1972,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F180" sqref="F180"/>
+      <selection pane="bottomRight" activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2001,10 +1998,10 @@
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="55" t="s">
@@ -2012,7 +2009,7 @@
       </c>
       <c r="E2" s="46">
         <f ca="1">TODAY()</f>
-        <v>44371</v>
+        <v>44374</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2030,12 +2027,12 @@
         <v>82</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B5" s="34">
         <v>7244.21</v>
@@ -2046,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2106,7 +2103,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B6" s="34">
         <v>7056.76</v>
@@ -2117,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2173,7 +2170,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7" s="34">
         <v>892.23</v>
@@ -2184,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2244,7 +2241,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="34">
         <v>789.97</v>
@@ -2373,7 +2370,7 @@
     </row>
     <row r="9" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="34">
         <v>803.40300000000002</v>
@@ -2502,7 +2499,7 @@
     </row>
     <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="34">
         <v>779.94</v>
@@ -2571,7 +2568,7 @@
     </row>
     <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="34">
         <v>774.93</v>
@@ -2640,7 +2637,7 @@
     </row>
     <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="34">
         <v>769.92</v>
@@ -2651,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2711,10 +2708,10 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B13" s="34">
-        <v>896.24</v>
+        <v>1032.575</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18">
@@ -2722,12 +2719,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" s="34">
         <v>721.8</v>
@@ -2796,7 +2793,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="34">
         <v>779.95</v>
@@ -2865,7 +2862,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B16" s="34">
         <v>770.92</v>
@@ -2934,7 +2931,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" s="34">
         <v>779.96</v>
@@ -3001,28 +2998,30 @@
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
     </row>
-    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:120" ht="15" customHeight="1">
       <c r="A18" s="57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B18" s="34">
-        <v>916.29</v>
-      </c>
-      <c r="C18" s="17"/>
+        <v>1032.575</v>
+      </c>
+      <c r="C18" s="17">
+        <v>40</v>
+      </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41303</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" s="34">
-        <v>916.29</v>
+        <v>1042.5999999999999</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="18">
@@ -3030,12 +3029,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="34">
         <v>824.06</v>
@@ -3104,7 +3103,7 @@
     </row>
     <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" s="34">
         <v>1032.58</v>
@@ -3115,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3182,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3242,7 +3241,7 @@
     </row>
     <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" s="34">
         <v>896.23500000000001</v>
@@ -3371,7 +3370,7 @@
     </row>
     <row r="24" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A24" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="34">
         <v>868.17</v>
@@ -3500,7 +3499,7 @@
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" s="34">
         <v>901.24800000000005</v>
@@ -3511,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
@@ -3629,20 +3628,22 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B26" s="34">
-        <v>969.42</v>
-      </c>
-      <c r="C26" s="17"/>
+        <v>1130.82</v>
+      </c>
+      <c r="C26" s="17">
+        <v>40</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45232.799999999996</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
@@ -3762,7 +3763,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" s="34">
         <v>824.06</v>
@@ -3891,7 +3892,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" s="34">
         <v>798.99</v>
@@ -4020,7 +4021,7 @@
     </row>
     <row r="29" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="34">
         <v>1072.675</v>
@@ -4278,7 +4279,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B31" s="34">
         <v>858.14</v>
@@ -4289,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
@@ -4409,7 +4410,7 @@
     </row>
     <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="34">
         <v>858.14</v>
@@ -4538,7 +4539,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" s="34">
         <v>878.19</v>
@@ -4600,7 +4601,7 @@
     </row>
     <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="34">
         <v>936.34</v>
@@ -4662,7 +4663,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" s="34">
         <v>955.38</v>
@@ -4791,7 +4792,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B36" s="34">
         <v>1014.53</v>
@@ -4802,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
@@ -4920,20 +4921,22 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B37" s="34">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>40</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47152</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
@@ -5051,20 +5054,22 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B38" s="34">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>400</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>0</v>
+        <v>448032</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -5184,7 +5189,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B39" s="34">
         <v>891</v>
@@ -5195,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
@@ -5315,7 +5320,7 @@
     </row>
     <row r="40" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A40" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="34">
         <v>1159.8900000000001</v>
@@ -5444,7 +5449,7 @@
     </row>
     <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B41" s="34">
         <v>1264.78</v>
@@ -5571,20 +5576,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" s="34">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>40</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56895.200000000004</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -5704,7 +5711,7 @@
     </row>
     <row r="43" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A43" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="34">
         <v>1140.8499999999999</v>
@@ -5833,7 +5840,7 @@
     </row>
     <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" s="34">
         <v>1244.723</v>
@@ -5962,7 +5969,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B45" s="34">
         <v>1238.0899999999999</v>
@@ -6091,7 +6098,7 @@
     </row>
     <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46" s="34">
         <v>800</v>
@@ -6220,7 +6227,7 @@
     </row>
     <row r="47" spans="1:120" s="42" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B47" s="34">
         <v>848.12</v>
@@ -6282,7 +6289,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B48" s="34">
         <v>1101.75</v>
@@ -6293,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
@@ -6413,7 +6420,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="34">
         <v>1159.8900000000001</v>
@@ -6424,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
@@ -6542,20 +6549,22 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B50" s="34">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17">
+        <v>40</v>
+      </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42666.400000000001</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
@@ -6675,7 +6684,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B51" s="34">
         <v>1014.53</v>
@@ -6686,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
@@ -6806,7 +6815,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" s="34">
         <v>1264.153</v>
@@ -6935,7 +6944,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B53" s="34">
         <v>2702.42</v>
@@ -6946,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
@@ -7066,7 +7075,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B54" s="34">
         <v>3947.38</v>
@@ -7077,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
@@ -7197,7 +7206,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B55" s="34">
         <v>13914.7</v>
@@ -7326,7 +7335,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B56" s="34">
         <v>20340.84</v>
@@ -7455,7 +7464,7 @@
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" s="34">
         <v>24267.584999999999</v>
@@ -7584,7 +7593,7 @@
     </row>
     <row r="58" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58" s="34">
         <v>5334.3029999999999</v>
@@ -7595,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
@@ -7715,7 +7724,7 @@
     </row>
     <row r="59" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B59" s="34">
         <v>6900.2079999999996</v>
@@ -7844,7 +7853,7 @@
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B60" s="34">
         <v>6715.95</v>
@@ -7973,7 +7982,7 @@
     </row>
     <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" s="34">
         <v>8573.3799999999992</v>
@@ -8102,7 +8111,7 @@
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B62" s="34">
         <v>4044.61</v>
@@ -8113,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
@@ -8233,7 +8242,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B63" s="34">
         <v>8088.17</v>
@@ -8362,7 +8371,7 @@
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B64" s="34">
         <v>5158.25</v>
@@ -8491,7 +8500,7 @@
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B65" s="34">
         <v>4885.6000000000004</v>
@@ -8620,7 +8629,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B66" s="34">
         <v>5247.46</v>
@@ -8631,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BB66" s="14"/>
       <c r="BC66" s="14"/>
@@ -8691,7 +8700,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B67" s="34">
         <v>6397.96</v>
@@ -8760,7 +8769,7 @@
     </row>
     <row r="68" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B68" s="34">
         <v>5607.32</v>
@@ -8822,7 +8831,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B69" s="34">
         <v>4866.5600000000004</v>
@@ -8884,7 +8893,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B70" s="34">
         <v>5603.31</v>
@@ -8895,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="31"/>
@@ -8948,7 +8957,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B71" s="34">
         <v>5411.86</v>
@@ -8959,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="31"/>
@@ -9012,7 +9021,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B72" s="34">
         <v>5412.5</v>
@@ -9074,7 +9083,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A73" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B73" s="34">
         <v>5792.76</v>
@@ -9085,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F73" s="31"/>
       <c r="G73" s="31"/>
@@ -9138,7 +9147,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B74" s="34">
         <v>5793.45</v>
@@ -9149,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="31"/>
@@ -9202,7 +9211,7 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B75" s="34">
         <v>7714.24</v>
@@ -9264,7 +9273,7 @@
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B76" s="34">
         <v>8225.51</v>
@@ -9326,7 +9335,7 @@
     </row>
     <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B77" s="34">
         <v>5382.7857000000004</v>
@@ -9388,7 +9397,7 @@
     </row>
     <row r="78" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B78" s="34">
         <v>6306.98</v>
@@ -9399,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="32"/>
@@ -9519,7 +9528,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B79" s="34">
         <v>5708.6</v>
@@ -9530,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F79" s="32"/>
       <c r="G79" s="32"/>
@@ -9650,7 +9659,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B80" s="34">
         <v>6405.21</v>
@@ -9661,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F80" s="32"/>
       <c r="G80" s="32"/>
@@ -9781,7 +9790,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B81" s="34">
         <v>1182</v>
@@ -9792,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F81" s="32"/>
       <c r="G81" s="32"/>
@@ -9912,7 +9921,7 @@
     </row>
     <row r="82" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B82" s="34">
         <v>1199.99</v>
@@ -10041,7 +10050,7 @@
     </row>
     <row r="83" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B83" s="34">
         <v>1189.97</v>
@@ -10103,7 +10112,7 @@
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B84" s="34">
         <v>1062.6500000000001</v>
@@ -10114,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
@@ -10165,20 +10174,22 @@
       <c r="AZ84" s="31"/>
       <c r="BA84" s="31"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B85" s="34">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>60</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>74817.600000000006</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F85" s="31"/>
       <c r="G85" s="31"/>
@@ -10233,20 +10244,22 @@
       <c r="BD85" s="31"/>
       <c r="BE85" s="31"/>
     </row>
-    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" ht="15" customHeight="1">
       <c r="A86" s="58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B86" s="34">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>40</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52250.400000000001</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F86" s="32"/>
       <c r="G86" s="32"/>
@@ -10366,7 +10379,7 @@
     </row>
     <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B87" s="34">
         <v>1042.5999999999999</v>
@@ -10435,7 +10448,7 @@
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B88" s="34">
         <v>1435.58</v>
@@ -10504,7 +10517,7 @@
     </row>
     <row r="89" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B89" s="34">
         <v>5607.9849999999997</v>
@@ -10515,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F89" s="32"/>
       <c r="G89" s="32"/>
@@ -10646,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F90" s="32"/>
       <c r="G90" s="32"/>
@@ -10766,7 +10779,7 @@
     </row>
     <row r="91" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B91" s="34">
         <v>1072.68</v>
@@ -11024,7 +11037,7 @@
     </row>
     <row r="93" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B93" s="34">
         <v>1551.87</v>
@@ -11153,7 +11166,7 @@
     </row>
     <row r="94" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A94" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B94" s="34">
         <v>1306.26</v>
@@ -11164,7 +11177,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F94" s="31"/>
       <c r="G94" s="31"/>
@@ -11217,7 +11230,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B95" s="34">
         <v>1004.39</v>
@@ -11279,7 +11292,7 @@
     </row>
     <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B96" s="34">
         <v>1364.45</v>
@@ -11290,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F96" s="32"/>
       <c r="G96" s="32"/>
@@ -11410,7 +11423,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B97" s="34">
         <v>1403.33</v>
@@ -11421,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F97" s="32"/>
       <c r="G97" s="32"/>
@@ -11541,7 +11554,7 @@
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B98" s="34">
         <v>1170.92</v>
@@ -11670,7 +11683,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B99" s="34">
         <v>985.46</v>
@@ -11681,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F99" s="32"/>
       <c r="G99" s="32"/>
@@ -11801,7 +11814,7 @@
     </row>
     <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B100" s="34">
         <v>1178.94</v>
@@ -11812,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F100" s="31"/>
       <c r="G100" s="31"/>
@@ -11920,7 +11933,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B101" s="34">
         <v>1062.6500000000001</v>
@@ -11931,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F101" s="31"/>
       <c r="G101" s="31"/>
@@ -11982,20 +11995,22 @@
       <c r="AZ101" s="31"/>
       <c r="BA101" s="31"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B102" s="34">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>40</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>0</v>
+        <v>47552.799999999996</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F102" s="31"/>
       <c r="G102" s="31"/>
@@ -12103,7 +12118,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B103" s="34">
         <v>945.36</v>
@@ -12165,7 +12180,7 @@
     </row>
     <row r="104" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B104" s="34">
         <v>1072.68</v>
@@ -12176,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="32"/>
@@ -12296,7 +12311,7 @@
     </row>
     <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B105" s="34">
         <v>1024.5550000000001</v>
@@ -12307,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F105" s="32"/>
       <c r="G105" s="32"/>
@@ -12427,7 +12442,7 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B106" s="34">
         <v>1024.56</v>
@@ -12556,7 +12571,7 @@
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B107" s="34">
         <v>1101.75</v>
@@ -12685,7 +12700,7 @@
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B108" s="34">
         <v>1297.24</v>
@@ -12696,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="32"/>
@@ -12816,7 +12831,7 @@
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B109" s="34">
         <v>1297.24</v>
@@ -12945,7 +12960,7 @@
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B110" s="34">
         <v>1150.8699999999999</v>
@@ -12956,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BB110" s="14"/>
       <c r="BC110" s="14"/>
@@ -13016,7 +13031,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B111" s="34">
         <v>12215.46</v>
@@ -13085,7 +13100,7 @@
     </row>
     <row r="112" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B112" s="34">
         <v>1695.2280000000001</v>
@@ -13154,7 +13169,7 @@
     </row>
     <row r="113" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A113" s="57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B113" s="34">
         <v>11860.475</v>
@@ -13283,7 +13298,7 @@
     </row>
     <row r="114" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B114" s="34">
         <v>10616.475</v>
@@ -13412,7 +13427,7 @@
     </row>
     <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B115" s="34">
         <v>5607.32</v>
@@ -13423,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F115" s="32"/>
       <c r="G115" s="32"/>
@@ -13543,7 +13558,7 @@
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B116" s="34">
         <v>14021.94</v>
@@ -13672,7 +13687,7 @@
     </row>
     <row r="117" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B117" s="34">
         <v>2788.96</v>
@@ -13683,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F117" s="32"/>
       <c r="G117" s="32"/>
@@ -13803,7 +13818,7 @@
     </row>
     <row r="118" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B118" s="34">
         <v>10133.27</v>
@@ -13932,7 +13947,7 @@
     </row>
     <row r="119" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B119" s="34">
         <v>17443.5</v>
@@ -14061,7 +14076,7 @@
     </row>
     <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B120" s="34">
         <v>1159.8900000000001</v>
@@ -14072,7 +14087,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F120" s="32"/>
       <c r="G120" s="32"/>
@@ -14192,7 +14207,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B121" s="34">
         <v>1072.675</v>
@@ -14450,7 +14465,7 @@
     </row>
     <row r="123" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B123" s="34">
         <v>5476.38</v>
@@ -14648,7 +14663,7 @@
     </row>
     <row r="125" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B125" s="34">
         <v>7679.15</v>
@@ -14777,7 +14792,7 @@
     </row>
     <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B126" s="34">
         <v>1219.04</v>
@@ -14788,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F126" s="32"/>
       <c r="G126" s="32"/>
@@ -14908,7 +14923,7 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B127" s="34">
         <v>1336.33</v>
@@ -14919,7 +14934,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F127" s="32"/>
       <c r="G127" s="32"/>
@@ -15039,7 +15054,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B128" s="34">
         <v>1188.97</v>
@@ -15168,7 +15183,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B129" s="34">
         <v>1336.33</v>
@@ -15297,7 +15312,7 @@
     </row>
     <row r="130" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B130" s="34">
         <v>8641.5499999999993</v>
@@ -15426,7 +15441,7 @@
     </row>
     <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B131" s="34">
         <v>1208.01</v>
@@ -15437,7 +15452,7 @@
         <v>0</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F131" s="32"/>
       <c r="G131" s="32"/>
@@ -15557,7 +15572,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B132" s="34">
         <v>3520.36</v>
@@ -15568,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F132" s="32"/>
       <c r="G132" s="32"/>
@@ -15688,7 +15703,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B133" s="34">
         <v>3793.1</v>
@@ -15699,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F133" s="32"/>
       <c r="G133" s="32"/>
@@ -15819,7 +15834,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B134" s="34">
         <v>4174.41</v>
@@ -15830,7 +15845,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="32"/>
@@ -15950,7 +15965,7 @@
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B135" s="34">
         <v>4174.41</v>
@@ -16078,7 +16093,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B136" s="34">
         <v>5510.74</v>
@@ -16207,7 +16222,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B137" s="34">
         <v>4896.21</v>
@@ -16336,7 +16351,7 @@
     </row>
     <row r="138" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B138" s="34">
         <v>4076.68</v>
@@ -16347,7 +16362,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F138" s="31"/>
       <c r="G138" s="31"/>
@@ -16400,7 +16415,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B139" s="34">
         <v>5150.8500000000004</v>
@@ -16462,7 +16477,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B140" s="34">
         <v>4973.3999999999996</v>
@@ -16524,7 +16539,7 @@
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B141" s="34">
         <v>5423.53</v>
@@ -16586,7 +16601,7 @@
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B142" s="34">
         <v>5940.82</v>
@@ -16648,7 +16663,7 @@
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B143" s="34">
         <v>4438.07</v>
@@ -16659,7 +16674,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F143" s="31"/>
       <c r="G143" s="31"/>
@@ -16712,7 +16727,7 @@
     </row>
     <row r="144" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B144" s="34">
         <v>3558.64</v>
@@ -16774,7 +16789,7 @@
     </row>
     <row r="145" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B145" s="38">
         <v>3257.12</v>
@@ -16785,7 +16800,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F145" s="32"/>
       <c r="G145" s="32"/>
@@ -16905,7 +16920,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B146" s="34">
         <v>4389.43</v>
@@ -16916,7 +16931,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F146" s="32"/>
       <c r="G146" s="32"/>
@@ -17036,7 +17051,7 @@
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B147" s="34">
         <v>4389.95</v>
@@ -17165,7 +17180,7 @@
     </row>
     <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B148" s="34">
         <v>5257.11</v>
@@ -17176,7 +17191,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F148" s="32"/>
       <c r="G148" s="32"/>
@@ -17296,7 +17311,7 @@
     </row>
     <row r="149" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B149" s="38">
         <v>3934.81</v>
@@ -17425,7 +17440,7 @@
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B150" s="38">
         <v>4027.04</v>
@@ -17436,7 +17451,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F150" s="32"/>
       <c r="G150" s="32"/>
@@ -17556,7 +17571,7 @@
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B151" s="38">
         <v>3891.71</v>
@@ -17567,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F151" s="32"/>
       <c r="G151" s="32"/>
@@ -17687,7 +17702,7 @@
     </row>
     <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B152" s="34">
         <v>4507.24</v>
@@ -17816,7 +17831,7 @@
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B153" s="34">
         <v>4409</v>
@@ -17945,7 +17960,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B154" s="34">
         <v>4165.3900000000003</v>
@@ -17956,7 +17971,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="32"/>
@@ -18076,7 +18091,7 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B155" s="34">
         <v>3617.59</v>
@@ -18087,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F155" s="32"/>
       <c r="G155" s="32"/>
@@ -18207,7 +18222,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B156" s="34">
         <v>3548.43</v>
@@ -18218,7 +18233,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BB156" s="14"/>
       <c r="BC156" s="14"/>
@@ -18278,7 +18293,7 @@
     </row>
     <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A157" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B157" s="34">
         <v>4849.09</v>
@@ -18340,7 +18355,7 @@
     </row>
     <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" s="34">
         <v>7165.87</v>
@@ -18351,7 +18366,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F158" s="31"/>
       <c r="G158" s="31"/>
@@ -18404,7 +18419,7 @@
     </row>
     <row r="159" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A159" s="57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B159" s="34">
         <v>7691.27</v>
@@ -18533,7 +18548,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B160" s="34">
         <v>7093.04</v>
@@ -18544,7 +18559,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F160" s="32"/>
       <c r="G160" s="32"/>
@@ -18662,20 +18677,22 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A161" s="57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B161" s="34">
-        <v>7066.79</v>
-      </c>
-      <c r="C161" s="17"/>
+        <v>7242.2</v>
+      </c>
+      <c r="C161" s="17">
+        <v>20</v>
+      </c>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>144844</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F161" s="32"/>
       <c r="G161" s="32"/>
@@ -18795,7 +18812,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B162" s="34">
         <v>8101.24</v>
@@ -18924,7 +18941,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B163" s="34">
         <v>7501.24</v>
@@ -19053,7 +19070,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B164" s="34">
         <v>7778.48</v>
@@ -19064,7 +19081,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="32"/>
@@ -19184,7 +19201,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B165" s="34">
         <v>9066.5400000000009</v>
@@ -19195,7 +19212,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F165" s="32"/>
       <c r="G165" s="32"/>
@@ -19313,22 +19330,20 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B166" s="34">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17">
-        <v>5</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>49367.25</v>
+        <v>0</v>
       </c>
       <c r="E166" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F166" s="32"/>
       <c r="G166" s="32"/>
@@ -19446,22 +19461,20 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B167" s="34">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17">
-        <v>20</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>155569.59999999998</v>
+        <v>0</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F167" s="32"/>
       <c r="G167" s="32"/>
@@ -19581,7 +19594,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B168" s="34">
         <v>9056.51</v>
@@ -19592,7 +19605,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F168" s="32"/>
       <c r="G168" s="32"/>
@@ -19712,7 +19725,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B169" s="34">
         <v>9056.51</v>
@@ -19723,7 +19736,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F169" s="32"/>
       <c r="G169" s="32"/>
@@ -19841,22 +19854,20 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B170" s="34">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>10</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>90565.1</v>
+        <v>0</v>
       </c>
       <c r="E170" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F170" s="32"/>
       <c r="G170" s="32"/>
@@ -19976,7 +19987,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A171" s="57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B171" s="34">
         <v>10133.07</v>
@@ -19987,7 +19998,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F171" s="32"/>
       <c r="G171" s="32"/>
@@ -20111,12 +20122,12 @@
       </c>
       <c r="B172" s="69"/>
       <c r="C172" s="47">
-        <f>SUBTOTAL(9,C6:C171)</f>
-        <v>35</v>
+        <f>SUBTOTAL(9,C18:C171)</f>
+        <v>760</v>
       </c>
       <c r="D172" s="54">
-        <f>SUBTOTAL(9,D6:D171)</f>
-        <v>295501.94999999995</v>
+        <f>SUBTOTAL(9,D18:D171)</f>
+        <v>1000746.2000000001</v>
       </c>
       <c r="E172" s="48"/>
       <c r="F172" s="32"/>
@@ -20380,33 +20391,35 @@
         <v>86</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E177" s="24"/>
     </row>
     <row r="178" spans="2:5" ht="15" customHeight="1">
       <c r="B178" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C178" s="25">
-        <v>300000</v>
+        <v>800000</v>
       </c>
       <c r="D178" s="26"/>
       <c r="E178" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="179" spans="2:5">
       <c r="B179" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C179" s="25"/>
+        <v>287</v>
+      </c>
+      <c r="C179" s="25">
+        <v>200000</v>
+      </c>
       <c r="D179" s="27"/>
       <c r="E179" s="28"/>
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C180" s="25">
         <v>0</v>
@@ -20420,7 +20433,7 @@
       </c>
       <c r="C181" s="40">
         <f>SUM(C178:C180)</f>
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="D181" s="41"/>
       <c r="E181" s="29"/>
@@ -20471,7 +20484,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
       <c r="A1" s="71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -20480,7 +20493,7 @@
     </row>
     <row r="2" spans="1:5" ht="23.25">
       <c r="A2" s="72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="72"/>
@@ -20489,7 +20502,7 @@
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="A3" s="73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="74" t="e">
@@ -20501,19 +20514,19 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1">
@@ -20621,7 +20634,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="4" t="e">
         <f>#REF!</f>
@@ -20701,7 +20714,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="4" t="e">
         <f>#REF!</f>
@@ -21141,7 +21154,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="4" t="e">
         <f>#REF!</f>
@@ -21321,7 +21334,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="4" t="e">
         <f>#REF!</f>
@@ -21341,7 +21354,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" s="4" t="e">
         <f>#REF!</f>
@@ -21361,7 +21374,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="4" t="e">
         <f>#REF!</f>
@@ -21401,7 +21414,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="10" t="e">
         <f>#REF!</f>
@@ -21421,7 +21434,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="4" t="e">
         <f>#REF!</f>
@@ -21441,7 +21454,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" s="4" t="e">
         <f>#REF!</f>
@@ -21461,7 +21474,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="4" t="e">
         <f>#REF!</f>
@@ -21481,7 +21494,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" s="4" t="e">
         <f>#REF!</f>
@@ -21501,7 +21514,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="4" t="e">
         <f>#REF!</f>
@@ -21521,7 +21534,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="4" t="e">
         <f>#REF!</f>
@@ -21561,7 +21574,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" s="4" t="e">
         <f>#REF!</f>
@@ -21661,7 +21674,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C62" s="4" t="e">
         <f>#REF!</f>
@@ -21761,7 +21774,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="4" t="e">
         <f>#REF!</f>
@@ -21781,7 +21794,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C68" s="4" t="e">
         <f>#REF!</f>
@@ -21801,7 +21814,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" s="4" t="e">
         <f>#REF!</f>
@@ -22201,7 +22214,7 @@
         <v>85</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C89" s="11" t="e">
         <f>#REF!</f>
@@ -22421,7 +22434,7 @@
         <v>95</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C100" s="4" t="e">
         <f>#REF!</f>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -1972,7 +1972,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H173" sqref="H173"/>
+      <selection pane="bottomRight" activeCell="J177" sqref="J177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="E2" s="43">
         <f ca="1">TODAY()</f>
-        <v>44375</v>
+        <v>44389</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3099,17 +3099,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="54" t="s">
         <v>255</v>
       </c>
       <c r="B21" s="32">
-        <v>1032.58</v>
-      </c>
-      <c r="C21" s="17"/>
+        <v>1120.8</v>
+      </c>
+      <c r="C21" s="17">
+        <v>178</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199502.4</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>268</v>
@@ -6277,19 +6279,17 @@
       <c r="AZ47" s="49"/>
       <c r="BA47" s="49"/>
     </row>
-    <row r="48" spans="1:120" ht="15" customHeight="1">
+    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="54" t="s">
         <v>271</v>
       </c>
       <c r="B48" s="32">
         <v>1101.75</v>
       </c>
-      <c r="C48" s="17">
-        <v>50</v>
-      </c>
+      <c r="C48" s="17"/>
       <c r="D48" s="18">
         <f t="shared" si="1"/>
-        <v>55087.5</v>
+        <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>268</v>
@@ -6541,19 +6541,17 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="55" t="s">
         <v>274</v>
       </c>
       <c r="B50" s="32">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17">
-        <v>40</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>42666.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>268</v>
@@ -9649,17 +9647,19 @@
       <c r="DO79" s="15"/>
       <c r="DP79" s="15"/>
     </row>
-    <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="80" spans="1:120" ht="15" customHeight="1">
       <c r="A80" s="54" t="s">
         <v>269</v>
       </c>
       <c r="B80" s="32">
         <v>6405.21</v>
       </c>
-      <c r="C80" s="17"/>
+      <c r="C80" s="17">
+        <v>30</v>
+      </c>
       <c r="D80" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>192156.3</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>268</v>
@@ -10166,19 +10166,17 @@
       <c r="AZ84" s="29"/>
       <c r="BA84" s="29"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="55" t="s">
         <v>273</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>40</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>49878.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>268</v>
@@ -10236,19 +10234,17 @@
       <c r="BD85" s="29"/>
       <c r="BE85" s="29"/>
     </row>
-    <row r="86" spans="1:120" ht="15" customHeight="1">
+    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="55" t="s">
         <v>283</v>
       </c>
       <c r="B86" s="32">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17">
-        <v>60</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>78375.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>268</v>
@@ -11220,19 +11216,23 @@
       <c r="AZ94" s="29"/>
       <c r="BA94" s="29"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1">
       <c r="A95" s="55" t="s">
         <v>165</v>
       </c>
       <c r="B95" s="32">
         <v>1004.39</v>
       </c>
-      <c r="C95" s="17"/>
+      <c r="C95" s="17">
+        <v>100</v>
+      </c>
       <c r="D95" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="18"/>
+        <v>100439</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>268</v>
+      </c>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
@@ -11987,19 +11987,17 @@
       <c r="AZ101" s="29"/>
       <c r="BA101" s="29"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="54" t="s">
         <v>284</v>
       </c>
       <c r="B102" s="32">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17">
-        <v>60</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>71329.2</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>268</v>
@@ -15693,20 +15691,22 @@
       <c r="DO132" s="15"/>
       <c r="DP132" s="15"/>
     </row>
-    <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="133" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A133" s="54" t="s">
         <v>240</v>
       </c>
       <c r="B133" s="32">
         <v>3793.1</v>
       </c>
-      <c r="C133" s="17"/>
+      <c r="C133" s="17">
+        <v>35</v>
+      </c>
       <c r="D133" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>132758.5</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="F133" s="30"/>
       <c r="G133" s="30"/>
@@ -20113,11 +20113,11 @@
       <c r="B172" s="69"/>
       <c r="C172" s="44">
         <f>SUBTOTAL(9,C13:C171)</f>
-        <v>250</v>
+        <v>343</v>
       </c>
       <c r="D172" s="51">
-        <f>SUBTOTAL(9,D13:D171)</f>
-        <v>297337.09999999998</v>
+        <f>SUBTOTAL(9,D21:D171)</f>
+        <v>624856.19999999995</v>
       </c>
       <c r="E172" s="45"/>
       <c r="F172" s="30"/>
@@ -20390,7 +20390,7 @@
         <v>287</v>
       </c>
       <c r="C178" s="23">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
@@ -20419,7 +20419,7 @@
       </c>
       <c r="C181" s="37">
         <f>SUM(C178:C180)</f>
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="D181" s="38"/>
       <c r="E181" s="27"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1969,10 +1969,10 @@
   <dimension ref="A1:DP183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J177" sqref="J177"/>
+      <selection pane="bottomRight" activeCell="J165" sqref="J165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="E2" s="43">
         <f ca="1">TODAY()</f>
-        <v>44389</v>
+        <v>44392</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3107,11 +3107,11 @@
         <v>1120.8</v>
       </c>
       <c r="C21" s="17">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>199502.4</v>
+        <v>112080</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>268</v>
@@ -4919,17 +4919,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="54" t="s">
         <v>221</v>
       </c>
       <c r="B37" s="32">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>100</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>117880</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>268</v>
@@ -5050,17 +5052,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="54" t="s">
         <v>256</v>
       </c>
       <c r="B38" s="32">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>100</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>0</v>
+        <v>112008</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>268</v>
@@ -6541,17 +6545,19 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="55" t="s">
         <v>274</v>
       </c>
       <c r="B50" s="32">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17">
+        <v>260</v>
+      </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>277331.60000000003</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>268</v>
@@ -9647,19 +9653,17 @@
       <c r="DO79" s="15"/>
       <c r="DP79" s="15"/>
     </row>
-    <row r="80" spans="1:120" ht="15" customHeight="1">
+    <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="54" t="s">
         <v>269</v>
       </c>
       <c r="B80" s="32">
         <v>6405.21</v>
       </c>
-      <c r="C80" s="17">
-        <v>30</v>
-      </c>
+      <c r="C80" s="17"/>
       <c r="D80" s="18">
         <f t="shared" si="2"/>
-        <v>192156.3</v>
+        <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>268</v>
@@ -10166,17 +10170,19 @@
       <c r="AZ84" s="29"/>
       <c r="BA84" s="29"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="55" t="s">
         <v>273</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>100</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>124696</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>268</v>
@@ -11216,19 +11222,17 @@
       <c r="AZ94" s="29"/>
       <c r="BA94" s="29"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="55" t="s">
         <v>165</v>
       </c>
       <c r="B95" s="32">
         <v>1004.39</v>
       </c>
-      <c r="C95" s="17">
-        <v>100</v>
-      </c>
+      <c r="C95" s="17"/>
       <c r="D95" s="18">
         <f t="shared" si="2"/>
-        <v>100439</v>
+        <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
         <v>268</v>
@@ -11413,17 +11417,19 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="55" t="s">
         <v>281</v>
       </c>
       <c r="B97" s="32">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>100</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>140333</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>268</v>
@@ -11804,17 +11810,19 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="54" t="s">
         <v>232</v>
       </c>
       <c r="B100" s="32">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="17">
+        <v>200</v>
+      </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>235788</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>268</v>
@@ -15429,17 +15437,19 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:120" ht="15" customHeight="1">
       <c r="A131" s="54" t="s">
         <v>276</v>
       </c>
       <c r="B131" s="32">
         <v>1208.01</v>
       </c>
-      <c r="C131" s="17"/>
+      <c r="C131" s="17">
+        <v>100</v>
+      </c>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>120801</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>268</v>
@@ -15691,19 +15701,17 @@
       <c r="DO132" s="15"/>
       <c r="DP132" s="15"/>
     </row>
-    <row r="133" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="54" t="s">
         <v>240</v>
       </c>
       <c r="B133" s="32">
         <v>3793.1</v>
       </c>
-      <c r="C133" s="17">
-        <v>35</v>
-      </c>
+      <c r="C133" s="17"/>
       <c r="D133" s="18">
         <f t="shared" si="3"/>
-        <v>132758.5</v>
+        <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
         <v>268</v>
@@ -18283,7 +18291,7 @@
       <c r="DC156" s="14"/>
       <c r="DD156" s="14"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A157" s="54" t="s">
         <v>132</v>
       </c>
@@ -18345,7 +18353,7 @@
       <c r="AZ157" s="29"/>
       <c r="BA157" s="29"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="54" t="s">
         <v>246</v>
       </c>
@@ -18669,17 +18677,19 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:120" ht="15" customHeight="1">
       <c r="A161" s="54" t="s">
         <v>285</v>
       </c>
       <c r="B161" s="32">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17"/>
+      <c r="C161" s="17">
+        <v>20</v>
+      </c>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>144844</v>
       </c>
       <c r="E161" s="18" t="s">
         <v>288</v>
@@ -19189,20 +19199,22 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1">
       <c r="A165" s="54" t="s">
         <v>292</v>
       </c>
       <c r="B165" s="32">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="17">
+        <v>15</v>
+      </c>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E165" s="18" t="s">
-        <v>288</v>
+        <v>135998.1</v>
+      </c>
+      <c r="E165" s="50" t="s">
+        <v>300</v>
       </c>
       <c r="F165" s="30"/>
       <c r="G165" s="30"/>
@@ -19320,17 +19332,19 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
       <c r="A166" s="54" t="s">
         <v>278</v>
       </c>
       <c r="B166" s="32">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>20</v>
+      </c>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>0</v>
+        <v>197469</v>
       </c>
       <c r="E166" s="50" t="s">
         <v>300</v>
@@ -19582,17 +19596,19 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:120" ht="15" customHeight="1">
       <c r="A168" s="54" t="s">
         <v>301</v>
       </c>
       <c r="B168" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17"/>
+      <c r="C168" s="17">
+        <v>10</v>
+      </c>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90565.1</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>268</v>
@@ -19713,17 +19729,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="54" t="s">
         <v>302</v>
       </c>
       <c r="B169" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>10</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>0</v>
+        <v>90565.1</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>268</v>
@@ -19844,17 +19862,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="54" t="s">
         <v>294</v>
       </c>
       <c r="B170" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>10</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90565.1</v>
       </c>
       <c r="E170" s="42" t="s">
         <v>296</v>
@@ -20112,12 +20132,12 @@
       </c>
       <c r="B172" s="69"/>
       <c r="C172" s="44">
-        <f>SUBTOTAL(9,C13:C171)</f>
-        <v>343</v>
+        <f>SUBTOTAL(9,C21:C171)</f>
+        <v>1145</v>
       </c>
       <c r="D172" s="51">
         <f>SUBTOTAL(9,D21:D171)</f>
-        <v>624856.19999999995</v>
+        <v>1990924.0000000005</v>
       </c>
       <c r="E172" s="45"/>
       <c r="F172" s="30"/>
@@ -20389,9 +20409,7 @@
       <c r="B178" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="C178" s="23">
-        <v>1000000</v>
-      </c>
+      <c r="C178" s="23"/>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
         <v>135</v>
@@ -20419,7 +20437,7 @@
       </c>
       <c r="C181" s="37">
         <f>SUM(C178:C180)</f>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="D181" s="38"/>
       <c r="E181" s="27"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -889,9 +889,6 @@
     <t>City Bank</t>
   </si>
   <si>
-    <t>Amazon Green</t>
-  </si>
-  <si>
     <t>Z20</t>
   </si>
   <si>
@@ -932,6 +929,9 @@
   </si>
   <si>
     <t>Z35(4+64)</t>
+  </si>
+  <si>
+    <t>Only Blue</t>
   </si>
 </sst>
 </file>
@@ -1560,9 +1560,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="19" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1609,6 +1606,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1969,18 +1969,18 @@
   <dimension ref="A1:DP183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J165" sqref="J165"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" style="53" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="18" style="14" customWidth="1"/>
+    <col min="1" max="1" width="22" style="52" customWidth="1"/>
+    <col min="2" max="2" width="15" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="108" width="9.140625" style="29" customWidth="1"/>
     <col min="109" max="120" width="9.140625" style="14" customWidth="1"/>
@@ -1997,41 +1997,41 @@
       <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="63" t="s">
         <v>286</v>
       </c>
       <c r="C2" s="64"/>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="42">
         <f ca="1">TODAY()</f>
-        <v>44392</v>
+        <v>44395</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:120" ht="15" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="47" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>279</v>
       </c>
       <c r="B5" s="32">
@@ -2101,20 +2101,22 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A6" s="54" t="s">
-        <v>297</v>
+    <row r="6" spans="1:120" ht="15" customHeight="1">
+      <c r="A6" s="53" t="s">
+        <v>296</v>
       </c>
       <c r="B6" s="32">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>40</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>282270.40000000002</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2169,7 +2171,7 @@
       <c r="DD6" s="14"/>
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>219</v>
       </c>
       <c r="B7" s="32">
@@ -2240,7 +2242,7 @@
       <c r="DD7" s="14"/>
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>191</v>
       </c>
       <c r="B8" s="32">
@@ -2369,7 +2371,7 @@
       <c r="DP8" s="15"/>
     </row>
     <row r="9" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="53" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="32">
@@ -2498,7 +2500,7 @@
       <c r="DP9" s="15"/>
     </row>
     <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>155</v>
       </c>
       <c r="B10" s="32">
@@ -2567,7 +2569,7 @@
       <c r="DD10" s="14"/>
     </row>
     <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>156</v>
       </c>
       <c r="B11" s="32">
@@ -2636,7 +2638,7 @@
       <c r="DD11" s="14"/>
     </row>
     <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="32">
@@ -2707,7 +2709,7 @@
       <c r="DD12" s="14"/>
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="53" t="s">
         <v>247</v>
       </c>
       <c r="B13" s="32">
@@ -2723,7 +2725,7 @@
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="53" t="s">
         <v>253</v>
       </c>
       <c r="B14" s="32">
@@ -2792,7 +2794,7 @@
       <c r="DD14" s="14"/>
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>218</v>
       </c>
       <c r="B15" s="32">
@@ -2861,7 +2863,7 @@
       <c r="DD15" s="14"/>
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="53" t="s">
         <v>224</v>
       </c>
       <c r="B16" s="32">
@@ -2930,7 +2932,7 @@
       <c r="DD16" s="14"/>
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="53" t="s">
         <v>235</v>
       </c>
       <c r="B17" s="32">
@@ -2998,24 +3000,26 @@
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
     </row>
-    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A18" s="54" t="s">
+    <row r="18" spans="1:120" ht="15" customHeight="1">
+      <c r="A18" s="53" t="s">
         <v>282</v>
       </c>
       <c r="B18" s="32">
         <v>1032.575</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="17">
+        <v>100</v>
+      </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103257.5</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="53" t="s">
         <v>262</v>
       </c>
       <c r="B19" s="32">
@@ -3031,7 +3035,7 @@
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="53" t="s">
         <v>157</v>
       </c>
       <c r="B20" s="32">
@@ -3100,18 +3104,18 @@
       <c r="DD20" s="14"/>
     </row>
     <row r="21" spans="1:120" ht="15" customHeight="1">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="53" t="s">
         <v>255</v>
       </c>
       <c r="B21" s="32">
         <v>1120.8</v>
       </c>
       <c r="C21" s="17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>112080</v>
+        <v>224160</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>268</v>
@@ -3169,7 +3173,7 @@
       <c r="DD21" s="14"/>
     </row>
     <row r="22" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="53" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="32">
@@ -3240,7 +3244,7 @@
       <c r="DD22" s="14"/>
     </row>
     <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="53" t="s">
         <v>154</v>
       </c>
       <c r="B23" s="32">
@@ -3369,7 +3373,7 @@
       <c r="DP23" s="15"/>
     </row>
     <row r="24" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="53" t="s">
         <v>123</v>
       </c>
       <c r="B24" s="32">
@@ -3498,7 +3502,7 @@
       <c r="DP24" s="15"/>
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="53" t="s">
         <v>182</v>
       </c>
       <c r="B25" s="32">
@@ -3628,17 +3632,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A26" s="54" t="s">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
+      <c r="A26" s="53" t="s">
         <v>272</v>
       </c>
       <c r="B26" s="32">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>60</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67849.2</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>268</v>
@@ -3760,7 +3766,7 @@
       <c r="DP26" s="15"/>
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="53" t="s">
         <v>223</v>
       </c>
       <c r="B27" s="32">
@@ -3889,7 +3895,7 @@
       <c r="DP27" s="15"/>
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="53" t="s">
         <v>243</v>
       </c>
       <c r="B28" s="32">
@@ -4018,7 +4024,7 @@
       <c r="DP28" s="15"/>
     </row>
     <row r="29" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="53" t="s">
         <v>127</v>
       </c>
       <c r="B29" s="32">
@@ -4147,7 +4153,7 @@
       <c r="DP29" s="15"/>
     </row>
     <row r="30" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="53" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="32">
@@ -4276,7 +4282,7 @@
       <c r="DP30" s="15"/>
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="53" t="s">
         <v>222</v>
       </c>
       <c r="B31" s="32">
@@ -4407,7 +4413,7 @@
       <c r="DP31" s="15"/>
     </row>
     <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="53" t="s">
         <v>146</v>
       </c>
       <c r="B32" s="32">
@@ -4536,7 +4542,7 @@
       <c r="DP32" s="15"/>
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="53" t="s">
         <v>194</v>
       </c>
       <c r="B33" s="32">
@@ -4598,7 +4604,7 @@
       <c r="BA33" s="29"/>
     </row>
     <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="53" t="s">
         <v>153</v>
       </c>
       <c r="B34" s="32">
@@ -4660,7 +4666,7 @@
       <c r="BA34" s="29"/>
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="53" t="s">
         <v>193</v>
       </c>
       <c r="B35" s="32">
@@ -4789,7 +4795,7 @@
       <c r="DP35" s="15"/>
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="53" t="s">
         <v>231</v>
       </c>
       <c r="B36" s="32">
@@ -4920,18 +4926,18 @@
       <c r="DP36" s="15"/>
     </row>
     <row r="37" spans="1:120" ht="15" customHeight="1">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="53" t="s">
         <v>221</v>
       </c>
       <c r="B37" s="32">
         <v>1178.8</v>
       </c>
       <c r="C37" s="17">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>117880</v>
+        <v>70728</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>268</v>
@@ -5053,7 +5059,7 @@
       <c r="DP37" s="15"/>
     </row>
     <row r="38" spans="1:120" ht="15" customHeight="1">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="53" t="s">
         <v>256</v>
       </c>
       <c r="B38" s="32">
@@ -5186,7 +5192,7 @@
       <c r="DP38" s="15"/>
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="53" t="s">
         <v>199</v>
       </c>
       <c r="B39" s="32">
@@ -5317,7 +5323,7 @@
       <c r="DP39" s="15"/>
     </row>
     <row r="40" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="53" t="s">
         <v>116</v>
       </c>
       <c r="B40" s="32">
@@ -5446,7 +5452,7 @@
       <c r="DP40" s="15"/>
     </row>
     <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="53" t="s">
         <v>158</v>
       </c>
       <c r="B41" s="32">
@@ -5575,7 +5581,7 @@
       <c r="DP41" s="15"/>
     </row>
     <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="53" t="s">
         <v>204</v>
       </c>
       <c r="B42" s="32">
@@ -5587,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
@@ -5706,7 +5712,7 @@
       <c r="DP42" s="15"/>
     </row>
     <row r="43" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="53" t="s">
         <v>117</v>
       </c>
       <c r="B43" s="32">
@@ -5835,7 +5841,7 @@
       <c r="DP43" s="15"/>
     </row>
     <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="53" t="s">
         <v>160</v>
       </c>
       <c r="B44" s="32">
@@ -5964,7 +5970,7 @@
       <c r="DP44" s="15"/>
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="53" t="s">
         <v>234</v>
       </c>
       <c r="B45" s="32">
@@ -6093,7 +6099,7 @@
       <c r="DP45" s="15"/>
     </row>
     <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="54" t="s">
         <v>159</v>
       </c>
       <c r="B46" s="32">
@@ -6222,7 +6228,7 @@
       <c r="DP46" s="15"/>
     </row>
     <row r="47" spans="1:120" s="39" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="53" t="s">
         <v>254</v>
       </c>
       <c r="B47" s="32">
@@ -6234,66 +6240,68 @@
         <v>0</v>
       </c>
       <c r="E47" s="18"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="49"/>
-      <c r="V47" s="49"/>
-      <c r="W47" s="49"/>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="49"/>
-      <c r="Z47" s="49"/>
-      <c r="AA47" s="49"/>
-      <c r="AB47" s="49"/>
-      <c r="AC47" s="49"/>
-      <c r="AD47" s="49"/>
-      <c r="AE47" s="49"/>
-      <c r="AF47" s="49"/>
-      <c r="AG47" s="49"/>
-      <c r="AH47" s="49"/>
-      <c r="AI47" s="49"/>
-      <c r="AJ47" s="49"/>
-      <c r="AK47" s="49"/>
-      <c r="AL47" s="49"/>
-      <c r="AM47" s="49"/>
-      <c r="AN47" s="49"/>
-      <c r="AO47" s="49"/>
-      <c r="AP47" s="49"/>
-      <c r="AQ47" s="49"/>
-      <c r="AR47" s="49"/>
-      <c r="AS47" s="49"/>
-      <c r="AT47" s="49"/>
-      <c r="AU47" s="49"/>
-      <c r="AV47" s="49"/>
-      <c r="AW47" s="49"/>
-      <c r="AX47" s="49"/>
-      <c r="AY47" s="49"/>
-      <c r="AZ47" s="49"/>
-      <c r="BA47" s="49"/>
-    </row>
-    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A48" s="54" t="s">
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="48"/>
+      <c r="W47" s="48"/>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="48"/>
+      <c r="Z47" s="48"/>
+      <c r="AA47" s="48"/>
+      <c r="AB47" s="48"/>
+      <c r="AC47" s="48"/>
+      <c r="AD47" s="48"/>
+      <c r="AE47" s="48"/>
+      <c r="AF47" s="48"/>
+      <c r="AG47" s="48"/>
+      <c r="AH47" s="48"/>
+      <c r="AI47" s="48"/>
+      <c r="AJ47" s="48"/>
+      <c r="AK47" s="48"/>
+      <c r="AL47" s="48"/>
+      <c r="AM47" s="48"/>
+      <c r="AN47" s="48"/>
+      <c r="AO47" s="48"/>
+      <c r="AP47" s="48"/>
+      <c r="AQ47" s="48"/>
+      <c r="AR47" s="48"/>
+      <c r="AS47" s="48"/>
+      <c r="AT47" s="48"/>
+      <c r="AU47" s="48"/>
+      <c r="AV47" s="48"/>
+      <c r="AW47" s="48"/>
+      <c r="AX47" s="48"/>
+      <c r="AY47" s="48"/>
+      <c r="AZ47" s="48"/>
+      <c r="BA47" s="48"/>
+    </row>
+    <row r="48" spans="1:120" ht="15" customHeight="1">
+      <c r="A48" s="53" t="s">
         <v>271</v>
       </c>
       <c r="B48" s="32">
         <v>1101.75</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="17">
+        <v>60</v>
+      </c>
       <c r="D48" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66105</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>268</v>
@@ -6415,7 +6423,7 @@
       <c r="DP48" s="15"/>
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="54" t="s">
         <v>137</v>
       </c>
       <c r="B49" s="32">
@@ -6545,19 +6553,17 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
-      <c r="A50" s="55" t="s">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A50" s="54" t="s">
         <v>274</v>
       </c>
       <c r="B50" s="32">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17">
-        <v>260</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>277331.60000000003</v>
+        <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>268</v>
@@ -6679,7 +6685,7 @@
       <c r="DP50" s="15"/>
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="53" t="s">
         <v>252</v>
       </c>
       <c r="B51" s="32">
@@ -6810,7 +6816,7 @@
       <c r="DP51" s="15"/>
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="53" t="s">
         <v>184</v>
       </c>
       <c r="B52" s="32">
@@ -6939,7 +6945,7 @@
       <c r="DP52" s="15"/>
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="54" t="s">
         <v>237</v>
       </c>
       <c r="B53" s="32">
@@ -7070,7 +7076,7 @@
       <c r="DP53" s="15"/>
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="54" t="s">
         <v>258</v>
       </c>
       <c r="B54" s="32">
@@ -7201,7 +7207,7 @@
       <c r="DP54" s="15"/>
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="53" t="s">
         <v>177</v>
       </c>
       <c r="B55" s="32">
@@ -7330,7 +7336,7 @@
       <c r="DP55" s="15"/>
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="53" t="s">
         <v>176</v>
       </c>
       <c r="B56" s="32">
@@ -7459,7 +7465,7 @@
       <c r="DP56" s="15"/>
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="53" t="s">
         <v>115</v>
       </c>
       <c r="B57" s="32">
@@ -7588,7 +7594,7 @@
       <c r="DP57" s="15"/>
     </row>
     <row r="58" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="53" t="s">
         <v>124</v>
       </c>
       <c r="B58" s="32">
@@ -7719,7 +7725,7 @@
       <c r="DP58" s="15"/>
     </row>
     <row r="59" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="53" t="s">
         <v>192</v>
       </c>
       <c r="B59" s="32">
@@ -7848,7 +7854,7 @@
       <c r="DP59" s="15"/>
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="53" t="s">
         <v>149</v>
       </c>
       <c r="B60" s="32">
@@ -7977,7 +7983,7 @@
       <c r="DP60" s="15"/>
     </row>
     <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="53" t="s">
         <v>143</v>
       </c>
       <c r="B61" s="32">
@@ -8106,7 +8112,7 @@
       <c r="DP61" s="15"/>
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="53" t="s">
         <v>266</v>
       </c>
       <c r="B62" s="32">
@@ -8237,7 +8243,7 @@
       <c r="DP62" s="15"/>
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="53" t="s">
         <v>174</v>
       </c>
       <c r="B63" s="32">
@@ -8366,7 +8372,7 @@
       <c r="DP63" s="15"/>
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="53" t="s">
         <v>173</v>
       </c>
       <c r="B64" s="32">
@@ -8495,7 +8501,7 @@
       <c r="DP64" s="15"/>
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="53" t="s">
         <v>211</v>
       </c>
       <c r="B65" s="32">
@@ -8624,7 +8630,7 @@
       <c r="DP65" s="15"/>
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="53" t="s">
         <v>250</v>
       </c>
       <c r="B66" s="32">
@@ -8695,7 +8701,7 @@
       <c r="DD66" s="14"/>
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="53" t="s">
         <v>131</v>
       </c>
       <c r="B67" s="32">
@@ -8764,7 +8770,7 @@
       <c r="DD67" s="14"/>
     </row>
     <row r="68" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="53" t="s">
         <v>202</v>
       </c>
       <c r="B68" s="32">
@@ -8826,7 +8832,7 @@
       <c r="BA68" s="29"/>
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="53" t="s">
         <v>260</v>
       </c>
       <c r="B69" s="32">
@@ -8888,7 +8894,7 @@
       <c r="BA69" s="29"/>
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="53" t="s">
         <v>280</v>
       </c>
       <c r="B70" s="32">
@@ -8952,7 +8958,7 @@
       <c r="BA70" s="29"/>
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A71" s="54" t="s">
+      <c r="A71" s="53" t="s">
         <v>233</v>
       </c>
       <c r="B71" s="32">
@@ -9016,7 +9022,7 @@
       <c r="BA71" s="29"/>
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="53" t="s">
         <v>206</v>
       </c>
       <c r="B72" s="32">
@@ -9078,7 +9084,7 @@
       <c r="BA72" s="29"/>
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="53" t="s">
         <v>242</v>
       </c>
       <c r="B73" s="32">
@@ -9142,7 +9148,7 @@
       <c r="BA73" s="29"/>
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="53" t="s">
         <v>167</v>
       </c>
       <c r="B74" s="32">
@@ -9206,7 +9212,7 @@
       <c r="BA74" s="29"/>
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="53" t="s">
         <v>139</v>
       </c>
       <c r="B75" s="32">
@@ -9268,7 +9274,7 @@
       <c r="BA75" s="29"/>
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="53" t="s">
         <v>150</v>
       </c>
       <c r="B76" s="32">
@@ -9330,7 +9336,7 @@
       <c r="BA76" s="29"/>
     </row>
     <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A77" s="54" t="s">
+      <c r="A77" s="53" t="s">
         <v>198</v>
       </c>
       <c r="B77" s="32">
@@ -9392,7 +9398,7 @@
       <c r="BA77" s="29"/>
     </row>
     <row r="78" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A78" s="54" t="s">
+      <c r="A78" s="53" t="s">
         <v>225</v>
       </c>
       <c r="B78" s="32">
@@ -9523,7 +9529,7 @@
       <c r="DP78" s="15"/>
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A79" s="54" t="s">
+      <c r="A79" s="53" t="s">
         <v>270</v>
       </c>
       <c r="B79" s="32">
@@ -9654,7 +9660,7 @@
       <c r="DP79" s="15"/>
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="53" t="s">
         <v>269</v>
       </c>
       <c r="B80" s="32">
@@ -9785,7 +9791,7 @@
       <c r="DP80" s="15"/>
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="54" t="s">
         <v>125</v>
       </c>
       <c r="B81" s="32">
@@ -9916,7 +9922,7 @@
       <c r="DP81" s="15"/>
     </row>
     <row r="82" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="54" t="s">
         <v>171</v>
       </c>
       <c r="B82" s="32">
@@ -10045,7 +10051,7 @@
       <c r="DP82" s="15"/>
     </row>
     <row r="83" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A83" s="55" t="s">
+      <c r="A83" s="54" t="s">
         <v>148</v>
       </c>
       <c r="B83" s="32">
@@ -10107,7 +10113,7 @@
       <c r="BA83" s="29"/>
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="54" t="s">
         <v>229</v>
       </c>
       <c r="B84" s="32">
@@ -10171,18 +10177,18 @@
       <c r="BA84" s="29"/>
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A85" s="55" t="s">
+      <c r="A85" s="54" t="s">
         <v>273</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
       <c r="C85" s="17">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>124696</v>
+        <v>74817.600000000006</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>268</v>
@@ -10240,17 +10246,19 @@
       <c r="BD85" s="29"/>
       <c r="BE85" s="29"/>
     </row>
-    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A86" s="55" t="s">
+    <row r="86" spans="1:120" ht="15" customHeight="1">
+      <c r="A86" s="54" t="s">
         <v>283</v>
       </c>
       <c r="B86" s="32">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>80</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>104500.8</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>268</v>
@@ -10372,7 +10380,7 @@
       <c r="DP86" s="15"/>
     </row>
     <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="54" t="s">
         <v>136</v>
       </c>
       <c r="B87" s="32">
@@ -10441,7 +10449,7 @@
       <c r="DD87" s="14"/>
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A88" s="55" t="s">
+      <c r="A88" s="54" t="s">
         <v>134</v>
       </c>
       <c r="B88" s="32">
@@ -10510,7 +10518,7 @@
       <c r="DD88" s="14"/>
     </row>
     <row r="89" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A89" s="54" t="s">
+      <c r="A89" s="53" t="s">
         <v>147</v>
       </c>
       <c r="B89" s="32">
@@ -10641,7 +10649,7 @@
       <c r="DP89" s="15"/>
     </row>
     <row r="90" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A90" s="55" t="s">
+      <c r="A90" s="54" t="s">
         <v>54</v>
       </c>
       <c r="B90" s="32">
@@ -10772,7 +10780,7 @@
       <c r="DP90" s="15"/>
     </row>
     <row r="91" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A91" s="55" t="s">
+      <c r="A91" s="54" t="s">
         <v>170</v>
       </c>
       <c r="B91" s="32">
@@ -10901,7 +10909,7 @@
       <c r="DP91" s="15"/>
     </row>
     <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A92" s="54" t="s">
+      <c r="A92" s="53" t="s">
         <v>57</v>
       </c>
       <c r="B92" s="32">
@@ -11030,7 +11038,7 @@
       <c r="DP92" s="15"/>
     </row>
     <row r="93" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="54" t="s">
         <v>201</v>
       </c>
       <c r="B93" s="32">
@@ -11159,7 +11167,7 @@
       <c r="DP93" s="15"/>
     </row>
     <row r="94" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A94" s="55" t="s">
+      <c r="A94" s="54" t="s">
         <v>239</v>
       </c>
       <c r="B94" s="32">
@@ -11223,7 +11231,7 @@
       <c r="BA94" s="29"/>
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A95" s="55" t="s">
+      <c r="A95" s="54" t="s">
         <v>165</v>
       </c>
       <c r="B95" s="32">
@@ -11287,7 +11295,7 @@
       <c r="BA95" s="29"/>
     </row>
     <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A96" s="55" t="s">
+      <c r="A96" s="54" t="s">
         <v>277</v>
       </c>
       <c r="B96" s="32">
@@ -11417,19 +11425,17 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
-      <c r="A97" s="55" t="s">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A97" s="54" t="s">
         <v>281</v>
       </c>
       <c r="B97" s="32">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17">
-        <v>100</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>140333</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>268</v>
@@ -11551,7 +11557,7 @@
       <c r="DP97" s="15"/>
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="54" t="s">
         <v>126</v>
       </c>
       <c r="B98" s="32">
@@ -11680,7 +11686,7 @@
       <c r="DP98" s="15"/>
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A99" s="54" t="s">
+      <c r="A99" s="53" t="s">
         <v>181</v>
       </c>
       <c r="B99" s="32">
@@ -11811,18 +11817,18 @@
       <c r="DP99" s="15"/>
     </row>
     <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A100" s="54" t="s">
+      <c r="A100" s="53" t="s">
         <v>232</v>
       </c>
       <c r="B100" s="32">
         <v>1178.94</v>
       </c>
       <c r="C100" s="17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>235788</v>
+        <v>117894</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>268</v>
@@ -11932,7 +11938,7 @@
       <c r="DD100" s="29"/>
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A101" s="54" t="s">
+      <c r="A101" s="53" t="s">
         <v>264</v>
       </c>
       <c r="B101" s="32">
@@ -11995,17 +12001,19 @@
       <c r="AZ101" s="29"/>
       <c r="BA101" s="29"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A102" s="54" t="s">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A102" s="53" t="s">
         <v>284</v>
       </c>
       <c r="B102" s="32">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>60</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>0</v>
+        <v>71329.2</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>268</v>
@@ -12115,7 +12123,7 @@
       <c r="DD102" s="29"/>
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A103" s="55" t="s">
+      <c r="A103" s="54" t="s">
         <v>188</v>
       </c>
       <c r="B103" s="32">
@@ -12177,7 +12185,7 @@
       <c r="BA103" s="29"/>
     </row>
     <row r="104" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A104" s="55" t="s">
+      <c r="A104" s="54" t="s">
         <v>129</v>
       </c>
       <c r="B104" s="32">
@@ -12308,7 +12316,7 @@
       <c r="DP104" s="15"/>
     </row>
     <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A105" s="55" t="s">
+      <c r="A105" s="54" t="s">
         <v>200</v>
       </c>
       <c r="B105" s="32">
@@ -12439,7 +12447,7 @@
       <c r="DP105" s="15"/>
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A106" s="55" t="s">
+      <c r="A106" s="54" t="s">
         <v>161</v>
       </c>
       <c r="B106" s="32">
@@ -12568,7 +12576,7 @@
       <c r="DP106" s="15"/>
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A107" s="55" t="s">
+      <c r="A107" s="54" t="s">
         <v>178</v>
       </c>
       <c r="B107" s="32">
@@ -12697,7 +12705,7 @@
       <c r="DP107" s="15"/>
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A108" s="55" t="s">
+      <c r="A108" s="54" t="s">
         <v>186</v>
       </c>
       <c r="B108" s="32">
@@ -12828,7 +12836,7 @@
       <c r="DP108" s="15"/>
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A109" s="55" t="s">
+      <c r="A109" s="54" t="s">
         <v>166</v>
       </c>
       <c r="B109" s="32">
@@ -12957,7 +12965,7 @@
       <c r="DP109" s="15"/>
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A110" s="55" t="s">
+      <c r="A110" s="54" t="s">
         <v>267</v>
       </c>
       <c r="B110" s="32">
@@ -13028,7 +13036,7 @@
       <c r="DD110" s="14"/>
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A111" s="54" t="s">
+      <c r="A111" s="53" t="s">
         <v>144</v>
       </c>
       <c r="B111" s="32">
@@ -13097,7 +13105,7 @@
       <c r="DD111" s="14"/>
     </row>
     <row r="112" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A112" s="54" t="s">
+      <c r="A112" s="53" t="s">
         <v>120</v>
       </c>
       <c r="B112" s="32">
@@ -13166,7 +13174,7 @@
       <c r="DD112" s="14"/>
     </row>
     <row r="113" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A113" s="54" t="s">
+      <c r="A113" s="53" t="s">
         <v>130</v>
       </c>
       <c r="B113" s="32">
@@ -13295,7 +13303,7 @@
       <c r="DP113" s="15"/>
     </row>
     <row r="114" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A114" s="54" t="s">
+      <c r="A114" s="53" t="s">
         <v>140</v>
       </c>
       <c r="B114" s="32">
@@ -13424,7 +13432,7 @@
       <c r="DP114" s="15"/>
     </row>
     <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A115" s="54" t="s">
+      <c r="A115" s="53" t="s">
         <v>203</v>
       </c>
       <c r="B115" s="32">
@@ -13555,7 +13563,7 @@
       <c r="DP115" s="15"/>
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A116" s="54" t="s">
+      <c r="A116" s="53" t="s">
         <v>121</v>
       </c>
       <c r="B116" s="32">
@@ -13684,7 +13692,7 @@
       <c r="DP116" s="15"/>
     </row>
     <row r="117" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A117" s="54" t="s">
+      <c r="A117" s="53" t="s">
         <v>92</v>
       </c>
       <c r="B117" s="32">
@@ -13815,7 +13823,7 @@
       <c r="DP117" s="15"/>
     </row>
     <row r="118" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A118" s="54" t="s">
+      <c r="A118" s="53" t="s">
         <v>94</v>
       </c>
       <c r="B118" s="32">
@@ -13944,7 +13952,7 @@
       <c r="DP118" s="15"/>
     </row>
     <row r="119" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A119" s="54" t="s">
+      <c r="A119" s="53" t="s">
         <v>93</v>
       </c>
       <c r="B119" s="32">
@@ -14073,7 +14081,7 @@
       <c r="DP119" s="15"/>
     </row>
     <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A120" s="54" t="s">
+      <c r="A120" s="53" t="s">
         <v>236</v>
       </c>
       <c r="B120" s="32">
@@ -14204,7 +14212,7 @@
       <c r="DP120" s="15"/>
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A121" s="54" t="s">
+      <c r="A121" s="53" t="s">
         <v>228</v>
       </c>
       <c r="B121" s="32">
@@ -14333,7 +14341,7 @@
       <c r="DP121" s="15"/>
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A122" s="55" t="s">
+      <c r="A122" s="54" t="s">
         <v>74</v>
       </c>
       <c r="B122" s="32">
@@ -14462,7 +14470,7 @@
       <c r="DP122" s="15"/>
     </row>
     <row r="123" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A123" s="55" t="s">
+      <c r="A123" s="54" t="s">
         <v>141</v>
       </c>
       <c r="B123" s="32">
@@ -14531,7 +14539,7 @@
       <c r="DD123" s="14"/>
     </row>
     <row r="124" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A124" s="55" t="s">
+      <c r="A124" s="54" t="s">
         <v>75</v>
       </c>
       <c r="B124" s="32">
@@ -14660,7 +14668,7 @@
       <c r="DP124" s="15"/>
     </row>
     <row r="125" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A125" s="55" t="s">
+      <c r="A125" s="54" t="s">
         <v>133</v>
       </c>
       <c r="B125" s="32">
@@ -14789,7 +14797,7 @@
       <c r="DP125" s="15"/>
     </row>
     <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A126" s="54" t="s">
+      <c r="A126" s="53" t="s">
         <v>185</v>
       </c>
       <c r="B126" s="32">
@@ -14920,7 +14928,7 @@
       <c r="DP126" s="15"/>
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A127" s="54" t="s">
+      <c r="A127" s="53" t="s">
         <v>190</v>
       </c>
       <c r="B127" s="32">
@@ -15051,7 +15059,7 @@
       <c r="DP127" s="15"/>
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A128" s="54" t="s">
+      <c r="A128" s="53" t="s">
         <v>257</v>
       </c>
       <c r="B128" s="32">
@@ -15180,7 +15188,7 @@
       <c r="DP128" s="15"/>
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A129" s="54" t="s">
+      <c r="A129" s="53" t="s">
         <v>118</v>
       </c>
       <c r="B129" s="32">
@@ -15309,7 +15317,7 @@
       <c r="DP129" s="15"/>
     </row>
     <row r="130" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A130" s="54" t="s">
+      <c r="A130" s="53" t="s">
         <v>138</v>
       </c>
       <c r="B130" s="32">
@@ -15437,19 +15445,17 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" customHeight="1">
-      <c r="A131" s="54" t="s">
+    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A131" s="53" t="s">
         <v>276</v>
       </c>
       <c r="B131" s="32">
         <v>1208.01</v>
       </c>
-      <c r="C131" s="17">
-        <v>100</v>
-      </c>
+      <c r="C131" s="17"/>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>120801</v>
+        <v>0</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>268</v>
@@ -15571,7 +15577,7 @@
       <c r="DP131" s="15"/>
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A132" s="54" t="s">
+      <c r="A132" s="53" t="s">
         <v>241</v>
       </c>
       <c r="B132" s="32">
@@ -15702,7 +15708,7 @@
       <c r="DP132" s="15"/>
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A133" s="54" t="s">
+      <c r="A133" s="53" t="s">
         <v>240</v>
       </c>
       <c r="B133" s="32">
@@ -15833,7 +15839,7 @@
       <c r="DP133" s="15"/>
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A134" s="54" t="s">
+      <c r="A134" s="53" t="s">
         <v>197</v>
       </c>
       <c r="B134" s="32">
@@ -15964,7 +15970,7 @@
       <c r="DP134" s="15"/>
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A135" s="54" t="s">
+      <c r="A135" s="53" t="s">
         <v>145</v>
       </c>
       <c r="B135" s="32">
@@ -16092,7 +16098,7 @@
       <c r="DP135" s="15"/>
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A136" s="54" t="s">
+      <c r="A136" s="53" t="s">
         <v>172</v>
       </c>
       <c r="B136" s="32">
@@ -16221,7 +16227,7 @@
       <c r="DP136" s="15"/>
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A137" s="54" t="s">
+      <c r="A137" s="53" t="s">
         <v>162</v>
       </c>
       <c r="B137" s="32">
@@ -16350,7 +16356,7 @@
       <c r="DP137" s="15"/>
     </row>
     <row r="138" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A138" s="55" t="s">
+      <c r="A138" s="54" t="s">
         <v>216</v>
       </c>
       <c r="B138" s="32">
@@ -16414,7 +16420,7 @@
       <c r="BA138" s="29"/>
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A139" s="54" t="s">
+      <c r="A139" s="53" t="s">
         <v>196</v>
       </c>
       <c r="B139" s="32">
@@ -16476,7 +16482,7 @@
       <c r="BA139" s="29"/>
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A140" s="54" t="s">
+      <c r="A140" s="53" t="s">
         <v>180</v>
       </c>
       <c r="B140" s="32">
@@ -16538,7 +16544,7 @@
       <c r="BA140" s="29"/>
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A141" s="54" t="s">
+      <c r="A141" s="53" t="s">
         <v>175</v>
       </c>
       <c r="B141" s="32">
@@ -16600,7 +16606,7 @@
       <c r="BA141" s="29"/>
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A142" s="54" t="s">
+      <c r="A142" s="53" t="s">
         <v>183</v>
       </c>
       <c r="B142" s="32">
@@ -16662,7 +16668,7 @@
       <c r="BA142" s="29"/>
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A143" s="55" t="s">
+      <c r="A143" s="54" t="s">
         <v>122</v>
       </c>
       <c r="B143" s="32">
@@ -16726,7 +16732,7 @@
       <c r="BA143" s="29"/>
     </row>
     <row r="144" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A144" s="55" t="s">
+      <c r="A144" s="54" t="s">
         <v>168</v>
       </c>
       <c r="B144" s="32">
@@ -16788,7 +16794,7 @@
       <c r="BA144" s="29"/>
     </row>
     <row r="145" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A145" s="54" t="s">
+      <c r="A145" s="53" t="s">
         <v>220</v>
       </c>
       <c r="B145" s="35">
@@ -16919,7 +16925,7 @@
       <c r="DP145" s="15"/>
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A146" s="55" t="s">
+      <c r="A146" s="54" t="s">
         <v>189</v>
       </c>
       <c r="B146" s="32">
@@ -17050,7 +17056,7 @@
       <c r="DP146" s="15"/>
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A147" s="55" t="s">
+      <c r="A147" s="54" t="s">
         <v>152</v>
       </c>
       <c r="B147" s="32">
@@ -17179,7 +17185,7 @@
       <c r="DP147" s="15"/>
     </row>
     <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A148" s="55" t="s">
+      <c r="A148" s="54" t="s">
         <v>128</v>
       </c>
       <c r="B148" s="32">
@@ -17310,7 +17316,7 @@
       <c r="DP148" s="15"/>
     </row>
     <row r="149" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A149" s="55" t="s">
+      <c r="A149" s="54" t="s">
         <v>163</v>
       </c>
       <c r="B149" s="35">
@@ -17439,7 +17445,7 @@
       <c r="DP149" s="15"/>
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A150" s="55" t="s">
+      <c r="A150" s="54" t="s">
         <v>187</v>
       </c>
       <c r="B150" s="35">
@@ -17570,7 +17576,7 @@
       <c r="DP150" s="15"/>
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A151" s="55" t="s">
+      <c r="A151" s="54" t="s">
         <v>142</v>
       </c>
       <c r="B151" s="35">
@@ -17701,7 +17707,7 @@
       <c r="DP151" s="15"/>
     </row>
     <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A152" s="55" t="s">
+      <c r="A152" s="54" t="s">
         <v>164</v>
       </c>
       <c r="B152" s="32">
@@ -17830,7 +17836,7 @@
       <c r="DP152" s="15"/>
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A153" s="55" t="s">
+      <c r="A153" s="54" t="s">
         <v>195</v>
       </c>
       <c r="B153" s="32">
@@ -17959,7 +17965,7 @@
       <c r="DP153" s="15"/>
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A154" s="55" t="s">
+      <c r="A154" s="54" t="s">
         <v>179</v>
       </c>
       <c r="B154" s="32">
@@ -18090,7 +18096,7 @@
       <c r="DP154" s="15"/>
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A155" s="55" t="s">
+      <c r="A155" s="54" t="s">
         <v>230</v>
       </c>
       <c r="B155" s="32">
@@ -18221,7 +18227,7 @@
       <c r="DP155" s="15"/>
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A156" s="54" t="s">
+      <c r="A156" s="53" t="s">
         <v>263</v>
       </c>
       <c r="B156" s="32">
@@ -18292,7 +18298,7 @@
       <c r="DD156" s="14"/>
     </row>
     <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A157" s="54" t="s">
+      <c r="A157" s="53" t="s">
         <v>132</v>
       </c>
       <c r="B157" s="32">
@@ -18354,7 +18360,7 @@
       <c r="BA157" s="29"/>
     </row>
     <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A158" s="54" t="s">
+      <c r="A158" s="53" t="s">
         <v>246</v>
       </c>
       <c r="B158" s="32">
@@ -18418,7 +18424,7 @@
       <c r="BA158" s="29"/>
     </row>
     <row r="159" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A159" s="54" t="s">
+      <c r="A159" s="53" t="s">
         <v>205</v>
       </c>
       <c r="B159" s="32">
@@ -18547,7 +18553,7 @@
       <c r="DP159" s="15"/>
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A160" s="54" t="s">
+      <c r="A160" s="53" t="s">
         <v>265</v>
       </c>
       <c r="B160" s="32">
@@ -18678,7 +18684,7 @@
       <c r="DP160" s="15"/>
     </row>
     <row r="161" spans="1:120" ht="15" customHeight="1">
-      <c r="A161" s="54" t="s">
+      <c r="A161" s="53" t="s">
         <v>285</v>
       </c>
       <c r="B161" s="32">
@@ -18691,8 +18697,8 @@
         <f t="shared" si="4"/>
         <v>144844</v>
       </c>
-      <c r="E161" s="18" t="s">
-        <v>288</v>
+      <c r="E161" s="59" t="s">
+        <v>302</v>
       </c>
       <c r="F161" s="30"/>
       <c r="G161" s="30"/>
@@ -18811,8 +18817,8 @@
       <c r="DP161" s="15"/>
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A162" s="54" t="s">
-        <v>289</v>
+      <c r="A162" s="53" t="s">
+        <v>288</v>
       </c>
       <c r="B162" s="32">
         <v>8101.24</v>
@@ -18940,8 +18946,8 @@
       <c r="DP162" s="15"/>
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A163" s="54" t="s">
-        <v>290</v>
+      <c r="A163" s="53" t="s">
+        <v>289</v>
       </c>
       <c r="B163" s="32">
         <v>7501.24</v>
@@ -19069,8 +19075,8 @@
       <c r="DP163" s="15"/>
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A164" s="54" t="s">
-        <v>291</v>
+      <c r="A164" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="B164" s="32">
         <v>7778.48</v>
@@ -19081,7 +19087,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F164" s="30"/>
       <c r="G164" s="30"/>
@@ -19199,22 +19205,20 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1">
-      <c r="A165" s="54" t="s">
-        <v>292</v>
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A165" s="53" t="s">
+        <v>291</v>
       </c>
       <c r="B165" s="32">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17">
-        <v>15</v>
-      </c>
+      <c r="C165" s="17"/>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>135998.1</v>
-      </c>
-      <c r="E165" s="50" t="s">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="E165" s="49" t="s">
+        <v>299</v>
       </c>
       <c r="F165" s="30"/>
       <c r="G165" s="30"/>
@@ -19333,21 +19337,21 @@
       <c r="DP165" s="15"/>
     </row>
     <row r="166" spans="1:120" ht="15" customHeight="1">
-      <c r="A166" s="54" t="s">
+      <c r="A166" s="53" t="s">
         <v>278</v>
       </c>
       <c r="B166" s="32">
         <v>9873.4500000000007</v>
       </c>
       <c r="C166" s="17">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>197469</v>
-      </c>
-      <c r="E166" s="50" t="s">
-        <v>300</v>
+        <v>49367.25</v>
+      </c>
+      <c r="E166" s="59" t="s">
+        <v>299</v>
       </c>
       <c r="F166" s="30"/>
       <c r="G166" s="30"/>
@@ -19465,17 +19469,19 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A167" s="54" t="s">
-        <v>293</v>
+    <row r="167" spans="1:120" ht="15" customHeight="1">
+      <c r="A167" s="53" t="s">
+        <v>292</v>
       </c>
       <c r="B167" s="32">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17">
+        <v>40</v>
+      </c>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>311139.19999999995</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>268</v>
@@ -19597,18 +19603,18 @@
       <c r="DP167" s="15"/>
     </row>
     <row r="168" spans="1:120" ht="15" customHeight="1">
-      <c r="A168" s="54" t="s">
-        <v>301</v>
+      <c r="A168" s="53" t="s">
+        <v>300</v>
       </c>
       <c r="B168" s="32">
         <v>9056.51</v>
       </c>
       <c r="C168" s="17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>90565.1</v>
+        <v>45282.55</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>268</v>
@@ -19730,18 +19736,18 @@
       <c r="DP168" s="15"/>
     </row>
     <row r="169" spans="1:120" ht="15" customHeight="1">
-      <c r="A169" s="54" t="s">
-        <v>302</v>
+      <c r="A169" s="53" t="s">
+        <v>301</v>
       </c>
       <c r="B169" s="32">
         <v>9056.51</v>
       </c>
       <c r="C169" s="17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>90565.1</v>
+        <v>45282.55</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>268</v>
@@ -19863,21 +19869,21 @@
       <c r="DP169" s="15"/>
     </row>
     <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A170" s="54" t="s">
-        <v>294</v>
+      <c r="A170" s="53" t="s">
+        <v>293</v>
       </c>
       <c r="B170" s="32">
         <v>9056.51</v>
       </c>
       <c r="C170" s="17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>90565.1</v>
-      </c>
-      <c r="E170" s="42" t="s">
-        <v>296</v>
+        <v>45282.55</v>
+      </c>
+      <c r="E170" s="59" t="s">
+        <v>295</v>
       </c>
       <c r="F170" s="30"/>
       <c r="G170" s="30"/>
@@ -19996,8 +20002,8 @@
       <c r="DP170" s="15"/>
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
-      <c r="A171" s="54" t="s">
-        <v>295</v>
+      <c r="A171" s="53" t="s">
+        <v>294</v>
       </c>
       <c r="B171" s="32">
         <v>10133.07</v>
@@ -20131,15 +20137,15 @@
         <v>83</v>
       </c>
       <c r="B172" s="69"/>
-      <c r="C172" s="44">
-        <f>SUBTOTAL(9,C21:C171)</f>
-        <v>1145</v>
-      </c>
-      <c r="D172" s="51">
-        <f>SUBTOTAL(9,D21:D171)</f>
-        <v>1990924.0000000005</v>
-      </c>
-      <c r="E172" s="45"/>
+      <c r="C172" s="43">
+        <f>SUBTOTAL(9,C6:C171)</f>
+        <v>1000</v>
+      </c>
+      <c r="D172" s="50">
+        <f>SUBTOTAL(9,D6:D171)</f>
+        <v>1936117.8</v>
+      </c>
+      <c r="E172" s="44"/>
       <c r="F172" s="30"/>
       <c r="G172" s="30"/>
       <c r="H172" s="30"/>
@@ -20257,7 +20263,7 @@
       <c r="DP172" s="15"/>
     </row>
     <row r="173" spans="1:120" ht="15" customHeight="1">
-      <c r="A173" s="56"/>
+      <c r="A173" s="55"/>
       <c r="B173" s="33"/>
       <c r="C173" s="20"/>
       <c r="D173" s="21"/>
@@ -20394,13 +20400,13 @@
     </row>
     <row r="176" spans="1:120" ht="9" customHeight="1" thickBot="1"/>
     <row r="177" spans="2:5">
-      <c r="B177" s="57" t="s">
+      <c r="B177" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C177" s="58" t="s">
+      <c r="C177" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D177" s="59" t="s">
+      <c r="D177" s="58" t="s">
         <v>135</v>
       </c>
       <c r="E177" s="22"/>
@@ -20409,7 +20415,9 @@
       <c r="B178" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="C178" s="23"/>
+      <c r="C178" s="23">
+        <v>2500000</v>
+      </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
         <v>135</v>
@@ -20437,7 +20445,7 @@
       </c>
       <c r="C181" s="37">
         <f>SUM(C178:C180)</f>
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="D181" s="38"/>
       <c r="E181" s="27"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1972,7 +1972,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="E2" s="42">
         <f ca="1">TODAY()</f>
-        <v>44395</v>
+        <v>44396</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2109,11 +2109,11 @@
         <v>7056.76</v>
       </c>
       <c r="C6" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>282270.40000000002</v>
+        <v>423405.60000000003</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>268</v>
@@ -3007,12 +3007,10 @@
       <c r="B18" s="32">
         <v>1032.575</v>
       </c>
-      <c r="C18" s="17">
-        <v>100</v>
-      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>103257.5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>268</v>
@@ -3110,12 +3108,10 @@
       <c r="B21" s="32">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17">
-        <v>200</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>224160</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>268</v>
@@ -3639,12 +3635,10 @@
       <c r="B26" s="32">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>60</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>67849.2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>268</v>
@@ -4932,12 +4926,10 @@
       <c r="B37" s="32">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>60</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>70728</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>268</v>
@@ -5065,12 +5057,10 @@
       <c r="B38" s="32">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17">
-        <v>100</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>112008</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>268</v>
@@ -6296,12 +6286,10 @@
       <c r="B48" s="32">
         <v>1101.75</v>
       </c>
-      <c r="C48" s="17">
-        <v>60</v>
-      </c>
+      <c r="C48" s="17"/>
       <c r="D48" s="18">
         <f t="shared" si="1"/>
-        <v>66105</v>
+        <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>268</v>
@@ -10183,12 +10171,10 @@
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>60</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>74817.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>268</v>
@@ -10253,12 +10239,10 @@
       <c r="B86" s="32">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17">
-        <v>80</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>104500.8</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>268</v>
@@ -11823,12 +11807,10 @@
       <c r="B100" s="32">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17">
-        <v>100</v>
-      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>117894</v>
+        <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>268</v>
@@ -12008,12 +11990,10 @@
       <c r="B102" s="32">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17">
-        <v>60</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>71329.2</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>268</v>
@@ -18690,12 +18670,10 @@
       <c r="B161" s="32">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17">
-        <v>20</v>
-      </c>
+      <c r="C161" s="17"/>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>144844</v>
+        <v>0</v>
       </c>
       <c r="E161" s="59" t="s">
         <v>302</v>
@@ -19343,12 +19321,10 @@
       <c r="B166" s="32">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17">
-        <v>5</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>49367.25</v>
+        <v>0</v>
       </c>
       <c r="E166" s="59" t="s">
         <v>299</v>
@@ -19476,12 +19452,10 @@
       <c r="B167" s="32">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17">
-        <v>40</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>311139.19999999995</v>
+        <v>0</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>268</v>
@@ -19609,12 +19583,10 @@
       <c r="B168" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17">
-        <v>5</v>
-      </c>
+      <c r="C168" s="17"/>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>268</v>
@@ -19742,12 +19714,10 @@
       <c r="B169" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C169" s="17">
-        <v>5</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>268</v>
@@ -19875,12 +19845,10 @@
       <c r="B170" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>5</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E170" s="59" t="s">
         <v>295</v>
@@ -20139,11 +20107,11 @@
       <c r="B172" s="69"/>
       <c r="C172" s="43">
         <f>SUBTOTAL(9,C6:C171)</f>
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="D172" s="50">
         <f>SUBTOTAL(9,D6:D171)</f>
-        <v>1936117.8</v>
+        <v>423405.60000000003</v>
       </c>
       <c r="E172" s="44"/>
       <c r="F172" s="30"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="302">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -496,9 +496,6 @@
     <t>B22</t>
   </si>
   <si>
-    <t>BL110</t>
-  </si>
-  <si>
     <t>D52j</t>
   </si>
   <si>
@@ -622,9 +619,6 @@
     <t>i95</t>
   </si>
   <si>
-    <t>D52+</t>
-  </si>
-  <si>
     <t>L55i</t>
   </si>
   <si>
@@ -910,9 +904,6 @@
     <t>Z50</t>
   </si>
   <si>
-    <t>Dazzling Blue Must be</t>
-  </si>
-  <si>
     <t>ATOM2</t>
   </si>
   <si>
@@ -932,6 +923,12 @@
   </si>
   <si>
     <t>Only Blue</t>
+  </si>
+  <si>
+    <t>B69</t>
+  </si>
+  <si>
+    <t>D48</t>
   </si>
 </sst>
 </file>
@@ -1972,7 +1969,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
+      <selection pane="bottomRight" activeCell="K175" sqref="K175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2001,7 +1998,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="51" t="s">
@@ -2009,7 +2006,7 @@
       </c>
       <c r="E2" s="42">
         <f ca="1">TODAY()</f>
-        <v>44396</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2032,7 +2029,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="53" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B5" s="32">
         <v>7244.21</v>
@@ -2043,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2103,20 +2100,20 @@
     </row>
     <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="53" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B6" s="32">
         <v>7056.76</v>
       </c>
       <c r="C6" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>423405.60000000003</v>
+        <v>141135.20000000001</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2172,7 +2169,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="53" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B7" s="32">
         <v>892.23</v>
@@ -2183,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2243,7 +2240,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="32">
         <v>789.97</v>
@@ -2639,7 +2636,7 @@
     </row>
     <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="32">
         <v>769.92</v>
@@ -2650,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2710,7 +2707,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B13" s="32">
         <v>1032.575</v>
@@ -2721,12 +2718,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="53" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B14" s="32">
         <v>721.8</v>
@@ -2795,7 +2792,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B15" s="32">
         <v>779.95</v>
@@ -2864,7 +2861,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="53" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B16" s="32">
         <v>770.92</v>
@@ -2933,7 +2930,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B17" s="32">
         <v>779.96</v>
@@ -3002,23 +2999,25 @@
     </row>
     <row r="18" spans="1:120" ht="15" customHeight="1">
       <c r="A18" s="53" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B18" s="32">
         <v>1032.575</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="17">
+        <v>100</v>
+      </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103257.5</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B19" s="32">
         <v>1042.5999999999999</v>
@@ -3029,15 +3028,15 @@
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="53" t="s">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="B20" s="32">
-        <v>824.06</v>
+        <v>994.36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="18">
@@ -3103,18 +3102,20 @@
     </row>
     <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B21" s="32">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>200</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>224160</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3181,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3499,7 +3500,7 @@
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B25" s="32">
         <v>901.24800000000005</v>
@@ -3510,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
@@ -3630,18 +3631,20 @@
     </row>
     <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="53" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B26" s="32">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>100</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>113082</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
@@ -3761,7 +3764,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B27" s="32">
         <v>824.06</v>
@@ -3890,7 +3893,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B28" s="32">
         <v>798.99</v>
@@ -4277,7 +4280,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B31" s="32">
         <v>858.14</v>
@@ -4288,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
@@ -4537,7 +4540,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B33" s="32">
         <v>878.19</v>
@@ -4661,7 +4664,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" s="32">
         <v>955.38</v>
@@ -4790,7 +4793,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B36" s="32">
         <v>1014.53</v>
@@ -4801,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
@@ -4919,9 +4922,9 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="53" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B37" s="32">
         <v>1178.8</v>
@@ -4932,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
@@ -5050,9 +5053,9 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="53" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B38" s="32">
         <v>1120.08</v>
@@ -5063,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
@@ -5183,10 +5186,10 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="53" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B39" s="32">
-        <v>891</v>
+        <v>1217.8900000000001</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="18">
@@ -5194,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
@@ -5443,7 +5446,7 @@
     </row>
     <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B41" s="32">
         <v>1264.78</v>
@@ -5572,7 +5575,7 @@
     </row>
     <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B42" s="32">
         <v>1422.38</v>
@@ -5583,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
@@ -5832,7 +5835,7 @@
     </row>
     <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" s="32">
         <v>1244.723</v>
@@ -5961,7 +5964,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B45" s="32">
         <v>1238.0899999999999</v>
@@ -6090,7 +6093,7 @@
     </row>
     <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B46" s="32">
         <v>800</v>
@@ -6219,7 +6222,7 @@
     </row>
     <row r="47" spans="1:120" s="39" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B47" s="32">
         <v>848.12</v>
@@ -6279,9 +6282,9 @@
       <c r="AZ47" s="48"/>
       <c r="BA47" s="48"/>
     </row>
-    <row r="48" spans="1:120" ht="15" customHeight="1">
+    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="53" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B48" s="32">
         <v>1101.75</v>
@@ -6292,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
@@ -6423,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
@@ -6543,7 +6546,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="54" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B50" s="32">
         <v>1066.6600000000001</v>
@@ -6554,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="30"/>
@@ -6674,7 +6677,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B51" s="32">
         <v>1014.53</v>
@@ -6685,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
@@ -6805,7 +6808,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B52" s="32">
         <v>1264.153</v>
@@ -6934,7 +6937,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="54" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B53" s="32">
         <v>2702.42</v>
@@ -6945,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F53" s="30"/>
       <c r="G53" s="30"/>
@@ -7065,7 +7068,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B54" s="32">
         <v>3947.38</v>
@@ -7076,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
@@ -7196,7 +7199,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B55" s="32">
         <v>13914.7</v>
@@ -7325,7 +7328,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B56" s="32">
         <v>20340.84</v>
@@ -7594,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="30"/>
@@ -7714,7 +7717,7 @@
     </row>
     <row r="59" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B59" s="32">
         <v>6900.2079999999996</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B62" s="32">
         <v>4044.61</v>
@@ -8112,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F62" s="30"/>
       <c r="G62" s="30"/>
@@ -8232,7 +8235,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B63" s="32">
         <v>8088.17</v>
@@ -8361,7 +8364,7 @@
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B64" s="32">
         <v>5158.25</v>
@@ -8490,7 +8493,7 @@
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B65" s="32">
         <v>4885.6000000000004</v>
@@ -8619,7 +8622,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B66" s="32">
         <v>5247.46</v>
@@ -8630,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="BB66" s="14"/>
       <c r="BC66" s="14"/>
@@ -8759,7 +8762,7 @@
     </row>
     <row r="68" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B68" s="32">
         <v>5607.32</v>
@@ -8821,7 +8824,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="53" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B69" s="32">
         <v>4866.5600000000004</v>
@@ -8883,7 +8886,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="53" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B70" s="32">
         <v>5603.31</v>
@@ -8894,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
@@ -8947,7 +8950,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B71" s="32">
         <v>5411.86</v>
@@ -8958,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
@@ -9011,7 +9014,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="53" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B72" s="32">
         <v>5412.5</v>
@@ -9073,7 +9076,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A73" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B73" s="32">
         <v>5792.76</v>
@@ -9084,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
@@ -9137,7 +9140,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B74" s="32">
         <v>5793.45</v>
@@ -9148,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
@@ -9325,7 +9328,7 @@
     </row>
     <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B77" s="32">
         <v>5382.7857000000004</v>
@@ -9387,7 +9390,7 @@
     </row>
     <row r="78" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="53" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B78" s="32">
         <v>6306.98</v>
@@ -9398,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F78" s="30"/>
       <c r="G78" s="30"/>
@@ -9518,7 +9521,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="53" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B79" s="32">
         <v>5708.6</v>
@@ -9529,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="30"/>
@@ -9649,7 +9652,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="53" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B80" s="32">
         <v>6405.21</v>
@@ -9660,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="30"/>
@@ -9791,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F81" s="30"/>
       <c r="G81" s="30"/>
@@ -9911,7 +9914,7 @@
     </row>
     <row r="82" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B82" s="32">
         <v>1199.99</v>
@@ -10102,7 +10105,7 @@
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B84" s="32">
         <v>1062.6500000000001</v>
@@ -10113,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
@@ -10166,18 +10169,20 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="54" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>40</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49878.400000000001</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
@@ -10234,18 +10239,20 @@
     </row>
     <row r="86" spans="1:120" ht="15" customHeight="1">
       <c r="A86" s="54" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B86" s="32">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>40</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52250.400000000001</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F86" s="30"/>
       <c r="G86" s="30"/>
@@ -10514,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F89" s="30"/>
       <c r="G89" s="30"/>
@@ -10645,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
@@ -10765,7 +10772,7 @@
     </row>
     <row r="91" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B91" s="32">
         <v>1072.68</v>
@@ -11023,7 +11030,7 @@
     </row>
     <row r="93" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B93" s="32">
         <v>1551.87</v>
@@ -11152,7 +11159,7 @@
     </row>
     <row r="94" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A94" s="54" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B94" s="32">
         <v>1306.26</v>
@@ -11163,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
@@ -11216,7 +11223,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B95" s="32">
         <v>1004.39</v>
@@ -11227,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -11278,20 +11285,22 @@
       <c r="AZ95" s="29"/>
       <c r="BA95" s="29"/>
     </row>
-    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:120" ht="15" customHeight="1">
       <c r="A96" s="54" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B96" s="32">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17"/>
+      <c r="C96" s="17">
+        <v>40</v>
+      </c>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>54578</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F96" s="30"/>
       <c r="G96" s="30"/>
@@ -11409,20 +11418,22 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="54" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B97" s="32">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>60</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>84199.799999999988</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
@@ -11671,7 +11682,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B99" s="32">
         <v>985.46</v>
@@ -11682,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F99" s="30"/>
       <c r="G99" s="30"/>
@@ -11800,9 +11811,9 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B100" s="32">
         <v>1178.94</v>
@@ -11813,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
@@ -11921,7 +11932,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="53" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B101" s="32">
         <v>1062.6500000000001</v>
@@ -11932,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
@@ -11985,18 +11996,20 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="53" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B102" s="32">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>80</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>0</v>
+        <v>95105.599999999991</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
@@ -12104,7 +12117,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B103" s="32">
         <v>945.36</v>
@@ -12177,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F104" s="30"/>
       <c r="G104" s="30"/>
@@ -12297,7 +12310,7 @@
     </row>
     <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="54" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B105" s="32">
         <v>1024.5550000000001</v>
@@ -12308,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" s="30"/>
       <c r="G105" s="30"/>
@@ -12428,7 +12441,7 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B106" s="32">
         <v>1024.56</v>
@@ -12557,7 +12570,7 @@
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B107" s="32">
         <v>1101.75</v>
@@ -12686,7 +12699,7 @@
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B108" s="32">
         <v>1297.24</v>
@@ -12697,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" s="30"/>
       <c r="G108" s="30"/>
@@ -12817,7 +12830,7 @@
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B109" s="32">
         <v>1297.24</v>
@@ -12946,7 +12959,7 @@
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="54" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B110" s="32">
         <v>1150.8699999999999</v>
@@ -12957,7 +12970,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BB110" s="14"/>
       <c r="BC110" s="14"/>
@@ -13413,7 +13426,7 @@
     </row>
     <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B115" s="32">
         <v>5607.32</v>
@@ -13424,7 +13437,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F115" s="30"/>
       <c r="G115" s="30"/>
@@ -13684,7 +13697,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F117" s="30"/>
       <c r="G117" s="30"/>
@@ -14062,7 +14075,7 @@
     </row>
     <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="53" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B120" s="32">
         <v>1159.8900000000001</v>
@@ -14073,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F120" s="30"/>
       <c r="G120" s="30"/>
@@ -14193,7 +14206,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="53" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B121" s="32">
         <v>1072.675</v>
@@ -14778,7 +14791,7 @@
     </row>
     <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B126" s="32">
         <v>1219.04</v>
@@ -14789,7 +14802,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" s="30"/>
       <c r="G126" s="30"/>
@@ -14909,7 +14922,7 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B127" s="32">
         <v>1336.33</v>
@@ -14920,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F127" s="30"/>
       <c r="G127" s="30"/>
@@ -15040,7 +15053,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="53" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B128" s="32">
         <v>1188.97</v>
@@ -15427,7 +15440,7 @@
     </row>
     <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="53" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B131" s="32">
         <v>1208.01</v>
@@ -15438,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F131" s="30"/>
       <c r="G131" s="30"/>
@@ -15558,7 +15571,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="53" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B132" s="32">
         <v>3520.36</v>
@@ -15569,7 +15582,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F132" s="30"/>
       <c r="G132" s="30"/>
@@ -15689,7 +15702,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="53" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B133" s="32">
         <v>3793.1</v>
@@ -15700,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F133" s="30"/>
       <c r="G133" s="30"/>
@@ -15820,7 +15833,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B134" s="32">
         <v>4174.41</v>
@@ -15831,7 +15844,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F134" s="30"/>
       <c r="G134" s="30"/>
@@ -16079,7 +16092,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B136" s="32">
         <v>5510.74</v>
@@ -16208,7 +16221,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B137" s="32">
         <v>4896.21</v>
@@ -16337,7 +16350,7 @@
     </row>
     <row r="138" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B138" s="32">
         <v>4076.68</v>
@@ -16348,7 +16361,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F138" s="29"/>
       <c r="G138" s="29"/>
@@ -16401,7 +16414,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B139" s="32">
         <v>5150.8500000000004</v>
@@ -16463,7 +16476,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140" s="32">
         <v>4973.3999999999996</v>
@@ -16525,7 +16538,7 @@
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B141" s="32">
         <v>5423.53</v>
@@ -16587,7 +16600,7 @@
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B142" s="32">
         <v>5940.82</v>
@@ -16660,7 +16673,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F143" s="29"/>
       <c r="G143" s="29"/>
@@ -16713,7 +16726,7 @@
     </row>
     <row r="144" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B144" s="32">
         <v>3558.64</v>
@@ -16775,7 +16788,7 @@
     </row>
     <row r="145" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="53" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B145" s="35">
         <v>3257.12</v>
@@ -16786,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F145" s="30"/>
       <c r="G145" s="30"/>
@@ -16906,7 +16919,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B146" s="32">
         <v>4389.43</v>
@@ -16917,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F146" s="30"/>
       <c r="G146" s="30"/>
@@ -17177,7 +17190,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F148" s="30"/>
       <c r="G148" s="30"/>
@@ -17297,7 +17310,7 @@
     </row>
     <row r="149" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B149" s="35">
         <v>3934.81</v>
@@ -17426,7 +17439,7 @@
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B150" s="35">
         <v>4027.04</v>
@@ -17437,7 +17450,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F150" s="30"/>
       <c r="G150" s="30"/>
@@ -17568,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F151" s="30"/>
       <c r="G151" s="30"/>
@@ -17688,7 +17701,7 @@
     </row>
     <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B152" s="32">
         <v>4507.24</v>
@@ -17817,7 +17830,7 @@
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B153" s="32">
         <v>4409</v>
@@ -17946,7 +17959,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B154" s="32">
         <v>4165.3900000000003</v>
@@ -17957,7 +17970,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F154" s="30"/>
       <c r="G154" s="30"/>
@@ -18077,7 +18090,7 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B155" s="32">
         <v>3617.59</v>
@@ -18088,7 +18101,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F155" s="30"/>
       <c r="G155" s="30"/>
@@ -18208,7 +18221,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="53" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B156" s="32">
         <v>3548.43</v>
@@ -18219,7 +18232,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BB156" s="14"/>
       <c r="BC156" s="14"/>
@@ -18341,7 +18354,7 @@
     </row>
     <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B158" s="32">
         <v>7165.87</v>
@@ -18352,7 +18365,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F158" s="29"/>
       <c r="G158" s="29"/>
@@ -18405,7 +18418,7 @@
     </row>
     <row r="159" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A159" s="53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B159" s="32">
         <v>7691.27</v>
@@ -18534,7 +18547,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="53" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B160" s="32">
         <v>7093.04</v>
@@ -18545,7 +18558,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F160" s="30"/>
       <c r="G160" s="30"/>
@@ -18663,9 +18676,9 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" customHeight="1">
+    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="53" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B161" s="32">
         <v>7242.2</v>
@@ -18676,7 +18689,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="59" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F161" s="30"/>
       <c r="G161" s="30"/>
@@ -18796,7 +18809,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="53" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B162" s="32">
         <v>8101.24</v>
@@ -18925,7 +18938,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="53" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B163" s="32">
         <v>7501.24</v>
@@ -19054,7 +19067,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="53" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B164" s="32">
         <v>7778.48</v>
@@ -19065,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F164" s="30"/>
       <c r="G164" s="30"/>
@@ -19183,20 +19196,22 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1">
       <c r="A165" s="53" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B165" s="32">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="17">
+        <v>5</v>
+      </c>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>45332.700000000004</v>
       </c>
       <c r="E165" s="49" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F165" s="30"/>
       <c r="G165" s="30"/>
@@ -19314,9 +19329,9 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="53" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B166" s="32">
         <v>9873.4500000000007</v>
@@ -19327,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="59" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F166" s="30"/>
       <c r="G166" s="30"/>
@@ -19445,9 +19460,9 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="53" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B167" s="32">
         <v>7778.48</v>
@@ -19458,7 +19473,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F167" s="30"/>
       <c r="G167" s="30"/>
@@ -19576,9 +19591,9 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" customHeight="1">
+    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="53" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B168" s="32">
         <v>9056.51</v>
@@ -19589,7 +19604,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F168" s="30"/>
       <c r="G168" s="30"/>
@@ -19707,9 +19722,9 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="53" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B169" s="32">
         <v>9056.51</v>
@@ -19720,7 +19735,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F169" s="30"/>
       <c r="G169" s="30"/>
@@ -19840,18 +19855,20 @@
     </row>
     <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="53" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B170" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>5</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E170" s="59" t="s">
-        <v>295</v>
+        <v>45282.55</v>
+      </c>
+      <c r="E170" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="F170" s="30"/>
       <c r="G170" s="30"/>
@@ -19971,7 +19988,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A171" s="53" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B171" s="32">
         <v>10133.07</v>
@@ -19982,7 +19999,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F171" s="30"/>
       <c r="G171" s="30"/>
@@ -20107,11 +20124,11 @@
       <c r="B172" s="69"/>
       <c r="C172" s="43">
         <f>SUBTOTAL(9,C6:C171)</f>
-        <v>60</v>
+        <v>690</v>
       </c>
       <c r="D172" s="50">
         <f>SUBTOTAL(9,D6:D171)</f>
-        <v>423405.60000000003</v>
+        <v>1008262.15</v>
       </c>
       <c r="E172" s="44"/>
       <c r="F172" s="30"/>
@@ -20381,11 +20398,9 @@
     </row>
     <row r="178" spans="2:5" ht="15" customHeight="1">
       <c r="B178" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="C178" s="23">
-        <v>2500000</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C178" s="23"/>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
         <v>135</v>
@@ -20393,7 +20408,7 @@
     </row>
     <row r="179" spans="2:5">
       <c r="B179" s="34" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="25"/>
@@ -20401,7 +20416,7 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="24"/>
@@ -20413,7 +20428,7 @@
       </c>
       <c r="C181" s="37">
         <f>SUM(C178:C180)</f>
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="D181" s="38"/>
       <c r="E181" s="27"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -929,6 +929,9 @@
   </si>
   <si>
     <t>D48</t>
+  </si>
+  <si>
+    <t>Dazzling Blue</t>
   </si>
 </sst>
 </file>
@@ -1969,7 +1972,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K175" sqref="K175"/>
+      <selection pane="bottomRight" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2006,7 +2009,7 @@
       </c>
       <c r="E2" s="42">
         <f ca="1">TODAY()</f>
-        <v>44406</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2997,19 +3000,17 @@
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
     </row>
-    <row r="18" spans="1:120" ht="15" customHeight="1">
+    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="53" t="s">
         <v>280</v>
       </c>
       <c r="B18" s="32">
         <v>1032.575</v>
       </c>
-      <c r="C18" s="17">
-        <v>100</v>
-      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>103257.5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>266</v>
@@ -3100,19 +3101,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="53" t="s">
         <v>253</v>
       </c>
       <c r="B21" s="32">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17">
-        <v>200</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>224160</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>266</v>
@@ -3629,19 +3628,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="53" t="s">
         <v>270</v>
       </c>
       <c r="B26" s="32">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>100</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>113082</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>266</v>
@@ -4922,17 +4919,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>219</v>
       </c>
       <c r="B37" s="32">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>60</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70728</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>266</v>
@@ -5053,17 +5052,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="53" t="s">
         <v>254</v>
       </c>
       <c r="B38" s="32">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>60</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>0</v>
+        <v>67204.799999999988</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>266</v>
@@ -5573,17 +5574,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="53" t="s">
         <v>202</v>
       </c>
       <c r="B42" s="32">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>60</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85342.8</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>295</v>
@@ -6544,17 +6547,19 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="54" t="s">
         <v>272</v>
       </c>
       <c r="B50" s="32">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17">
+        <v>60</v>
+      </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>63999.600000000006</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>266</v>
@@ -10167,19 +10172,17 @@
       <c r="AZ84" s="29"/>
       <c r="BA84" s="29"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="54" t="s">
         <v>271</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>40</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>49878.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>266</v>
@@ -10245,11 +10248,11 @@
         <v>1306.26</v>
       </c>
       <c r="C86" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>52250.400000000001</v>
+        <v>78375.600000000006</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>266</v>
@@ -11293,11 +11296,11 @@
         <v>1364.45</v>
       </c>
       <c r="C96" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>54578</v>
+        <v>81867</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>266</v>
@@ -11426,11 +11429,11 @@
         <v>1403.33</v>
       </c>
       <c r="C97" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>84199.799999999988</v>
+        <v>28066.6</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>266</v>
@@ -11811,17 +11814,19 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="53" t="s">
         <v>230</v>
       </c>
       <c r="B100" s="32">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="17">
+        <v>40</v>
+      </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>47157.600000000006</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>266</v>
@@ -12002,11 +12007,11 @@
         <v>1188.82</v>
       </c>
       <c r="C102" s="17">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>95105.599999999991</v>
+        <v>71329.2</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>266</v>
@@ -19204,11 +19209,11 @@
         <v>9066.5400000000009</v>
       </c>
       <c r="C165" s="17">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>45332.700000000004</v>
+        <v>135998.1</v>
       </c>
       <c r="E165" s="49" t="s">
         <v>296</v>
@@ -19861,14 +19866,14 @@
         <v>9056.51</v>
       </c>
       <c r="C170" s="17">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>45282.55</v>
+        <v>135847.65</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="F170" s="30"/>
       <c r="G170" s="30"/>
@@ -20124,11 +20129,11 @@
       <c r="B172" s="69"/>
       <c r="C172" s="43">
         <f>SUBTOTAL(9,C6:C171)</f>
-        <v>690</v>
+        <v>530</v>
       </c>
       <c r="D172" s="50">
         <f>SUBTOTAL(9,D6:D171)</f>
-        <v>1008262.15</v>
+        <v>1007052.1499999999</v>
       </c>
       <c r="E172" s="44"/>
       <c r="F172" s="30"/>
@@ -20400,7 +20405,9 @@
       <c r="B178" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="C178" s="23"/>
+      <c r="C178" s="23">
+        <v>1300000</v>
+      </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
         <v>135</v>
@@ -20428,7 +20435,7 @@
       </c>
       <c r="C181" s="37">
         <f>SUM(C178:C180)</f>
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="D181" s="38"/>
       <c r="E181" s="27"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1972,7 +1972,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I102" sqref="I102"/>
+      <selection pane="bottomRight" activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="E2" s="42">
         <f ca="1">TODAY()</f>
-        <v>44410</v>
+        <v>44411</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2101,19 +2101,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>293</v>
       </c>
       <c r="B6" s="32">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>20</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>141135.20000000001</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>266</v>
@@ -3000,17 +2998,19 @@
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
     </row>
-    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:120" ht="15" customHeight="1">
       <c r="A18" s="53" t="s">
         <v>280</v>
       </c>
       <c r="B18" s="32">
         <v>1032.575</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="17">
+        <v>40</v>
+      </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41303</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>266</v>
@@ -3101,17 +3101,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="53" t="s">
         <v>253</v>
       </c>
       <c r="B21" s="32">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>70</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78456</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>266</v>
@@ -4919,19 +4921,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>219</v>
       </c>
       <c r="B37" s="32">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>60</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>70728</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>266</v>
@@ -5052,19 +5052,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="53" t="s">
         <v>254</v>
       </c>
       <c r="B38" s="32">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17">
-        <v>60</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>67204.799999999988</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>266</v>
@@ -5574,19 +5572,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="53" t="s">
         <v>202</v>
       </c>
       <c r="B42" s="32">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>60</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>85342.8</v>
+        <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>295</v>
@@ -6547,19 +6543,17 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="54" t="s">
         <v>272</v>
       </c>
       <c r="B50" s="32">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17">
-        <v>60</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>63999.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>266</v>
@@ -10172,17 +10166,19 @@
       <c r="AZ84" s="29"/>
       <c r="BA84" s="29"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="54" t="s">
         <v>271</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>40</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49878.400000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>266</v>
@@ -10240,19 +10236,17 @@
       <c r="BD85" s="29"/>
       <c r="BE85" s="29"/>
     </row>
-    <row r="86" spans="1:120" ht="15" customHeight="1">
+    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="54" t="s">
         <v>281</v>
       </c>
       <c r="B86" s="32">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17">
-        <v>60</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>78375.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>266</v>
@@ -11296,11 +11290,11 @@
         <v>1364.45</v>
       </c>
       <c r="C96" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>81867</v>
+        <v>27289</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>266</v>
@@ -11421,19 +11415,17 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="54" t="s">
         <v>279</v>
       </c>
       <c r="B97" s="32">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17">
-        <v>20</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>28066.6</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>266</v>
@@ -11814,19 +11806,17 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="53" t="s">
         <v>230</v>
       </c>
       <c r="B100" s="32">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17">
-        <v>40</v>
-      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>47157.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>266</v>
@@ -18681,17 +18671,19 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A161" s="53" t="s">
         <v>283</v>
       </c>
       <c r="B161" s="32">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17"/>
+      <c r="C161" s="17">
+        <v>10</v>
+      </c>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>72422</v>
       </c>
       <c r="E161" s="59" t="s">
         <v>299</v>
@@ -19201,19 +19193,17 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1">
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="53" t="s">
         <v>289</v>
       </c>
       <c r="B165" s="32">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17">
-        <v>15</v>
-      </c>
+      <c r="C165" s="17"/>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>135998.1</v>
+        <v>0</v>
       </c>
       <c r="E165" s="49" t="s">
         <v>296</v>
@@ -19858,19 +19848,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="53" t="s">
         <v>291</v>
       </c>
       <c r="B170" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>15</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>135847.65</v>
+        <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>302</v>
@@ -20128,12 +20116,12 @@
       </c>
       <c r="B172" s="69"/>
       <c r="C172" s="43">
-        <f>SUBTOTAL(9,C6:C171)</f>
-        <v>530</v>
+        <f>SUBTOTAL(9,C18:C171)</f>
+        <v>240</v>
       </c>
       <c r="D172" s="50">
-        <f>SUBTOTAL(9,D6:D171)</f>
-        <v>1007052.1499999999</v>
+        <f>SUBTOTAL(9,D18:D171)</f>
+        <v>340677.6</v>
       </c>
       <c r="E172" s="44"/>
       <c r="F172" s="30"/>
@@ -20406,7 +20394,7 @@
         <v>285</v>
       </c>
       <c r="C178" s="23">
-        <v>1300000</v>
+        <v>700000</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
@@ -20435,7 +20423,7 @@
       </c>
       <c r="C181" s="37">
         <f>SUM(C178:C180)</f>
-        <v>1300000</v>
+        <v>700000</v>
       </c>
       <c r="D181" s="38"/>
       <c r="E181" s="27"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="301">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -910,9 +910,6 @@
     <t xml:space="preserve">Carabian Blue </t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
     <t>Persian Blue  Must be</t>
   </si>
   <si>
@@ -920,9 +917,6 @@
   </si>
   <si>
     <t>Z35(4+64)</t>
-  </si>
-  <si>
-    <t>Only Blue</t>
   </si>
   <si>
     <t>B69</t>
@@ -1972,7 +1966,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G180" sqref="G180"/>
+      <selection pane="bottomRight" activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2009,7 +2003,7 @@
       </c>
       <c r="E2" s="42">
         <f ca="1">TODAY()</f>
-        <v>44411</v>
+        <v>44413</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2101,17 +2095,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>293</v>
       </c>
       <c r="B6" s="32">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>10</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70567.600000000006</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>266</v>
@@ -3006,11 +3002,11 @@
         <v>1032.575</v>
       </c>
       <c r="C18" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>41303</v>
+        <v>61954.5</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>266</v>
@@ -3034,7 +3030,7 @@
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="53" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B20" s="32">
         <v>994.36</v>
@@ -3109,11 +3105,11 @@
         <v>1120.8</v>
       </c>
       <c r="C21" s="17">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>78456</v>
+        <v>112080</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>266</v>
@@ -4921,17 +4917,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>219</v>
       </c>
       <c r="B37" s="32">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>100</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>117880</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>266</v>
@@ -5185,7 +5183,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="53" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B39" s="32">
         <v>1217.8900000000001</v>
@@ -5572,20 +5570,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="53" t="s">
         <v>202</v>
       </c>
       <c r="B42" s="32">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>60</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85342.8</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
@@ -10166,19 +10166,17 @@
       <c r="AZ84" s="29"/>
       <c r="BA84" s="29"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="54" t="s">
         <v>271</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>40</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>49878.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>266</v>
@@ -10236,17 +10234,19 @@
       <c r="BD85" s="29"/>
       <c r="BE85" s="29"/>
     </row>
-    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" ht="15" customHeight="1">
       <c r="A86" s="54" t="s">
         <v>281</v>
       </c>
       <c r="B86" s="32">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>160</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>209001.60000000001</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>266</v>
@@ -11282,19 +11282,17 @@
       <c r="AZ95" s="29"/>
       <c r="BA95" s="29"/>
     </row>
-    <row r="96" spans="1:120" ht="15" customHeight="1">
+    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="54" t="s">
         <v>275</v>
       </c>
       <c r="B96" s="32">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17">
-        <v>20</v>
-      </c>
+      <c r="C96" s="17"/>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>27289</v>
+        <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>266</v>
@@ -11806,17 +11804,19 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="53" t="s">
         <v>230</v>
       </c>
       <c r="B100" s="32">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="17">
+        <v>100</v>
+      </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>117894</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>266</v>
@@ -11989,19 +11989,17 @@
       <c r="AZ101" s="29"/>
       <c r="BA101" s="29"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="53" t="s">
         <v>282</v>
       </c>
       <c r="B102" s="32">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17">
-        <v>60</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>71329.2</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>266</v>
@@ -18671,7 +18669,7 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="161" spans="1:120" ht="15" customHeight="1">
       <c r="A161" s="53" t="s">
         <v>283</v>
       </c>
@@ -18685,8 +18683,8 @@
         <f t="shared" si="4"/>
         <v>72422</v>
       </c>
-      <c r="E161" s="59" t="s">
-        <v>299</v>
+      <c r="E161" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="F161" s="30"/>
       <c r="G161" s="30"/>
@@ -19206,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F165" s="30"/>
       <c r="G165" s="30"/>
@@ -19324,20 +19322,22 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A166" s="53" t="s">
         <v>276</v>
       </c>
       <c r="B166" s="32">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>5</v>
+      </c>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>0</v>
+        <v>49367.25</v>
       </c>
       <c r="E166" s="59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F166" s="30"/>
       <c r="G166" s="30"/>
@@ -19588,7 +19588,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B168" s="32">
         <v>9056.51</v>
@@ -19719,7 +19719,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B169" s="32">
         <v>9056.51</v>
@@ -19861,7 +19861,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F170" s="30"/>
       <c r="G170" s="30"/>
@@ -20116,12 +20116,12 @@
       </c>
       <c r="B172" s="69"/>
       <c r="C172" s="43">
-        <f>SUBTOTAL(9,C18:C171)</f>
-        <v>240</v>
+        <f>SUBTOTAL(9,C6:C171)</f>
+        <v>605</v>
       </c>
       <c r="D172" s="50">
-        <f>SUBTOTAL(9,D18:D171)</f>
-        <v>340677.6</v>
+        <f>SUBTOTAL(9,D6:D171)</f>
+        <v>896509.75</v>
       </c>
       <c r="E172" s="44"/>
       <c r="F172" s="30"/>
@@ -20394,7 +20394,7 @@
         <v>285</v>
       </c>
       <c r="C178" s="23">
-        <v>700000</v>
+        <v>900000</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
@@ -20423,7 +20423,7 @@
       </c>
       <c r="C181" s="37">
         <f>SUM(C178:C180)</f>
-        <v>700000</v>
+        <v>900000</v>
       </c>
       <c r="D181" s="38"/>
       <c r="E181" s="27"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1966,7 +1966,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G175" sqref="G175"/>
+      <selection pane="bottomRight" activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="E2" s="42">
         <f ca="1">TODAY()</f>
-        <v>44413</v>
+        <v>44416</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2103,11 +2103,11 @@
         <v>7056.76</v>
       </c>
       <c r="C6" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>70567.600000000006</v>
+        <v>141135.20000000001</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>266</v>
@@ -3002,11 +3002,11 @@
         <v>1032.575</v>
       </c>
       <c r="C18" s="17">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>61954.5</v>
+        <v>103257.5</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>266</v>
@@ -5570,19 +5570,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="53" t="s">
         <v>202</v>
       </c>
       <c r="B42" s="32">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>60</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>85342.8</v>
+        <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>266</v>
@@ -6543,17 +6541,19 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="54" t="s">
         <v>272</v>
       </c>
       <c r="B50" s="32">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17">
+        <v>100</v>
+      </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>106666.00000000001</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>266</v>
@@ -10166,17 +10166,19 @@
       <c r="AZ84" s="29"/>
       <c r="BA84" s="29"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="54" t="s">
         <v>271</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>40</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49878.400000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>266</v>
@@ -10234,19 +10236,17 @@
       <c r="BD85" s="29"/>
       <c r="BE85" s="29"/>
     </row>
-    <row r="86" spans="1:120" ht="15" customHeight="1">
+    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="54" t="s">
         <v>281</v>
       </c>
       <c r="B86" s="32">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17">
-        <v>160</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>209001.60000000001</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>266</v>
@@ -11282,17 +11282,19 @@
       <c r="AZ95" s="29"/>
       <c r="BA95" s="29"/>
     </row>
-    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:120" ht="15" customHeight="1">
       <c r="A96" s="54" t="s">
         <v>275</v>
       </c>
       <c r="B96" s="32">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17"/>
+      <c r="C96" s="17">
+        <v>20</v>
+      </c>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27289</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>266</v>
@@ -11413,17 +11415,19 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="54" t="s">
         <v>279</v>
       </c>
       <c r="B97" s="32">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>60</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>84199.799999999988</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>266</v>
@@ -11804,19 +11808,17 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="53" t="s">
         <v>230</v>
       </c>
       <c r="B100" s="32">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17">
-        <v>100</v>
-      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>117894</v>
+        <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>266</v>
@@ -11989,17 +11991,19 @@
       <c r="AZ101" s="29"/>
       <c r="BA101" s="29"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="53" t="s">
         <v>282</v>
       </c>
       <c r="B102" s="32">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>200</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>0</v>
+        <v>237764</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>266</v>
@@ -19191,17 +19195,19 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1">
       <c r="A165" s="53" t="s">
         <v>289</v>
       </c>
       <c r="B165" s="32">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="17">
+        <v>5</v>
+      </c>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>45332.700000000004</v>
       </c>
       <c r="E165" s="49" t="s">
         <v>295</v>
@@ -19322,19 +19328,17 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="53" t="s">
         <v>276</v>
       </c>
       <c r="B166" s="32">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17">
-        <v>5</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>49367.25</v>
+        <v>0</v>
       </c>
       <c r="E166" s="59" t="s">
         <v>295</v>
@@ -19848,19 +19852,21 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="53" t="s">
         <v>291</v>
       </c>
       <c r="B170" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>5</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E170" s="18" t="s">
+        <v>45282.55</v>
+      </c>
+      <c r="E170" s="49" t="s">
         <v>300</v>
       </c>
       <c r="F170" s="30"/>
@@ -20117,11 +20123,11 @@
       <c r="B172" s="69"/>
       <c r="C172" s="43">
         <f>SUBTOTAL(9,C6:C171)</f>
-        <v>605</v>
+        <v>760</v>
       </c>
       <c r="D172" s="50">
         <f>SUBTOTAL(9,D6:D171)</f>
-        <v>896509.75</v>
+        <v>1143187.1500000001</v>
       </c>
       <c r="E172" s="44"/>
       <c r="F172" s="30"/>
@@ -20393,9 +20399,7 @@
       <c r="B178" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="C178" s="23">
-        <v>900000</v>
-      </c>
+      <c r="C178" s="23"/>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
         <v>135</v>
@@ -20423,7 +20427,7 @@
       </c>
       <c r="C181" s="37">
         <f>SUM(C178:C180)</f>
-        <v>900000</v>
+        <v>0</v>
       </c>
       <c r="D181" s="38"/>
       <c r="E181" s="27"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="300">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -698,9 +698,6 @@
   </si>
   <si>
     <t>Dark_Blue</t>
-  </si>
-  <si>
-    <t>Dark_Blue &amp; Black</t>
   </si>
   <si>
     <t>SL20</t>
@@ -1966,7 +1963,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I175" sqref="I175"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1995,7 +1992,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="51" t="s">
@@ -2003,7 +2000,7 @@
       </c>
       <c r="E2" s="42">
         <f ca="1">TODAY()</f>
-        <v>44416</v>
+        <v>44417</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2026,7 +2023,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="32">
         <v>7244.21</v>
@@ -2097,20 +2094,20 @@
     </row>
     <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6" s="32">
         <v>7056.76</v>
       </c>
       <c r="C6" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>141135.20000000001</v>
+        <v>70567.600000000006</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2177,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2704,7 +2701,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" s="32">
         <v>1032.575</v>
@@ -2715,12 +2712,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B14" s="32">
         <v>721.8</v>
@@ -2927,7 +2924,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17" s="32">
         <v>779.96</v>
@@ -2996,25 +2993,25 @@
     </row>
     <row r="18" spans="1:120" ht="15" customHeight="1">
       <c r="A18" s="53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B18" s="32">
         <v>1032.575</v>
       </c>
       <c r="C18" s="17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>103257.5</v>
+        <v>51628.75</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B19" s="32">
         <v>1042.5999999999999</v>
@@ -3025,12 +3022,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B20" s="32">
         <v>994.36</v>
@@ -3099,20 +3096,20 @@
     </row>
     <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B21" s="32">
         <v>1120.8</v>
       </c>
       <c r="C21" s="17">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>112080</v>
+        <v>67248</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3179,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3628,7 +3625,7 @@
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" s="32">
         <v>1130.82</v>
@@ -3639,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
@@ -3888,7 +3885,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="32">
         <v>798.99</v>
@@ -4788,7 +4785,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B36" s="32">
         <v>1014.53</v>
@@ -4917,22 +4914,20 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>219</v>
       </c>
       <c r="B37" s="32">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>100</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>117880</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
@@ -5052,7 +5047,7 @@
     </row>
     <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" s="32">
         <v>1120.08</v>
@@ -5063,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
@@ -5181,20 +5176,22 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="32">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>140</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>170504.6</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
@@ -5570,20 +5567,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="53" t="s">
         <v>202</v>
       </c>
       <c r="B42" s="32">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>40</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56895.200000000004</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
@@ -5961,7 +5960,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B45" s="32">
         <v>1238.0899999999999</v>
@@ -6219,7 +6218,7 @@
     </row>
     <row r="47" spans="1:120" s="39" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B47" s="32">
         <v>848.12</v>
@@ -6281,7 +6280,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48" s="32">
         <v>1101.75</v>
@@ -6292,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
@@ -6541,22 +6540,20 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B50" s="32">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C50" s="17">
-        <v>100</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>106666.00000000001</v>
+        <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="30"/>
@@ -6676,7 +6673,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" s="32">
         <v>1014.53</v>
@@ -6687,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
@@ -6936,7 +6933,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B53" s="32">
         <v>2702.42</v>
@@ -6947,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F53" s="30"/>
       <c r="G53" s="30"/>
@@ -7067,7 +7064,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B54" s="32">
         <v>3947.38</v>
@@ -8103,7 +8100,7 @@
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B62" s="32">
         <v>4044.61</v>
@@ -8114,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F62" s="30"/>
       <c r="G62" s="30"/>
@@ -8621,7 +8618,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B66" s="32">
         <v>5247.46</v>
@@ -8632,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BB66" s="14"/>
       <c r="BC66" s="14"/>
@@ -8823,7 +8820,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B69" s="32">
         <v>4866.5600000000004</v>
@@ -8885,7 +8882,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B70" s="32">
         <v>5603.31</v>
@@ -8949,7 +8946,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B71" s="32">
         <v>5411.86</v>
@@ -9075,7 +9072,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A73" s="53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B73" s="32">
         <v>5792.76</v>
@@ -9086,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
@@ -9520,7 +9517,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B79" s="32">
         <v>5708.6</v>
@@ -9531,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="30"/>
@@ -9651,7 +9648,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B80" s="32">
         <v>6405.21</v>
@@ -9662,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="30"/>
@@ -10104,7 +10101,7 @@
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B84" s="32">
         <v>1062.6500000000001</v>
@@ -10115,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
@@ -10166,22 +10163,20 @@
       <c r="AZ84" s="29"/>
       <c r="BA84" s="29"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>40</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>49878.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
@@ -10236,20 +10231,22 @@
       <c r="BD85" s="29"/>
       <c r="BE85" s="29"/>
     </row>
-    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" ht="15" customHeight="1">
       <c r="A86" s="54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B86" s="32">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>100</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>130626</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F86" s="30"/>
       <c r="G86" s="30"/>
@@ -11156,7 +11153,7 @@
     </row>
     <row r="94" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A94" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B94" s="32">
         <v>1306.26</v>
@@ -11167,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
@@ -11231,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -11284,7 +11281,7 @@
     </row>
     <row r="96" spans="1:120" ht="15" customHeight="1">
       <c r="A96" s="54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B96" s="32">
         <v>1364.45</v>
@@ -11297,7 +11294,7 @@
         <v>27289</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F96" s="30"/>
       <c r="G96" s="30"/>
@@ -11417,20 +11414,20 @@
     </row>
     <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B97" s="32">
         <v>1403.33</v>
       </c>
       <c r="C97" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>84199.799999999988</v>
+        <v>28066.6</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
@@ -11810,7 +11807,7 @@
     </row>
     <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B100" s="32">
         <v>1178.94</v>
@@ -11821,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
@@ -11929,7 +11926,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B101" s="32">
         <v>1062.6500000000001</v>
@@ -11940,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
@@ -11991,22 +11988,20 @@
       <c r="AZ101" s="29"/>
       <c r="BA101" s="29"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B102" s="32">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17">
-        <v>200</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>237764</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
@@ -12956,7 +12951,7 @@
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B110" s="32">
         <v>1150.8699999999999</v>
@@ -12967,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BB110" s="14"/>
       <c r="BC110" s="14"/>
@@ -13434,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F115" s="30"/>
       <c r="G115" s="30"/>
@@ -14072,7 +14067,7 @@
     </row>
     <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B120" s="32">
         <v>1159.8900000000001</v>
@@ -14083,7 +14078,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F120" s="30"/>
       <c r="G120" s="30"/>
@@ -14203,7 +14198,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B121" s="32">
         <v>1072.675</v>
@@ -14799,7 +14794,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F126" s="30"/>
       <c r="G126" s="30"/>
@@ -14930,7 +14925,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F127" s="30"/>
       <c r="G127" s="30"/>
@@ -15050,7 +15045,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B128" s="32">
         <v>1188.97</v>
@@ -15437,7 +15432,7 @@
     </row>
     <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B131" s="32">
         <v>1208.01</v>
@@ -15448,7 +15443,7 @@
         <v>0</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F131" s="30"/>
       <c r="G131" s="30"/>
@@ -15568,7 +15563,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B132" s="32">
         <v>3520.36</v>
@@ -15579,7 +15574,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F132" s="30"/>
       <c r="G132" s="30"/>
@@ -15699,7 +15694,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B133" s="32">
         <v>3793.1</v>
@@ -15710,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F133" s="30"/>
       <c r="G133" s="30"/>
@@ -17447,7 +17442,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F150" s="30"/>
       <c r="G150" s="30"/>
@@ -18087,7 +18082,7 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B155" s="32">
         <v>3617.59</v>
@@ -18218,7 +18213,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B156" s="32">
         <v>3548.43</v>
@@ -18351,7 +18346,7 @@
     </row>
     <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B158" s="32">
         <v>7165.87</v>
@@ -18362,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F158" s="29"/>
       <c r="G158" s="29"/>
@@ -18544,7 +18539,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="53" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B160" s="32">
         <v>7093.04</v>
@@ -18555,7 +18550,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F160" s="30"/>
       <c r="G160" s="30"/>
@@ -18673,22 +18668,20 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" customHeight="1">
+    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B161" s="32">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17">
-        <v>10</v>
-      </c>
+      <c r="C161" s="17"/>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>72422</v>
+        <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F161" s="30"/>
       <c r="G161" s="30"/>
@@ -18808,7 +18801,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B162" s="32">
         <v>8101.24</v>
@@ -18937,7 +18930,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B163" s="32">
         <v>7501.24</v>
@@ -19066,7 +19059,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B164" s="32">
         <v>7778.48</v>
@@ -19077,7 +19070,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F164" s="30"/>
       <c r="G164" s="30"/>
@@ -19195,22 +19188,20 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1">
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B165" s="32">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17">
-        <v>5</v>
-      </c>
+      <c r="C165" s="17"/>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>45332.700000000004</v>
+        <v>0</v>
       </c>
       <c r="E165" s="49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F165" s="30"/>
       <c r="G165" s="30"/>
@@ -19330,7 +19321,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B166" s="32">
         <v>9873.4500000000007</v>
@@ -19341,7 +19332,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F166" s="30"/>
       <c r="G166" s="30"/>
@@ -19461,7 +19452,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B167" s="32">
         <v>7778.48</v>
@@ -19472,7 +19463,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F167" s="30"/>
       <c r="G167" s="30"/>
@@ -19592,7 +19583,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B168" s="32">
         <v>9056.51</v>
@@ -19603,7 +19594,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F168" s="30"/>
       <c r="G168" s="30"/>
@@ -19721,20 +19712,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B169" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>5</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F169" s="30"/>
       <c r="G169" s="30"/>
@@ -19852,22 +19845,20 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B170" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>5</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E170" s="49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F170" s="30"/>
       <c r="G170" s="30"/>
@@ -19987,7 +19978,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A171" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B171" s="32">
         <v>10133.07</v>
@@ -19998,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F171" s="30"/>
       <c r="G171" s="30"/>
@@ -20123,11 +20114,11 @@
       <c r="B172" s="69"/>
       <c r="C172" s="43">
         <f>SUBTOTAL(9,C6:C171)</f>
-        <v>760</v>
+        <v>445</v>
       </c>
       <c r="D172" s="50">
         <f>SUBTOTAL(9,D6:D171)</f>
-        <v>1143187.1500000001</v>
+        <v>648108.30000000005</v>
       </c>
       <c r="E172" s="44"/>
       <c r="F172" s="30"/>
@@ -20397,9 +20388,11 @@
     </row>
     <row r="178" spans="2:5" ht="15" customHeight="1">
       <c r="B178" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="C178" s="23"/>
+        <v>284</v>
+      </c>
+      <c r="C178" s="23">
+        <v>1500000</v>
+      </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
         <v>135</v>
@@ -20407,7 +20400,7 @@
     </row>
     <row r="179" spans="2:5">
       <c r="B179" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="25"/>
@@ -20415,7 +20408,7 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="24"/>
@@ -20427,7 +20420,7 @@
       </c>
       <c r="C181" s="37">
         <f>SUM(C178:C180)</f>
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="D181" s="38"/>
       <c r="E181" s="27"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="300">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -1436,7 +1436,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1597,9 +1597,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1963,7 +1960,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomRight" activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,28 +1976,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="64"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="51" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="42">
         <f ca="1">TODAY()</f>
-        <v>44417</v>
+        <v>44419</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2092,19 +2089,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>292</v>
       </c>
       <c r="B6" s="32">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>10</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>70567.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>265</v>
@@ -2244,7 +2239,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
@@ -2373,7 +2370,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
@@ -2502,7 +2501,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
       <c r="BD10" s="14"/>
@@ -2571,7 +2572,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
       <c r="BD11" s="14"/>
@@ -2727,7 +2730,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
       <c r="BD14" s="14"/>
@@ -2796,7 +2801,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
       <c r="BD15" s="14"/>
@@ -2865,7 +2872,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
       <c r="BD16" s="14"/>
@@ -2934,7 +2943,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
       <c r="BD17" s="14"/>
@@ -2991,19 +3002,17 @@
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
     </row>
-    <row r="18" spans="1:120" ht="15" customHeight="1">
+    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="53" t="s">
         <v>279</v>
       </c>
       <c r="B18" s="32">
         <v>1032.575</v>
       </c>
-      <c r="C18" s="17">
-        <v>50</v>
-      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>51628.75</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>265</v>
@@ -3037,7 +3046,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
       <c r="BD20" s="14"/>
@@ -3094,19 +3105,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="53" t="s">
         <v>252</v>
       </c>
       <c r="B21" s="32">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17">
-        <v>60</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>67248</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>265</v>
@@ -3766,7 +3775,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
@@ -3895,7 +3906,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
@@ -4024,7 +4037,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
@@ -4153,7 +4168,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -5176,19 +5193,17 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="53" t="s">
         <v>298</v>
       </c>
       <c r="B39" s="32">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17">
-        <v>140</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>170504.6</v>
+        <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>265</v>
@@ -5567,19 +5582,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="53" t="s">
         <v>202</v>
       </c>
       <c r="B42" s="32">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>40</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>56895.200000000004</v>
+        <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>265</v>
@@ -10231,19 +10244,17 @@
       <c r="BD85" s="29"/>
       <c r="BE85" s="29"/>
     </row>
-    <row r="86" spans="1:120" ht="15" customHeight="1">
+    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="54" t="s">
         <v>280</v>
       </c>
       <c r="B86" s="32">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17">
-        <v>100</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>130626</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>265</v>
@@ -11279,19 +11290,17 @@
       <c r="AZ95" s="29"/>
       <c r="BA95" s="29"/>
     </row>
-    <row r="96" spans="1:120" ht="15" customHeight="1">
+    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="54" t="s">
         <v>274</v>
       </c>
       <c r="B96" s="32">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17">
-        <v>20</v>
-      </c>
+      <c r="C96" s="17"/>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>27289</v>
+        <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>265</v>
@@ -11412,19 +11421,17 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="54" t="s">
         <v>278</v>
       </c>
       <c r="B97" s="32">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17">
-        <v>20</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>28066.6</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>265</v>
@@ -19188,17 +19195,19 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1">
       <c r="A165" s="53" t="s">
         <v>288</v>
       </c>
       <c r="B165" s="32">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="17">
+        <v>15</v>
+      </c>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>135998.1</v>
       </c>
       <c r="E165" s="49" t="s">
         <v>294</v>
@@ -19319,19 +19328,21 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
       <c r="A166" s="53" t="s">
         <v>275</v>
       </c>
       <c r="B166" s="32">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>15</v>
+      </c>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>0</v>
-      </c>
-      <c r="E166" s="59" t="s">
+        <v>148101.75</v>
+      </c>
+      <c r="E166" s="49" t="s">
         <v>294</v>
       </c>
       <c r="F166" s="30"/>
@@ -19581,17 +19592,19 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:120" ht="15" customHeight="1">
       <c r="A168" s="53" t="s">
         <v>295</v>
       </c>
       <c r="B168" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17"/>
+      <c r="C168" s="17">
+        <v>8</v>
+      </c>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>72452.08</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>265</v>
@@ -19712,19 +19725,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="53" t="s">
         <v>296</v>
       </c>
       <c r="B169" s="32">
-        <v>9056.51</v>
+        <v>9973.69</v>
       </c>
       <c r="C169" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>45282.55</v>
+        <v>59842.14</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>265</v>
@@ -19845,17 +19858,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="53" t="s">
         <v>290</v>
       </c>
       <c r="B170" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>15</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>135847.65</v>
       </c>
       <c r="E170" s="49" t="s">
         <v>299</v>
@@ -20108,17 +20123,17 @@
       <c r="DP171" s="15"/>
     </row>
     <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A172" s="68" t="s">
+      <c r="A172" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B172" s="69"/>
+      <c r="B172" s="68"/>
       <c r="C172" s="43">
-        <f>SUBTOTAL(9,C6:C171)</f>
-        <v>445</v>
+        <f>SUBTOTAL(9,C165:C171)</f>
+        <v>59</v>
       </c>
       <c r="D172" s="50">
-        <f>SUBTOTAL(9,D6:D171)</f>
-        <v>648108.30000000005</v>
+        <f>SUBTOTAL(9,D165:D171)</f>
+        <v>552241.72</v>
       </c>
       <c r="E172" s="44"/>
       <c r="F172" s="30"/>
@@ -20360,17 +20375,17 @@
       <c r="DP173" s="15"/>
     </row>
     <row r="174" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B174" s="60"/>
-      <c r="C174" s="60"/>
-      <c r="D174" s="60"/>
-      <c r="E174" s="60"/>
+      <c r="B174" s="59"/>
+      <c r="C174" s="59"/>
+      <c r="D174" s="59"/>
+      <c r="E174" s="59"/>
     </row>
     <row r="175" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B175" s="65" t="s">
+      <c r="B175" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C175" s="66"/>
-      <c r="D175" s="67"/>
+      <c r="C175" s="65"/>
+      <c r="D175" s="66"/>
       <c r="E175" s="28"/>
     </row>
     <row r="176" spans="1:120" ht="9" customHeight="1" thickBot="1"/>
@@ -20391,7 +20406,7 @@
         <v>284</v>
       </c>
       <c r="C178" s="23">
-        <v>1500000</v>
+        <v>550000</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
@@ -20420,7 +20435,7 @@
       </c>
       <c r="C181" s="37">
         <f>SUM(C178:C180)</f>
-        <v>1500000</v>
+        <v>550000</v>
       </c>
       <c r="D181" s="38"/>
       <c r="E181" s="27"/>
@@ -20470,33 +20485,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74" t="e">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -22437,10 +22452,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="70" t="s">
+      <c r="A101" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="70"/>
+      <c r="B101" s="69"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1960,7 +1960,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G175" sqref="G175"/>
+      <selection pane="bottomRight" activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="E2" s="42">
         <f ca="1">TODAY()</f>
-        <v>44419</v>
+        <v>44420</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -19195,19 +19195,17 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1">
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="53" t="s">
         <v>288</v>
       </c>
       <c r="B165" s="32">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17">
-        <v>15</v>
-      </c>
+      <c r="C165" s="17"/>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>135998.1</v>
+        <v>0</v>
       </c>
       <c r="E165" s="49" t="s">
         <v>294</v>
@@ -19328,19 +19326,17 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="53" t="s">
         <v>275</v>
       </c>
       <c r="B166" s="32">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17">
-        <v>15</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>148101.75</v>
+        <v>0</v>
       </c>
       <c r="E166" s="49" t="s">
         <v>294</v>
@@ -19461,17 +19457,19 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A167" s="53" t="s">
         <v>289</v>
       </c>
       <c r="B167" s="32">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17">
+        <v>218</v>
+      </c>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1695708.64</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>265</v>
@@ -19592,19 +19590,17 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" customHeight="1">
+    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="53" t="s">
         <v>295</v>
       </c>
       <c r="B168" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17">
-        <v>8</v>
-      </c>
+      <c r="C168" s="17"/>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>72452.08</v>
+        <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>265</v>
@@ -19725,19 +19721,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="53" t="s">
         <v>296</v>
       </c>
       <c r="B169" s="32">
         <v>9973.69</v>
       </c>
-      <c r="C169" s="17">
-        <v>6</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>59842.14</v>
+        <v>0</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>265</v>
@@ -19858,19 +19852,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="53" t="s">
         <v>290</v>
       </c>
       <c r="B170" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>15</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>135847.65</v>
+        <v>0</v>
       </c>
       <c r="E170" s="49" t="s">
         <v>299</v>
@@ -20128,12 +20120,12 @@
       </c>
       <c r="B172" s="68"/>
       <c r="C172" s="43">
-        <f>SUBTOTAL(9,C165:C171)</f>
-        <v>59</v>
+        <f>SUBTOTAL(9,C161:C171)</f>
+        <v>218</v>
       </c>
       <c r="D172" s="50">
-        <f>SUBTOTAL(9,D165:D171)</f>
-        <v>552241.72</v>
+        <f>SUBTOTAL(9,D161:D171)</f>
+        <v>1695708.64</v>
       </c>
       <c r="E172" s="44"/>
       <c r="F172" s="30"/>
@@ -20406,7 +20398,7 @@
         <v>284</v>
       </c>
       <c r="C178" s="23">
-        <v>550000</v>
+        <v>1700000</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
@@ -20435,7 +20427,7 @@
       </c>
       <c r="C181" s="37">
         <f>SUM(C178:C180)</f>
-        <v>550000</v>
+        <v>1700000</v>
       </c>
       <c r="D181" s="38"/>
       <c r="E181" s="27"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="300">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -553,9 +553,6 @@
     <t>Helio S60</t>
   </si>
   <si>
-    <t>Helio S5</t>
-  </si>
-  <si>
     <t>L62</t>
   </si>
   <si>
@@ -923,6 +920,9 @@
   </si>
   <si>
     <t>Dazzling Blue</t>
+  </si>
+  <si>
+    <t>G10+</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1436,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1598,6 +1598,9 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1642,6 +1645,15 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1960,7 +1972,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E183" sqref="E183"/>
+      <selection pane="bottomRight" activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1976,28 +1988,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="63"/>
+      <c r="B2" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="64"/>
       <c r="D2" s="51" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="42">
         <f ca="1">TODAY()</f>
-        <v>44420</v>
+        <v>44424</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2020,7 +2032,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="32">
         <v>7244.21</v>
@@ -2031,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2089,20 +2101,22 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="32">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>25</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>176419</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2158,7 +2172,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="32">
         <v>892.23</v>
@@ -2169,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2229,7 +2243,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="32">
         <v>789.97</v>
@@ -2240,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -2371,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
@@ -2502,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2573,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2644,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2704,7 +2718,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" s="32">
         <v>1032.575</v>
@@ -2715,12 +2729,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B14" s="32">
         <v>721.8</v>
@@ -2731,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2791,7 +2805,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="32">
         <v>779.95</v>
@@ -2802,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2862,7 +2876,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B16" s="32">
         <v>770.92</v>
@@ -2873,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2933,7 +2947,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="32">
         <v>779.96</v>
@@ -2944,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -3002,25 +3016,27 @@
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
     </row>
-    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:120" ht="15" customHeight="1">
       <c r="A18" s="53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B18" s="32">
         <v>1032.575</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="17">
+        <v>100</v>
+      </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103257.5</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19" s="32">
         <v>1042.5999999999999</v>
@@ -3031,12 +3047,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B20" s="32">
         <v>994.36</v>
@@ -3047,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3105,20 +3121,22 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B21" s="32">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>100</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>112080</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3185,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3503,7 +3521,7 @@
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B25" s="32">
         <v>901.24800000000005</v>
@@ -3514,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
@@ -3632,20 +3650,22 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B26" s="32">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>100</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>113082</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
@@ -3765,7 +3785,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="32">
         <v>824.06</v>
@@ -3776,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
@@ -3896,7 +3916,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="32">
         <v>798.99</v>
@@ -3907,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
@@ -4038,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
@@ -4169,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
@@ -4289,7 +4309,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B31" s="32">
         <v>858.14</v>
@@ -4300,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
@@ -4549,7 +4569,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B33" s="32">
         <v>878.19</v>
@@ -4673,7 +4693,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B35" s="32">
         <v>955.38</v>
@@ -4802,7 +4822,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B36" s="32">
         <v>1014.53</v>
@@ -4813,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
@@ -4933,7 +4953,7 @@
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B37" s="32">
         <v>1178.8</v>
@@ -4944,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
@@ -5062,20 +5082,22 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B38" s="32">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>20</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>0</v>
+        <v>22401.599999999999</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
@@ -5195,7 +5217,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B39" s="32">
         <v>1217.8900000000001</v>
@@ -5206,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
@@ -5584,7 +5606,7 @@
     </row>
     <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B42" s="32">
         <v>1422.38</v>
@@ -5595,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
@@ -5973,7 +5995,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B45" s="32">
         <v>1238.0899999999999</v>
@@ -6231,7 +6253,7 @@
     </row>
     <row r="47" spans="1:120" s="39" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B47" s="32">
         <v>848.12</v>
@@ -6293,7 +6315,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48" s="32">
         <v>1101.75</v>
@@ -6304,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
@@ -6435,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
@@ -6555,7 +6577,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B50" s="32">
         <v>1066.6600000000001</v>
@@ -6566,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="30"/>
@@ -6686,7 +6708,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B51" s="32">
         <v>1014.53</v>
@@ -6697,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
@@ -6817,7 +6839,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B52" s="32">
         <v>1264.153</v>
@@ -6946,7 +6968,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B53" s="32">
         <v>2702.42</v>
@@ -6957,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F53" s="30"/>
       <c r="G53" s="30"/>
@@ -7077,10 +7099,10 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B54" s="32">
-        <v>3947.38</v>
+        <v>4500</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="18">
@@ -7088,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
@@ -7206,19 +7228,23 @@
       <c r="DO54" s="15"/>
       <c r="DP54" s="15"/>
     </row>
-    <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A55" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="B55" s="32">
-        <v>13914.7</v>
-      </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="18">
+    <row r="55" spans="1:120" ht="15" customHeight="1">
+      <c r="A55" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="B55" s="76">
+        <v>4706.18</v>
+      </c>
+      <c r="C55" s="77">
+        <v>100</v>
+      </c>
+      <c r="D55" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="18"/>
+        <v>470618</v>
+      </c>
+      <c r="E55" s="59" t="s">
+        <v>264</v>
+      </c>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
@@ -7606,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="30"/>
@@ -7726,7 +7752,7 @@
     </row>
     <row r="59" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B59" s="32">
         <v>6900.2079999999996</v>
@@ -8113,7 +8139,7 @@
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="53" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B62" s="32">
         <v>4044.61</v>
@@ -8124,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F62" s="30"/>
       <c r="G62" s="30"/>
@@ -8502,7 +8528,7 @@
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B65" s="32">
         <v>4885.6000000000004</v>
@@ -8631,7 +8657,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B66" s="32">
         <v>5247.46</v>
@@ -8642,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB66" s="14"/>
       <c r="BC66" s="14"/>
@@ -8771,7 +8797,7 @@
     </row>
     <row r="68" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B68" s="32">
         <v>5607.32</v>
@@ -8833,7 +8859,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B69" s="32">
         <v>4866.5600000000004</v>
@@ -8895,7 +8921,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B70" s="32">
         <v>5603.31</v>
@@ -8906,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
@@ -8959,7 +8985,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B71" s="32">
         <v>5411.86</v>
@@ -8970,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
@@ -9023,7 +9049,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B72" s="32">
         <v>5412.5</v>
@@ -9085,7 +9111,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A73" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B73" s="32">
         <v>5792.76</v>
@@ -9096,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
@@ -9160,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
@@ -9337,7 +9363,7 @@
     </row>
     <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B77" s="32">
         <v>5382.7857000000004</v>
@@ -9399,7 +9425,7 @@
     </row>
     <row r="78" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B78" s="32">
         <v>6306.98</v>
@@ -9410,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F78" s="30"/>
       <c r="G78" s="30"/>
@@ -9530,7 +9556,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B79" s="32">
         <v>5708.6</v>
@@ -9541,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="30"/>
@@ -9661,7 +9687,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B80" s="32">
         <v>6405.21</v>
@@ -9672,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="30"/>
@@ -9803,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F81" s="30"/>
       <c r="G81" s="30"/>
@@ -10114,7 +10140,7 @@
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B84" s="32">
         <v>1062.6500000000001</v>
@@ -10125,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
@@ -10176,20 +10202,22 @@
       <c r="AZ84" s="29"/>
       <c r="BA84" s="29"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>20</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24939.200000000001</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
@@ -10246,7 +10274,7 @@
     </row>
     <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B86" s="32">
         <v>1306.26</v>
@@ -10257,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F86" s="30"/>
       <c r="G86" s="30"/>
@@ -10526,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F89" s="30"/>
       <c r="G89" s="30"/>
@@ -10657,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
@@ -11035,7 +11063,7 @@
     </row>
     <row r="93" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B93" s="32">
         <v>1551.87</v>
@@ -11164,7 +11192,7 @@
     </row>
     <row r="94" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A94" s="54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B94" s="32">
         <v>1306.26</v>
@@ -11175,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
@@ -11239,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -11290,20 +11318,22 @@
       <c r="AZ95" s="29"/>
       <c r="BA95" s="29"/>
     </row>
-    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:120" ht="15" customHeight="1">
       <c r="A96" s="54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B96" s="32">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17"/>
+      <c r="C96" s="17">
+        <v>20</v>
+      </c>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27289</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F96" s="30"/>
       <c r="G96" s="30"/>
@@ -11421,20 +11451,22 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B97" s="32">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>20</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28066.6</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
@@ -11683,7 +11715,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B99" s="32">
         <v>985.46</v>
@@ -11694,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F99" s="30"/>
       <c r="G99" s="30"/>
@@ -11814,7 +11846,7 @@
     </row>
     <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B100" s="32">
         <v>1178.94</v>
@@ -11825,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
@@ -11933,7 +11965,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B101" s="32">
         <v>1062.6500000000001</v>
@@ -11944,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
@@ -11995,20 +12027,22 @@
       <c r="AZ101" s="29"/>
       <c r="BA101" s="29"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B102" s="32">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>20</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>0</v>
+        <v>23776.399999999998</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
@@ -12116,7 +12150,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B103" s="32">
         <v>945.36</v>
@@ -12189,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F104" s="30"/>
       <c r="G104" s="30"/>
@@ -12309,7 +12343,7 @@
     </row>
     <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B105" s="32">
         <v>1024.5550000000001</v>
@@ -12320,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F105" s="30"/>
       <c r="G105" s="30"/>
@@ -12569,7 +12603,7 @@
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B107" s="32">
         <v>1101.75</v>
@@ -12698,7 +12732,7 @@
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B108" s="32">
         <v>1297.24</v>
@@ -12709,7 +12743,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F108" s="30"/>
       <c r="G108" s="30"/>
@@ -12958,7 +12992,7 @@
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B110" s="32">
         <v>1150.8699999999999</v>
@@ -12969,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BB110" s="14"/>
       <c r="BC110" s="14"/>
@@ -13425,7 +13459,7 @@
     </row>
     <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B115" s="32">
         <v>5607.32</v>
@@ -13436,7 +13470,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F115" s="30"/>
       <c r="G115" s="30"/>
@@ -13696,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F117" s="30"/>
       <c r="G117" s="30"/>
@@ -14074,7 +14108,7 @@
     </row>
     <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B120" s="32">
         <v>1159.8900000000001</v>
@@ -14085,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F120" s="30"/>
       <c r="G120" s="30"/>
@@ -14205,7 +14239,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B121" s="32">
         <v>1072.675</v>
@@ -14790,7 +14824,7 @@
     </row>
     <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B126" s="32">
         <v>1219.04</v>
@@ -14801,7 +14835,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F126" s="30"/>
       <c r="G126" s="30"/>
@@ -14921,7 +14955,7 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B127" s="32">
         <v>1336.33</v>
@@ -14932,7 +14966,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F127" s="30"/>
       <c r="G127" s="30"/>
@@ -15052,7 +15086,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B128" s="32">
         <v>1188.97</v>
@@ -15437,20 +15471,22 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:120" ht="15" customHeight="1">
       <c r="A131" s="53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B131" s="32">
         <v>1208.01</v>
       </c>
-      <c r="C131" s="17"/>
+      <c r="C131" s="17">
+        <v>20</v>
+      </c>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24160.2</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F131" s="30"/>
       <c r="G131" s="30"/>
@@ -15570,7 +15606,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B132" s="32">
         <v>3520.36</v>
@@ -15581,7 +15617,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F132" s="30"/>
       <c r="G132" s="30"/>
@@ -15701,7 +15737,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B133" s="32">
         <v>3793.1</v>
@@ -15712,7 +15748,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F133" s="30"/>
       <c r="G133" s="30"/>
@@ -15832,7 +15868,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B134" s="32">
         <v>4174.41</v>
@@ -15843,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F134" s="30"/>
       <c r="G134" s="30"/>
@@ -16349,7 +16385,7 @@
     </row>
     <row r="138" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B138" s="32">
         <v>4076.68</v>
@@ -16360,7 +16396,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F138" s="29"/>
       <c r="G138" s="29"/>
@@ -16413,7 +16449,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B139" s="32">
         <v>5150.8500000000004</v>
@@ -16475,7 +16511,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B140" s="32">
         <v>4973.3999999999996</v>
@@ -16599,7 +16635,7 @@
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B142" s="32">
         <v>5940.82</v>
@@ -16672,7 +16708,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F143" s="29"/>
       <c r="G143" s="29"/>
@@ -16787,7 +16823,7 @@
     </row>
     <row r="145" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B145" s="35">
         <v>3257.12</v>
@@ -16798,7 +16834,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F145" s="30"/>
       <c r="G145" s="30"/>
@@ -16918,7 +16954,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B146" s="32">
         <v>4389.43</v>
@@ -16929,7 +16965,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F146" s="30"/>
       <c r="G146" s="30"/>
@@ -17189,7 +17225,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F148" s="30"/>
       <c r="G148" s="30"/>
@@ -17438,7 +17474,7 @@
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B150" s="35">
         <v>4027.04</v>
@@ -17449,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F150" s="30"/>
       <c r="G150" s="30"/>
@@ -17580,7 +17616,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F151" s="30"/>
       <c r="G151" s="30"/>
@@ -17829,7 +17865,7 @@
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B153" s="32">
         <v>4409</v>
@@ -17958,7 +17994,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B154" s="32">
         <v>4165.3900000000003</v>
@@ -17969,7 +18005,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F154" s="30"/>
       <c r="G154" s="30"/>
@@ -18089,7 +18125,7 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B155" s="32">
         <v>3617.59</v>
@@ -18100,7 +18136,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F155" s="30"/>
       <c r="G155" s="30"/>
@@ -18220,7 +18256,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B156" s="32">
         <v>3548.43</v>
@@ -18231,7 +18267,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BB156" s="14"/>
       <c r="BC156" s="14"/>
@@ -18353,7 +18389,7 @@
     </row>
     <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B158" s="32">
         <v>7165.87</v>
@@ -18364,7 +18400,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F158" s="29"/>
       <c r="G158" s="29"/>
@@ -18417,7 +18453,7 @@
     </row>
     <row r="159" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A159" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B159" s="32">
         <v>7691.27</v>
@@ -18546,7 +18582,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B160" s="32">
         <v>7093.04</v>
@@ -18557,7 +18593,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F160" s="30"/>
       <c r="G160" s="30"/>
@@ -18677,7 +18713,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B161" s="32">
         <v>7242.2</v>
@@ -18688,7 +18724,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F161" s="30"/>
       <c r="G161" s="30"/>
@@ -18808,7 +18844,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B162" s="32">
         <v>8101.24</v>
@@ -18937,7 +18973,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B163" s="32">
         <v>7501.24</v>
@@ -19066,7 +19102,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B164" s="32">
         <v>7778.48</v>
@@ -19077,7 +19113,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F164" s="30"/>
       <c r="G164" s="30"/>
@@ -19195,20 +19231,22 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1">
       <c r="A165" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B165" s="32">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="17">
+        <v>15</v>
+      </c>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E165" s="49" t="s">
-        <v>294</v>
+        <v>135998.1</v>
+      </c>
+      <c r="E165" s="59" t="s">
+        <v>264</v>
       </c>
       <c r="F165" s="30"/>
       <c r="G165" s="30"/>
@@ -19328,7 +19366,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B166" s="32">
         <v>9873.4500000000007</v>
@@ -19339,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F166" s="30"/>
       <c r="G166" s="30"/>
@@ -19457,22 +19495,22 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1">
       <c r="A167" s="53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B167" s="32">
         <v>7778.48</v>
       </c>
       <c r="C167" s="17">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>1695708.64</v>
+        <v>155569.59999999998</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F167" s="30"/>
       <c r="G167" s="30"/>
@@ -19590,20 +19628,22 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:120" ht="15" customHeight="1">
       <c r="A168" s="53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B168" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17"/>
+      <c r="C168" s="17">
+        <v>10</v>
+      </c>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90565.1</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F168" s="30"/>
       <c r="G168" s="30"/>
@@ -19721,20 +19761,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B169" s="32">
         <v>9973.69</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>10</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>0</v>
+        <v>99736.900000000009</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F169" s="30"/>
       <c r="G169" s="30"/>
@@ -19854,7 +19896,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B170" s="32">
         <v>9056.51</v>
@@ -19865,7 +19907,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F170" s="30"/>
       <c r="G170" s="30"/>
@@ -19985,7 +20027,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A171" s="53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B171" s="32">
         <v>10133.07</v>
@@ -19996,7 +20038,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F171" s="30"/>
       <c r="G171" s="30"/>
@@ -20115,17 +20157,17 @@
       <c r="DP171" s="15"/>
     </row>
     <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A172" s="67" t="s">
+      <c r="A172" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="B172" s="68"/>
+      <c r="B172" s="69"/>
       <c r="C172" s="43">
-        <f>SUBTOTAL(9,C161:C171)</f>
-        <v>218</v>
+        <f>SUBTOTAL(9,C6:C171)</f>
+        <v>600</v>
       </c>
       <c r="D172" s="50">
-        <f>SUBTOTAL(9,D161:D171)</f>
-        <v>1695708.64</v>
+        <f>SUBTOTAL(9,D6:D171)</f>
+        <v>1607959.1999999997</v>
       </c>
       <c r="E172" s="44"/>
       <c r="F172" s="30"/>
@@ -20367,17 +20409,17 @@
       <c r="DP173" s="15"/>
     </row>
     <row r="174" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B174" s="59"/>
-      <c r="C174" s="59"/>
-      <c r="D174" s="59"/>
-      <c r="E174" s="59"/>
+      <c r="B174" s="60"/>
+      <c r="C174" s="60"/>
+      <c r="D174" s="60"/>
+      <c r="E174" s="60"/>
     </row>
     <row r="175" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B175" s="64" t="s">
+      <c r="B175" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="C175" s="65"/>
-      <c r="D175" s="66"/>
+      <c r="C175" s="66"/>
+      <c r="D175" s="67"/>
       <c r="E175" s="28"/>
     </row>
     <row r="176" spans="1:120" ht="9" customHeight="1" thickBot="1"/>
@@ -20395,10 +20437,10 @@
     </row>
     <row r="178" spans="2:5" ht="15" customHeight="1">
       <c r="B178" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C178" s="23">
-        <v>1700000</v>
+        <v>1600000</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
@@ -20407,7 +20449,7 @@
     </row>
     <row r="179" spans="2:5">
       <c r="B179" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="25"/>
@@ -20415,7 +20457,7 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="24"/>
@@ -20427,7 +20469,7 @@
       </c>
       <c r="C181" s="37">
         <f>SUM(C178:C180)</f>
-        <v>1700000</v>
+        <v>1600000</v>
       </c>
       <c r="D181" s="38"/>
       <c r="E181" s="27"/>
@@ -20477,33 +20519,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="e">
+      <c r="B3" s="73"/>
+      <c r="C3" s="74" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="73"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -22444,10 +22486,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="69" t="s">
+      <c r="A101" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="69"/>
+      <c r="B101" s="70"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -742,9 +742,6 @@
     <t>i74</t>
   </si>
   <si>
-    <t>BL98</t>
-  </si>
-  <si>
     <t>Battle green</t>
   </si>
   <si>
@@ -805,9 +802,6 @@
     <t>V99+</t>
   </si>
   <si>
-    <t>L45</t>
-  </si>
-  <si>
     <t>Z16</t>
   </si>
   <si>
@@ -923,6 +917,12 @@
   </si>
   <si>
     <t>G10+</t>
+  </si>
+  <si>
+    <t>L43</t>
+  </si>
+  <si>
+    <t>BL99</t>
   </si>
 </sst>
 </file>
@@ -1601,6 +1601,15 @@
     <xf numFmtId="43" fontId="12" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1645,15 +1654,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1972,7 +1972,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F165" sqref="F165"/>
+      <selection pane="bottomRight" activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1988,28 +1988,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="64"/>
+      <c r="B2" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="67"/>
       <c r="D2" s="51" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="42">
-        <f ca="1">TODAY()</f>
-        <v>44424</v>
+        <f ca="1">TODAY()+1</f>
+        <v>44426</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="53" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B5" s="32">
         <v>7244.21</v>
@@ -2103,20 +2103,20 @@
     </row>
     <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="53" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B6" s="32">
         <v>7056.76</v>
       </c>
       <c r="C6" s="17">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>176419</v>
+        <v>105851.40000000001</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" s="32">
         <v>1032.575</v>
@@ -2729,12 +2729,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B14" s="32">
         <v>721.8</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -3016,27 +3016,25 @@
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
     </row>
-    <row r="18" spans="1:120" ht="15" customHeight="1">
+    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="53" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B18" s="32">
         <v>1032.575</v>
       </c>
-      <c r="C18" s="17">
-        <v>100</v>
-      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>103257.5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B19" s="32">
         <v>1042.5999999999999</v>
@@ -3047,12 +3045,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="53" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B20" s="32">
         <v>994.36</v>
@@ -3063,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3123,7 +3121,7 @@
     </row>
     <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B21" s="32">
         <v>1120.8</v>
@@ -3136,7 +3134,7 @@
         <v>112080</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3203,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3650,22 +3648,20 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="53" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B26" s="32">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>100</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>113082</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
@@ -3796,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
@@ -3914,20 +3910,22 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="53" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="B28" s="32">
-        <v>798.99</v>
-      </c>
-      <c r="C28" s="17"/>
+        <v>1030.45</v>
+      </c>
+      <c r="C28" s="17">
+        <v>300</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>309135</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
@@ -4058,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
@@ -4189,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
@@ -4964,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
@@ -5084,20 +5082,20 @@
     </row>
     <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38" s="32">
         <v>1120.08</v>
       </c>
       <c r="C38" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>22401.599999999999</v>
+        <v>67204.799999999988</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
@@ -5217,7 +5215,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="53" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B39" s="32">
         <v>1217.8900000000001</v>
@@ -5228,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
@@ -5617,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
@@ -6253,7 +6251,7 @@
     </row>
     <row r="47" spans="1:120" s="39" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B47" s="32">
         <v>848.12</v>
@@ -6315,7 +6313,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="53" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B48" s="32">
         <v>1101.75</v>
@@ -6326,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
@@ -6577,7 +6575,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="54" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B50" s="32">
         <v>1066.6600000000001</v>
@@ -6588,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="30"/>
@@ -6708,7 +6706,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B51" s="32">
         <v>1014.53</v>
@@ -6719,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
@@ -6979,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F53" s="30"/>
       <c r="G53" s="30"/>
@@ -7099,7 +7097,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B54" s="32">
         <v>4500</v>
@@ -7110,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
@@ -7228,22 +7226,20 @@
       <c r="DO54" s="15"/>
       <c r="DP54" s="15"/>
     </row>
-    <row r="55" spans="1:120" ht="15" customHeight="1">
-      <c r="A55" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="B55" s="76">
+    <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A55" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="B55" s="61">
         <v>4706.18</v>
       </c>
-      <c r="C55" s="77">
-        <v>100</v>
-      </c>
+      <c r="C55" s="62"/>
       <c r="D55" s="59">
         <f t="shared" si="1"/>
-        <v>470618</v>
+        <v>0</v>
       </c>
       <c r="E55" s="59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
@@ -8139,7 +8135,7 @@
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B62" s="32">
         <v>4044.61</v>
@@ -8150,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F62" s="30"/>
       <c r="G62" s="30"/>
@@ -8657,7 +8653,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B66" s="32">
         <v>5247.46</v>
@@ -8668,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB66" s="14"/>
       <c r="BC66" s="14"/>
@@ -8859,7 +8855,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B69" s="32">
         <v>4866.5600000000004</v>
@@ -8921,7 +8917,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="53" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B70" s="32">
         <v>5603.31</v>
@@ -9122,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
@@ -9556,7 +9552,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B79" s="32">
         <v>5708.6</v>
@@ -9567,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="30"/>
@@ -9687,7 +9683,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="53" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B80" s="32">
         <v>6405.21</v>
@@ -9698,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="30"/>
@@ -10151,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
@@ -10204,20 +10200,20 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="54" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
       <c r="C85" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>24939.200000000001</v>
+        <v>74817.600000000006</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
@@ -10274,7 +10270,7 @@
     </row>
     <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="54" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B86" s="32">
         <v>1306.26</v>
@@ -10285,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F86" s="30"/>
       <c r="G86" s="30"/>
@@ -11203,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
@@ -11267,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -11320,7 +11316,7 @@
     </row>
     <row r="96" spans="1:120" ht="15" customHeight="1">
       <c r="A96" s="54" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B96" s="32">
         <v>1364.45</v>
@@ -11333,7 +11329,7 @@
         <v>27289</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F96" s="30"/>
       <c r="G96" s="30"/>
@@ -11453,7 +11449,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="54" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B97" s="32">
         <v>1403.33</v>
@@ -11466,7 +11462,7 @@
         <v>28066.6</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
@@ -11857,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
@@ -11965,10 +11961,10 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="53" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="B101" s="32">
-        <v>1062.6500000000001</v>
+        <v>1214.8900000000001</v>
       </c>
       <c r="C101" s="17"/>
       <c r="D101" s="18">
@@ -11976,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
@@ -12029,20 +12025,20 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="53" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B102" s="32">
         <v>1188.82</v>
       </c>
       <c r="C102" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>23776.399999999998</v>
+        <v>47552.799999999996</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
@@ -12992,7 +12988,7 @@
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B110" s="32">
         <v>1150.8699999999999</v>
@@ -13003,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BB110" s="14"/>
       <c r="BC110" s="14"/>
@@ -14119,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F120" s="30"/>
       <c r="G120" s="30"/>
@@ -14835,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F126" s="30"/>
       <c r="G126" s="30"/>
@@ -14966,7 +14962,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F127" s="30"/>
       <c r="G127" s="30"/>
@@ -15086,7 +15082,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B128" s="32">
         <v>1188.97</v>
@@ -15473,7 +15469,7 @@
     </row>
     <row r="131" spans="1:120" ht="15" customHeight="1">
       <c r="A131" s="53" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B131" s="32">
         <v>1208.01</v>
@@ -15486,7 +15482,7 @@
         <v>24160.2</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F131" s="30"/>
       <c r="G131" s="30"/>
@@ -15748,7 +15744,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F133" s="30"/>
       <c r="G133" s="30"/>
@@ -18256,7 +18252,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B156" s="32">
         <v>3548.43</v>
@@ -18389,7 +18385,7 @@
     </row>
     <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B158" s="32">
         <v>7165.87</v>
@@ -18400,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F158" s="29"/>
       <c r="G158" s="29"/>
@@ -18582,7 +18578,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="53" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B160" s="32">
         <v>7093.04</v>
@@ -18593,7 +18589,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F160" s="30"/>
       <c r="G160" s="30"/>
@@ -18711,20 +18707,22 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A161" s="53" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B161" s="32">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17"/>
+      <c r="C161" s="17">
+        <v>15</v>
+      </c>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>108633</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F161" s="30"/>
       <c r="G161" s="30"/>
@@ -18844,7 +18842,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="53" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B162" s="32">
         <v>8101.24</v>
@@ -18973,7 +18971,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="53" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B163" s="32">
         <v>7501.24</v>
@@ -19102,7 +19100,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="53" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B164" s="32">
         <v>7778.48</v>
@@ -19113,7 +19111,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F164" s="30"/>
       <c r="G164" s="30"/>
@@ -19231,22 +19229,20 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1">
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B165" s="32">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17">
-        <v>15</v>
-      </c>
+      <c r="C165" s="17"/>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>135998.1</v>
+        <v>0</v>
       </c>
       <c r="E165" s="59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F165" s="30"/>
       <c r="G165" s="30"/>
@@ -19366,7 +19362,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="53" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B166" s="32">
         <v>9873.4500000000007</v>
@@ -19377,7 +19373,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F166" s="30"/>
       <c r="G166" s="30"/>
@@ -19495,22 +19491,20 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="53" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B167" s="32">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17">
-        <v>20</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>155569.59999999998</v>
+        <v>0</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F167" s="30"/>
       <c r="G167" s="30"/>
@@ -19628,22 +19622,20 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" customHeight="1">
+    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="53" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B168" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17">
-        <v>10</v>
-      </c>
+      <c r="C168" s="17"/>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>90565.1</v>
+        <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F168" s="30"/>
       <c r="G168" s="30"/>
@@ -19761,22 +19753,20 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="53" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B169" s="32">
         <v>9973.69</v>
       </c>
-      <c r="C169" s="17">
-        <v>10</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>99736.900000000009</v>
+        <v>0</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F169" s="30"/>
       <c r="G169" s="30"/>
@@ -19896,7 +19886,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="53" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B170" s="32">
         <v>9056.51</v>
@@ -19907,7 +19897,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="49" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F170" s="30"/>
       <c r="G170" s="30"/>
@@ -20027,7 +20017,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A171" s="53" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B171" s="32">
         <v>10133.07</v>
@@ -20038,7 +20028,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F171" s="30"/>
       <c r="G171" s="30"/>
@@ -20157,17 +20147,17 @@
       <c r="DP171" s="15"/>
     </row>
     <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A172" s="68" t="s">
+      <c r="A172" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B172" s="69"/>
+      <c r="B172" s="72"/>
       <c r="C172" s="43">
         <f>SUBTOTAL(9,C6:C171)</f>
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="D172" s="50">
         <f>SUBTOTAL(9,D6:D171)</f>
-        <v>1607959.1999999997</v>
+        <v>904790.39999999991</v>
       </c>
       <c r="E172" s="44"/>
       <c r="F172" s="30"/>
@@ -20409,17 +20399,17 @@
       <c r="DP173" s="15"/>
     </row>
     <row r="174" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B174" s="60"/>
-      <c r="C174" s="60"/>
-      <c r="D174" s="60"/>
-      <c r="E174" s="60"/>
+      <c r="B174" s="63"/>
+      <c r="C174" s="63"/>
+      <c r="D174" s="63"/>
+      <c r="E174" s="63"/>
     </row>
     <row r="175" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B175" s="65" t="s">
+      <c r="B175" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C175" s="66"/>
-      <c r="D175" s="67"/>
+      <c r="C175" s="69"/>
+      <c r="D175" s="70"/>
       <c r="E175" s="28"/>
     </row>
     <row r="176" spans="1:120" ht="9" customHeight="1" thickBot="1"/>
@@ -20437,10 +20427,10 @@
     </row>
     <row r="178" spans="2:5" ht="15" customHeight="1">
       <c r="B178" s="34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C178" s="23">
-        <v>1600000</v>
+        <v>900000</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
@@ -20449,7 +20439,7 @@
     </row>
     <row r="179" spans="2:5">
       <c r="B179" s="34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="25"/>
@@ -20457,7 +20447,7 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="24"/>
@@ -20469,7 +20459,7 @@
       </c>
       <c r="C181" s="37">
         <f>SUM(C178:C180)</f>
-        <v>1600000</v>
+        <v>900000</v>
       </c>
       <c r="D181" s="38"/>
       <c r="E181" s="27"/>
@@ -20519,33 +20509,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74" t="e">
+      <c r="B3" s="76"/>
+      <c r="C3" s="77" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -22486,10 +22476,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="70" t="s">
+      <c r="A101" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="70"/>
+      <c r="B101" s="73"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="301">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -923,6 +923,9 @@
   </si>
   <si>
     <t>BL99</t>
+  </si>
+  <si>
+    <t>Need to Deposit =</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1176,6 +1179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,15 +1544,6 @@
     <xf numFmtId="1" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1588,15 +1588,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1653,6 +1644,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1972,12 +1981,12 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H161" sqref="H161"/>
+      <selection pane="bottomRight" activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" style="52" customWidth="1"/>
+    <col min="1" max="1" width="22" style="49" customWidth="1"/>
     <col min="2" max="2" width="15" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
@@ -1988,50 +1997,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="39">
         <f ca="1">TODAY()+1</f>
-        <v>44426</v>
+        <v>44428</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:120" ht="15" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="44" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="50" t="s">
         <v>273</v>
       </c>
       <c r="B5" s="32">
@@ -2102,18 +2111,18 @@
       <c r="DD5" s="14"/>
     </row>
     <row r="6" spans="1:120" ht="15" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="50" t="s">
         <v>289</v>
       </c>
       <c r="B6" s="32">
         <v>7056.76</v>
       </c>
       <c r="C6" s="17">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>105851.40000000001</v>
+        <v>176419</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>262</v>
@@ -2171,7 +2180,7 @@
       <c r="DD6" s="14"/>
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="50" t="s">
         <v>216</v>
       </c>
       <c r="B7" s="32">
@@ -2242,7 +2251,7 @@
       <c r="DD7" s="14"/>
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="50" t="s">
         <v>189</v>
       </c>
       <c r="B8" s="32">
@@ -2373,7 +2382,7 @@
       <c r="DP8" s="15"/>
     </row>
     <row r="9" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="50" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="32">
@@ -2504,7 +2513,7 @@
       <c r="DP9" s="15"/>
     </row>
     <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="50" t="s">
         <v>155</v>
       </c>
       <c r="B10" s="32">
@@ -2575,7 +2584,7 @@
       <c r="DD10" s="14"/>
     </row>
     <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="50" t="s">
         <v>156</v>
       </c>
       <c r="B11" s="32">
@@ -2646,7 +2655,7 @@
       <c r="DD11" s="14"/>
     </row>
     <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="50" t="s">
         <v>168</v>
       </c>
       <c r="B12" s="32">
@@ -2717,11 +2726,11 @@
       <c r="DD12" s="14"/>
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="50" t="s">
         <v>242</v>
       </c>
       <c r="B13" s="32">
-        <v>1032.575</v>
+        <v>972.42499999999995</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18">
@@ -2733,7 +2742,7 @@
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="50" t="s">
         <v>248</v>
       </c>
       <c r="B14" s="32">
@@ -2804,7 +2813,7 @@
       <c r="DD14" s="14"/>
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="50" t="s">
         <v>215</v>
       </c>
       <c r="B15" s="32">
@@ -2875,7 +2884,7 @@
       <c r="DD15" s="14"/>
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="50" t="s">
         <v>221</v>
       </c>
       <c r="B16" s="32">
@@ -2946,7 +2955,7 @@
       <c r="DD16" s="14"/>
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="50" t="s">
         <v>231</v>
       </c>
       <c r="B17" s="32">
@@ -3017,7 +3026,7 @@
       <c r="DD17" s="14"/>
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="50" t="s">
         <v>276</v>
       </c>
       <c r="B18" s="32">
@@ -3032,24 +3041,26 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A19" s="53" t="s">
+    <row r="19" spans="1:120" ht="15" customHeight="1">
+      <c r="A19" s="50" t="s">
         <v>257</v>
       </c>
       <c r="B19" s="32">
-        <v>1042.5999999999999</v>
-      </c>
-      <c r="C19" s="17"/>
+        <v>982.45</v>
+      </c>
+      <c r="C19" s="17">
+        <v>100</v>
+      </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98245</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="50" t="s">
         <v>294</v>
       </c>
       <c r="B20" s="32">
@@ -3119,19 +3130,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
-      <c r="A21" s="53" t="s">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A21" s="50" t="s">
         <v>250</v>
       </c>
       <c r="B21" s="32">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17">
-        <v>100</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>112080</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>262</v>
@@ -3189,7 +3198,7 @@
       <c r="DD21" s="14"/>
     </row>
     <row r="22" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="32">
@@ -3260,7 +3269,7 @@
       <c r="DD22" s="14"/>
     </row>
     <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="50" t="s">
         <v>154</v>
       </c>
       <c r="B23" s="32">
@@ -3389,7 +3398,7 @@
       <c r="DP23" s="15"/>
     </row>
     <row r="24" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="50" t="s">
         <v>123</v>
       </c>
       <c r="B24" s="32">
@@ -3518,7 +3527,7 @@
       <c r="DP24" s="15"/>
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="50" t="s">
         <v>180</v>
       </c>
       <c r="B25" s="32">
@@ -3648,17 +3657,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A26" s="53" t="s">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
+      <c r="A26" s="50" t="s">
         <v>266</v>
       </c>
       <c r="B26" s="32">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>20</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22616.399999999998</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>262</v>
@@ -3780,7 +3791,7 @@
       <c r="DP26" s="15"/>
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="50" t="s">
         <v>220</v>
       </c>
       <c r="B27" s="32">
@@ -3910,19 +3921,17 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
-      <c r="A28" s="53" t="s">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A28" s="50" t="s">
         <v>299</v>
       </c>
       <c r="B28" s="32">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17">
-        <v>300</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>309135</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>262</v>
@@ -4044,7 +4053,7 @@
       <c r="DP28" s="15"/>
     </row>
     <row r="29" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="50" t="s">
         <v>127</v>
       </c>
       <c r="B29" s="32">
@@ -4175,7 +4184,7 @@
       <c r="DP29" s="15"/>
     </row>
     <row r="30" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="50" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="32">
@@ -4306,7 +4315,7 @@
       <c r="DP30" s="15"/>
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="50" t="s">
         <v>219</v>
       </c>
       <c r="B31" s="32">
@@ -4437,7 +4446,7 @@
       <c r="DP31" s="15"/>
     </row>
     <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="50" t="s">
         <v>146</v>
       </c>
       <c r="B32" s="32">
@@ -4566,7 +4575,7 @@
       <c r="DP32" s="15"/>
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="50" t="s">
         <v>192</v>
       </c>
       <c r="B33" s="32">
@@ -4628,7 +4637,7 @@
       <c r="BA33" s="29"/>
     </row>
     <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="50" t="s">
         <v>153</v>
       </c>
       <c r="B34" s="32">
@@ -4690,7 +4699,7 @@
       <c r="BA34" s="29"/>
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="50" t="s">
         <v>191</v>
       </c>
       <c r="B35" s="32">
@@ -4819,7 +4828,7 @@
       <c r="DP35" s="15"/>
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="50" t="s">
         <v>227</v>
       </c>
       <c r="B36" s="32">
@@ -4950,7 +4959,7 @@
       <c r="DP36" s="15"/>
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="50" t="s">
         <v>218</v>
       </c>
       <c r="B37" s="32">
@@ -5081,18 +5090,18 @@
       <c r="DP37" s="15"/>
     </row>
     <row r="38" spans="1:120" ht="15" customHeight="1">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="50" t="s">
         <v>251</v>
       </c>
       <c r="B38" s="32">
         <v>1120.08</v>
       </c>
       <c r="C38" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>67204.799999999988</v>
+        <v>22401.599999999999</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>262</v>
@@ -5214,7 +5223,7 @@
       <c r="DP38" s="15"/>
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="50" t="s">
         <v>295</v>
       </c>
       <c r="B39" s="32">
@@ -5345,7 +5354,7 @@
       <c r="DP39" s="15"/>
     </row>
     <row r="40" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="50" t="s">
         <v>116</v>
       </c>
       <c r="B40" s="32">
@@ -5474,7 +5483,7 @@
       <c r="DP40" s="15"/>
     </row>
     <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="50" t="s">
         <v>157</v>
       </c>
       <c r="B41" s="32">
@@ -5603,7 +5612,7 @@
       <c r="DP41" s="15"/>
     </row>
     <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="50" t="s">
         <v>201</v>
       </c>
       <c r="B42" s="32">
@@ -5734,7 +5743,7 @@
       <c r="DP42" s="15"/>
     </row>
     <row r="43" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="50" t="s">
         <v>117</v>
       </c>
       <c r="B43" s="32">
@@ -5863,7 +5872,7 @@
       <c r="DP43" s="15"/>
     </row>
     <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="50" t="s">
         <v>159</v>
       </c>
       <c r="B44" s="32">
@@ -5992,7 +6001,7 @@
       <c r="DP44" s="15"/>
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="50" t="s">
         <v>230</v>
       </c>
       <c r="B45" s="32">
@@ -6121,7 +6130,7 @@
       <c r="DP45" s="15"/>
     </row>
     <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="51" t="s">
         <v>158</v>
       </c>
       <c r="B46" s="32">
@@ -6249,8 +6258,8 @@
       <c r="DO46" s="15"/>
       <c r="DP46" s="15"/>
     </row>
-    <row r="47" spans="1:120" s="39" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A47" s="53" t="s">
+    <row r="47" spans="1:120" s="36" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A47" s="50" t="s">
         <v>249</v>
       </c>
       <c r="B47" s="32">
@@ -6262,57 +6271,57 @@
         <v>0</v>
       </c>
       <c r="E47" s="18"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="48"/>
-      <c r="W47" s="48"/>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="48"/>
-      <c r="Z47" s="48"/>
-      <c r="AA47" s="48"/>
-      <c r="AB47" s="48"/>
-      <c r="AC47" s="48"/>
-      <c r="AD47" s="48"/>
-      <c r="AE47" s="48"/>
-      <c r="AF47" s="48"/>
-      <c r="AG47" s="48"/>
-      <c r="AH47" s="48"/>
-      <c r="AI47" s="48"/>
-      <c r="AJ47" s="48"/>
-      <c r="AK47" s="48"/>
-      <c r="AL47" s="48"/>
-      <c r="AM47" s="48"/>
-      <c r="AN47" s="48"/>
-      <c r="AO47" s="48"/>
-      <c r="AP47" s="48"/>
-      <c r="AQ47" s="48"/>
-      <c r="AR47" s="48"/>
-      <c r="AS47" s="48"/>
-      <c r="AT47" s="48"/>
-      <c r="AU47" s="48"/>
-      <c r="AV47" s="48"/>
-      <c r="AW47" s="48"/>
-      <c r="AX47" s="48"/>
-      <c r="AY47" s="48"/>
-      <c r="AZ47" s="48"/>
-      <c r="BA47" s="48"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="45"/>
+      <c r="Z47" s="45"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="45"/>
+      <c r="AC47" s="45"/>
+      <c r="AD47" s="45"/>
+      <c r="AE47" s="45"/>
+      <c r="AF47" s="45"/>
+      <c r="AG47" s="45"/>
+      <c r="AH47" s="45"/>
+      <c r="AI47" s="45"/>
+      <c r="AJ47" s="45"/>
+      <c r="AK47" s="45"/>
+      <c r="AL47" s="45"/>
+      <c r="AM47" s="45"/>
+      <c r="AN47" s="45"/>
+      <c r="AO47" s="45"/>
+      <c r="AP47" s="45"/>
+      <c r="AQ47" s="45"/>
+      <c r="AR47" s="45"/>
+      <c r="AS47" s="45"/>
+      <c r="AT47" s="45"/>
+      <c r="AU47" s="45"/>
+      <c r="AV47" s="45"/>
+      <c r="AW47" s="45"/>
+      <c r="AX47" s="45"/>
+      <c r="AY47" s="45"/>
+      <c r="AZ47" s="45"/>
+      <c r="BA47" s="45"/>
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="50" t="s">
         <v>265</v>
       </c>
       <c r="B48" s="32">
@@ -6443,7 +6452,7 @@
       <c r="DP48" s="15"/>
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="51" t="s">
         <v>137</v>
       </c>
       <c r="B49" s="32">
@@ -6574,7 +6583,7 @@
       <c r="DP49" s="15"/>
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="51" t="s">
         <v>268</v>
       </c>
       <c r="B50" s="32">
@@ -6705,7 +6714,7 @@
       <c r="DP50" s="15"/>
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="50" t="s">
         <v>247</v>
       </c>
       <c r="B51" s="32">
@@ -6836,7 +6845,7 @@
       <c r="DP51" s="15"/>
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="50" t="s">
         <v>182</v>
       </c>
       <c r="B52" s="32">
@@ -6965,7 +6974,7 @@
       <c r="DP52" s="15"/>
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="51" t="s">
         <v>233</v>
       </c>
       <c r="B53" s="32">
@@ -7096,7 +7105,7 @@
       <c r="DP53" s="15"/>
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="51" t="s">
         <v>253</v>
       </c>
       <c r="B54" s="32">
@@ -7227,18 +7236,18 @@
       <c r="DP54" s="15"/>
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="B55" s="61">
+      <c r="B55" s="55">
         <v>4706.18</v>
       </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="59">
+      <c r="C55" s="56"/>
+      <c r="D55" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E55" s="59" t="s">
+      <c r="E55" s="53" t="s">
         <v>262</v>
       </c>
       <c r="F55" s="30"/>
@@ -7358,7 +7367,7 @@
       <c r="DP55" s="15"/>
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="50" t="s">
         <v>175</v>
       </c>
       <c r="B56" s="32">
@@ -7487,7 +7496,7 @@
       <c r="DP56" s="15"/>
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="50" t="s">
         <v>115</v>
       </c>
       <c r="B57" s="32">
@@ -7616,7 +7625,7 @@
       <c r="DP57" s="15"/>
     </row>
     <row r="58" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="50" t="s">
         <v>124</v>
       </c>
       <c r="B58" s="32">
@@ -7747,7 +7756,7 @@
       <c r="DP58" s="15"/>
     </row>
     <row r="59" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="50" t="s">
         <v>190</v>
       </c>
       <c r="B59" s="32">
@@ -7876,7 +7885,7 @@
       <c r="DP59" s="15"/>
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="50" t="s">
         <v>149</v>
       </c>
       <c r="B60" s="32">
@@ -8005,7 +8014,7 @@
       <c r="DP60" s="15"/>
     </row>
     <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="50" t="s">
         <v>143</v>
       </c>
       <c r="B61" s="32">
@@ -8134,7 +8143,7 @@
       <c r="DP61" s="15"/>
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="50" t="s">
         <v>260</v>
       </c>
       <c r="B62" s="32">
@@ -8265,7 +8274,7 @@
       <c r="DP62" s="15"/>
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="50" t="s">
         <v>173</v>
       </c>
       <c r="B63" s="32">
@@ -8394,7 +8403,7 @@
       <c r="DP63" s="15"/>
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="50" t="s">
         <v>172</v>
       </c>
       <c r="B64" s="32">
@@ -8523,7 +8532,7 @@
       <c r="DP64" s="15"/>
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="50" t="s">
         <v>208</v>
       </c>
       <c r="B65" s="32">
@@ -8652,7 +8661,7 @@
       <c r="DP65" s="15"/>
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="50" t="s">
         <v>245</v>
       </c>
       <c r="B66" s="32">
@@ -8723,7 +8732,7 @@
       <c r="DD66" s="14"/>
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="50" t="s">
         <v>131</v>
       </c>
       <c r="B67" s="32">
@@ -8792,7 +8801,7 @@
       <c r="DD67" s="14"/>
     </row>
     <row r="68" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="50" t="s">
         <v>199</v>
       </c>
       <c r="B68" s="32">
@@ -8854,7 +8863,7 @@
       <c r="BA68" s="29"/>
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="50" t="s">
         <v>255</v>
       </c>
       <c r="B69" s="32">
@@ -8916,7 +8925,7 @@
       <c r="BA69" s="29"/>
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="50" t="s">
         <v>274</v>
       </c>
       <c r="B70" s="32">
@@ -8980,7 +8989,7 @@
       <c r="BA70" s="29"/>
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="50" t="s">
         <v>229</v>
       </c>
       <c r="B71" s="32">
@@ -9044,7 +9053,7 @@
       <c r="BA71" s="29"/>
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="50" t="s">
         <v>203</v>
       </c>
       <c r="B72" s="32">
@@ -9106,7 +9115,7 @@
       <c r="BA72" s="29"/>
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="50" t="s">
         <v>238</v>
       </c>
       <c r="B73" s="32">
@@ -9170,7 +9179,7 @@
       <c r="BA73" s="29"/>
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="50" t="s">
         <v>166</v>
       </c>
       <c r="B74" s="32">
@@ -9234,7 +9243,7 @@
       <c r="BA74" s="29"/>
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="50" t="s">
         <v>139</v>
       </c>
       <c r="B75" s="32">
@@ -9296,7 +9305,7 @@
       <c r="BA75" s="29"/>
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A76" s="53" t="s">
+      <c r="A76" s="50" t="s">
         <v>150</v>
       </c>
       <c r="B76" s="32">
@@ -9358,7 +9367,7 @@
       <c r="BA76" s="29"/>
     </row>
     <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="50" t="s">
         <v>196</v>
       </c>
       <c r="B77" s="32">
@@ -9420,7 +9429,7 @@
       <c r="BA77" s="29"/>
     </row>
     <row r="78" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="50" t="s">
         <v>222</v>
       </c>
       <c r="B78" s="32">
@@ -9551,7 +9560,7 @@
       <c r="DP78" s="15"/>
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="50" t="s">
         <v>264</v>
       </c>
       <c r="B79" s="32">
@@ -9682,7 +9691,7 @@
       <c r="DP79" s="15"/>
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="50" t="s">
         <v>263</v>
       </c>
       <c r="B80" s="32">
@@ -9813,7 +9822,7 @@
       <c r="DP80" s="15"/>
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A81" s="54" t="s">
+      <c r="A81" s="51" t="s">
         <v>125</v>
       </c>
       <c r="B81" s="32">
@@ -9944,7 +9953,7 @@
       <c r="DP81" s="15"/>
     </row>
     <row r="82" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A82" s="54" t="s">
+      <c r="A82" s="51" t="s">
         <v>170</v>
       </c>
       <c r="B82" s="32">
@@ -10073,7 +10082,7 @@
       <c r="DP82" s="15"/>
     </row>
     <row r="83" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="51" t="s">
         <v>148</v>
       </c>
       <c r="B83" s="32">
@@ -10135,7 +10144,7 @@
       <c r="BA83" s="29"/>
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="51" t="s">
         <v>225</v>
       </c>
       <c r="B84" s="32">
@@ -10199,18 +10208,18 @@
       <c r="BA84" s="29"/>
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A85" s="54" t="s">
+      <c r="A85" s="51" t="s">
         <v>267</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
       <c r="C85" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>74817.600000000006</v>
+        <v>24939.200000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>262</v>
@@ -10269,7 +10278,7 @@
       <c r="BE85" s="29"/>
     </row>
     <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A86" s="54" t="s">
+      <c r="A86" s="51" t="s">
         <v>277</v>
       </c>
       <c r="B86" s="32">
@@ -10400,7 +10409,7 @@
       <c r="DP86" s="15"/>
     </row>
     <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="51" t="s">
         <v>136</v>
       </c>
       <c r="B87" s="32">
@@ -10469,7 +10478,7 @@
       <c r="DD87" s="14"/>
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="51" t="s">
         <v>134</v>
       </c>
       <c r="B88" s="32">
@@ -10538,7 +10547,7 @@
       <c r="DD88" s="14"/>
     </row>
     <row r="89" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A89" s="53" t="s">
+      <c r="A89" s="50" t="s">
         <v>147</v>
       </c>
       <c r="B89" s="32">
@@ -10669,7 +10678,7 @@
       <c r="DP89" s="15"/>
     </row>
     <row r="90" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A90" s="54" t="s">
+      <c r="A90" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B90" s="32">
@@ -10800,7 +10809,7 @@
       <c r="DP90" s="15"/>
     </row>
     <row r="91" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A91" s="54" t="s">
+      <c r="A91" s="51" t="s">
         <v>169</v>
       </c>
       <c r="B91" s="32">
@@ -10929,7 +10938,7 @@
       <c r="DP91" s="15"/>
     </row>
     <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A92" s="53" t="s">
+      <c r="A92" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B92" s="32">
@@ -11058,7 +11067,7 @@
       <c r="DP92" s="15"/>
     </row>
     <row r="93" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A93" s="54" t="s">
+      <c r="A93" s="51" t="s">
         <v>198</v>
       </c>
       <c r="B93" s="32">
@@ -11187,7 +11196,7 @@
       <c r="DP93" s="15"/>
     </row>
     <row r="94" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A94" s="54" t="s">
+      <c r="A94" s="51" t="s">
         <v>235</v>
       </c>
       <c r="B94" s="32">
@@ -11251,7 +11260,7 @@
       <c r="BA94" s="29"/>
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A95" s="54" t="s">
+      <c r="A95" s="51" t="s">
         <v>164</v>
       </c>
       <c r="B95" s="32">
@@ -11315,7 +11324,7 @@
       <c r="BA95" s="29"/>
     </row>
     <row r="96" spans="1:120" ht="15" customHeight="1">
-      <c r="A96" s="54" t="s">
+      <c r="A96" s="51" t="s">
         <v>271</v>
       </c>
       <c r="B96" s="32">
@@ -11448,7 +11457,7 @@
       <c r="DP96" s="15"/>
     </row>
     <row r="97" spans="1:120" ht="15" customHeight="1">
-      <c r="A97" s="54" t="s">
+      <c r="A97" s="51" t="s">
         <v>275</v>
       </c>
       <c r="B97" s="32">
@@ -11581,7 +11590,7 @@
       <c r="DP97" s="15"/>
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A98" s="54" t="s">
+      <c r="A98" s="51" t="s">
         <v>126</v>
       </c>
       <c r="B98" s="32">
@@ -11710,7 +11719,7 @@
       <c r="DP98" s="15"/>
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A99" s="53" t="s">
+      <c r="A99" s="50" t="s">
         <v>179</v>
       </c>
       <c r="B99" s="32">
@@ -11841,7 +11850,7 @@
       <c r="DP99" s="15"/>
     </row>
     <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A100" s="53" t="s">
+      <c r="A100" s="50" t="s">
         <v>228</v>
       </c>
       <c r="B100" s="32">
@@ -11960,7 +11969,7 @@
       <c r="DD100" s="29"/>
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A101" s="53" t="s">
+      <c r="A101" s="50" t="s">
         <v>298</v>
       </c>
       <c r="B101" s="32">
@@ -12024,18 +12033,18 @@
       <c r="BA101" s="29"/>
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A102" s="53" t="s">
+      <c r="A102" s="50" t="s">
         <v>278</v>
       </c>
       <c r="B102" s="32">
         <v>1188.82</v>
       </c>
       <c r="C102" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>47552.799999999996</v>
+        <v>23776.399999999998</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>262</v>
@@ -12145,7 +12154,7 @@
       <c r="DD102" s="29"/>
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A103" s="54" t="s">
+      <c r="A103" s="51" t="s">
         <v>186</v>
       </c>
       <c r="B103" s="32">
@@ -12207,7 +12216,7 @@
       <c r="BA103" s="29"/>
     </row>
     <row r="104" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A104" s="54" t="s">
+      <c r="A104" s="51" t="s">
         <v>129</v>
       </c>
       <c r="B104" s="32">
@@ -12338,7 +12347,7 @@
       <c r="DP104" s="15"/>
     </row>
     <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A105" s="54" t="s">
+      <c r="A105" s="51" t="s">
         <v>197</v>
       </c>
       <c r="B105" s="32">
@@ -12469,7 +12478,7 @@
       <c r="DP105" s="15"/>
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A106" s="54" t="s">
+      <c r="A106" s="51" t="s">
         <v>160</v>
       </c>
       <c r="B106" s="32">
@@ -12598,7 +12607,7 @@
       <c r="DP106" s="15"/>
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A107" s="54" t="s">
+      <c r="A107" s="51" t="s">
         <v>176</v>
       </c>
       <c r="B107" s="32">
@@ -12727,7 +12736,7 @@
       <c r="DP107" s="15"/>
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A108" s="54" t="s">
+      <c r="A108" s="51" t="s">
         <v>184</v>
       </c>
       <c r="B108" s="32">
@@ -12858,7 +12867,7 @@
       <c r="DP108" s="15"/>
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A109" s="54" t="s">
+      <c r="A109" s="51" t="s">
         <v>165</v>
       </c>
       <c r="B109" s="32">
@@ -12987,7 +12996,7 @@
       <c r="DP109" s="15"/>
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A110" s="54" t="s">
+      <c r="A110" s="51" t="s">
         <v>261</v>
       </c>
       <c r="B110" s="32">
@@ -13058,7 +13067,7 @@
       <c r="DD110" s="14"/>
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="50" t="s">
         <v>144</v>
       </c>
       <c r="B111" s="32">
@@ -13127,7 +13136,7 @@
       <c r="DD111" s="14"/>
     </row>
     <row r="112" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A112" s="53" t="s">
+      <c r="A112" s="50" t="s">
         <v>120</v>
       </c>
       <c r="B112" s="32">
@@ -13196,7 +13205,7 @@
       <c r="DD112" s="14"/>
     </row>
     <row r="113" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A113" s="53" t="s">
+      <c r="A113" s="50" t="s">
         <v>130</v>
       </c>
       <c r="B113" s="32">
@@ -13325,7 +13334,7 @@
       <c r="DP113" s="15"/>
     </row>
     <row r="114" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A114" s="53" t="s">
+      <c r="A114" s="50" t="s">
         <v>140</v>
       </c>
       <c r="B114" s="32">
@@ -13454,7 +13463,7 @@
       <c r="DP114" s="15"/>
     </row>
     <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A115" s="53" t="s">
+      <c r="A115" s="50" t="s">
         <v>200</v>
       </c>
       <c r="B115" s="32">
@@ -13585,7 +13594,7 @@
       <c r="DP115" s="15"/>
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A116" s="53" t="s">
+      <c r="A116" s="50" t="s">
         <v>121</v>
       </c>
       <c r="B116" s="32">
@@ -13714,7 +13723,7 @@
       <c r="DP116" s="15"/>
     </row>
     <row r="117" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A117" s="53" t="s">
+      <c r="A117" s="50" t="s">
         <v>92</v>
       </c>
       <c r="B117" s="32">
@@ -13845,7 +13854,7 @@
       <c r="DP117" s="15"/>
     </row>
     <row r="118" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A118" s="53" t="s">
+      <c r="A118" s="50" t="s">
         <v>94</v>
       </c>
       <c r="B118" s="32">
@@ -13974,7 +13983,7 @@
       <c r="DP118" s="15"/>
     </row>
     <row r="119" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A119" s="53" t="s">
+      <c r="A119" s="50" t="s">
         <v>93</v>
       </c>
       <c r="B119" s="32">
@@ -14103,7 +14112,7 @@
       <c r="DP119" s="15"/>
     </row>
     <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A120" s="53" t="s">
+      <c r="A120" s="50" t="s">
         <v>232</v>
       </c>
       <c r="B120" s="32">
@@ -14234,7 +14243,7 @@
       <c r="DP120" s="15"/>
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A121" s="53" t="s">
+      <c r="A121" s="50" t="s">
         <v>224</v>
       </c>
       <c r="B121" s="32">
@@ -14363,7 +14372,7 @@
       <c r="DP121" s="15"/>
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A122" s="54" t="s">
+      <c r="A122" s="51" t="s">
         <v>74</v>
       </c>
       <c r="B122" s="32">
@@ -14492,7 +14501,7 @@
       <c r="DP122" s="15"/>
     </row>
     <row r="123" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A123" s="54" t="s">
+      <c r="A123" s="51" t="s">
         <v>141</v>
       </c>
       <c r="B123" s="32">
@@ -14561,7 +14570,7 @@
       <c r="DD123" s="14"/>
     </row>
     <row r="124" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A124" s="54" t="s">
+      <c r="A124" s="51" t="s">
         <v>75</v>
       </c>
       <c r="B124" s="32">
@@ -14690,7 +14699,7 @@
       <c r="DP124" s="15"/>
     </row>
     <row r="125" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="51" t="s">
         <v>133</v>
       </c>
       <c r="B125" s="32">
@@ -14819,7 +14828,7 @@
       <c r="DP125" s="15"/>
     </row>
     <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A126" s="53" t="s">
+      <c r="A126" s="50" t="s">
         <v>183</v>
       </c>
       <c r="B126" s="32">
@@ -14950,7 +14959,7 @@
       <c r="DP126" s="15"/>
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A127" s="53" t="s">
+      <c r="A127" s="50" t="s">
         <v>188</v>
       </c>
       <c r="B127" s="32">
@@ -15081,7 +15090,7 @@
       <c r="DP127" s="15"/>
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A128" s="53" t="s">
+      <c r="A128" s="50" t="s">
         <v>252</v>
       </c>
       <c r="B128" s="32">
@@ -15210,7 +15219,7 @@
       <c r="DP128" s="15"/>
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A129" s="53" t="s">
+      <c r="A129" s="50" t="s">
         <v>118</v>
       </c>
       <c r="B129" s="32">
@@ -15339,7 +15348,7 @@
       <c r="DP129" s="15"/>
     </row>
     <row r="130" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A130" s="53" t="s">
+      <c r="A130" s="50" t="s">
         <v>138</v>
       </c>
       <c r="B130" s="32">
@@ -15467,19 +15476,17 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" customHeight="1">
-      <c r="A131" s="53" t="s">
+    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A131" s="50" t="s">
         <v>270</v>
       </c>
       <c r="B131" s="32">
         <v>1208.01</v>
       </c>
-      <c r="C131" s="17">
-        <v>20</v>
-      </c>
+      <c r="C131" s="17"/>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>24160.2</v>
+        <v>0</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>262</v>
@@ -15601,7 +15608,7 @@
       <c r="DP131" s="15"/>
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A132" s="53" t="s">
+      <c r="A132" s="50" t="s">
         <v>237</v>
       </c>
       <c r="B132" s="32">
@@ -15732,7 +15739,7 @@
       <c r="DP132" s="15"/>
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A133" s="53" t="s">
+      <c r="A133" s="50" t="s">
         <v>236</v>
       </c>
       <c r="B133" s="32">
@@ -15863,7 +15870,7 @@
       <c r="DP133" s="15"/>
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A134" s="53" t="s">
+      <c r="A134" s="50" t="s">
         <v>195</v>
       </c>
       <c r="B134" s="32">
@@ -15994,7 +16001,7 @@
       <c r="DP134" s="15"/>
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A135" s="53" t="s">
+      <c r="A135" s="50" t="s">
         <v>145</v>
       </c>
       <c r="B135" s="32">
@@ -16122,7 +16129,7 @@
       <c r="DP135" s="15"/>
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A136" s="53" t="s">
+      <c r="A136" s="50" t="s">
         <v>171</v>
       </c>
       <c r="B136" s="32">
@@ -16251,7 +16258,7 @@
       <c r="DP136" s="15"/>
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A137" s="53" t="s">
+      <c r="A137" s="50" t="s">
         <v>161</v>
       </c>
       <c r="B137" s="32">
@@ -16380,7 +16387,7 @@
       <c r="DP137" s="15"/>
     </row>
     <row r="138" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A138" s="54" t="s">
+      <c r="A138" s="51" t="s">
         <v>213</v>
       </c>
       <c r="B138" s="32">
@@ -16391,7 +16398,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E138" s="40" t="s">
+      <c r="E138" s="37" t="s">
         <v>205</v>
       </c>
       <c r="F138" s="29"/>
@@ -16444,7 +16451,7 @@
       <c r="BA138" s="29"/>
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A139" s="53" t="s">
+      <c r="A139" s="50" t="s">
         <v>194</v>
       </c>
       <c r="B139" s="32">
@@ -16455,7 +16462,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E139" s="41"/>
+      <c r="E139" s="38"/>
       <c r="F139" s="29"/>
       <c r="G139" s="29"/>
       <c r="H139" s="29"/>
@@ -16506,7 +16513,7 @@
       <c r="BA139" s="29"/>
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A140" s="53" t="s">
+      <c r="A140" s="50" t="s">
         <v>178</v>
       </c>
       <c r="B140" s="32">
@@ -16568,7 +16575,7 @@
       <c r="BA140" s="29"/>
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A141" s="53" t="s">
+      <c r="A141" s="50" t="s">
         <v>174</v>
       </c>
       <c r="B141" s="32">
@@ -16630,7 +16637,7 @@
       <c r="BA141" s="29"/>
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A142" s="53" t="s">
+      <c r="A142" s="50" t="s">
         <v>181</v>
       </c>
       <c r="B142" s="32">
@@ -16692,7 +16699,7 @@
       <c r="BA142" s="29"/>
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A143" s="54" t="s">
+      <c r="A143" s="51" t="s">
         <v>122</v>
       </c>
       <c r="B143" s="32">
@@ -16756,7 +16763,7 @@
       <c r="BA143" s="29"/>
     </row>
     <row r="144" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A144" s="54" t="s">
+      <c r="A144" s="51" t="s">
         <v>167</v>
       </c>
       <c r="B144" s="32">
@@ -16818,7 +16825,7 @@
       <c r="BA144" s="29"/>
     </row>
     <row r="145" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A145" s="53" t="s">
+      <c r="A145" s="50" t="s">
         <v>217</v>
       </c>
       <c r="B145" s="35">
@@ -16949,7 +16956,7 @@
       <c r="DP145" s="15"/>
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A146" s="54" t="s">
+      <c r="A146" s="51" t="s">
         <v>187</v>
       </c>
       <c r="B146" s="32">
@@ -17080,7 +17087,7 @@
       <c r="DP146" s="15"/>
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A147" s="54" t="s">
+      <c r="A147" s="51" t="s">
         <v>152</v>
       </c>
       <c r="B147" s="32">
@@ -17209,7 +17216,7 @@
       <c r="DP147" s="15"/>
     </row>
     <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A148" s="54" t="s">
+      <c r="A148" s="51" t="s">
         <v>128</v>
       </c>
       <c r="B148" s="32">
@@ -17220,7 +17227,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E148" s="40" t="s">
+      <c r="E148" s="37" t="s">
         <v>223</v>
       </c>
       <c r="F148" s="30"/>
@@ -17340,7 +17347,7 @@
       <c r="DP148" s="15"/>
     </row>
     <row r="149" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A149" s="54" t="s">
+      <c r="A149" s="51" t="s">
         <v>162</v>
       </c>
       <c r="B149" s="35">
@@ -17469,7 +17476,7 @@
       <c r="DP149" s="15"/>
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A150" s="54" t="s">
+      <c r="A150" s="51" t="s">
         <v>185</v>
       </c>
       <c r="B150" s="35">
@@ -17600,7 +17607,7 @@
       <c r="DP150" s="15"/>
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A151" s="54" t="s">
+      <c r="A151" s="51" t="s">
         <v>142</v>
       </c>
       <c r="B151" s="35">
@@ -17731,7 +17738,7 @@
       <c r="DP151" s="15"/>
     </row>
     <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A152" s="54" t="s">
+      <c r="A152" s="51" t="s">
         <v>163</v>
       </c>
       <c r="B152" s="32">
@@ -17860,7 +17867,7 @@
       <c r="DP152" s="15"/>
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A153" s="54" t="s">
+      <c r="A153" s="51" t="s">
         <v>193</v>
       </c>
       <c r="B153" s="32">
@@ -17989,7 +17996,7 @@
       <c r="DP153" s="15"/>
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A154" s="54" t="s">
+      <c r="A154" s="51" t="s">
         <v>177</v>
       </c>
       <c r="B154" s="32">
@@ -18000,7 +18007,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E154" s="41" t="s">
+      <c r="E154" s="38" t="s">
         <v>205</v>
       </c>
       <c r="F154" s="30"/>
@@ -18120,7 +18127,7 @@
       <c r="DP154" s="15"/>
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A155" s="54" t="s">
+      <c r="A155" s="51" t="s">
         <v>226</v>
       </c>
       <c r="B155" s="32">
@@ -18251,7 +18258,7 @@
       <c r="DP155" s="15"/>
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A156" s="53" t="s">
+      <c r="A156" s="50" t="s">
         <v>258</v>
       </c>
       <c r="B156" s="32">
@@ -18322,7 +18329,7 @@
       <c r="DD156" s="14"/>
     </row>
     <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A157" s="53" t="s">
+      <c r="A157" s="50" t="s">
         <v>132</v>
       </c>
       <c r="B157" s="32">
@@ -18384,7 +18391,7 @@
       <c r="BA157" s="29"/>
     </row>
     <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A158" s="53" t="s">
+      <c r="A158" s="50" t="s">
         <v>241</v>
       </c>
       <c r="B158" s="32">
@@ -18448,7 +18455,7 @@
       <c r="BA158" s="29"/>
     </row>
     <row r="159" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A159" s="53" t="s">
+      <c r="A159" s="50" t="s">
         <v>202</v>
       </c>
       <c r="B159" s="32">
@@ -18577,7 +18584,7 @@
       <c r="DP159" s="15"/>
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A160" s="53" t="s">
+      <c r="A160" s="50" t="s">
         <v>259</v>
       </c>
       <c r="B160" s="32">
@@ -18707,19 +18714,19 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A161" s="53" t="s">
+    <row r="161" spans="1:120" ht="15" customHeight="1">
+      <c r="A161" s="50" t="s">
         <v>279</v>
       </c>
       <c r="B161" s="32">
         <v>7242.2</v>
       </c>
       <c r="C161" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>108633</v>
+        <v>72422</v>
       </c>
       <c r="E161" s="18" t="s">
         <v>262</v>
@@ -18841,7 +18848,7 @@
       <c r="DP161" s="15"/>
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A162" s="53" t="s">
+      <c r="A162" s="50" t="s">
         <v>282</v>
       </c>
       <c r="B162" s="32">
@@ -18970,7 +18977,7 @@
       <c r="DP162" s="15"/>
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A163" s="53" t="s">
+      <c r="A163" s="50" t="s">
         <v>283</v>
       </c>
       <c r="B163" s="32">
@@ -19099,7 +19106,7 @@
       <c r="DP163" s="15"/>
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A164" s="53" t="s">
+      <c r="A164" s="50" t="s">
         <v>284</v>
       </c>
       <c r="B164" s="32">
@@ -19230,7 +19237,7 @@
       <c r="DP164" s="15"/>
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A165" s="53" t="s">
+      <c r="A165" s="50" t="s">
         <v>285</v>
       </c>
       <c r="B165" s="32">
@@ -19241,7 +19248,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E165" s="59" t="s">
+      <c r="E165" s="53" t="s">
         <v>262</v>
       </c>
       <c r="F165" s="30"/>
@@ -19360,19 +19367,21 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A166" s="53" t="s">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
+      <c r="A166" s="50" t="s">
         <v>272</v>
       </c>
       <c r="B166" s="32">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>5</v>
+      </c>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>0</v>
-      </c>
-      <c r="E166" s="49" t="s">
+        <v>49367.25</v>
+      </c>
+      <c r="E166" s="46" t="s">
         <v>291</v>
       </c>
       <c r="F166" s="30"/>
@@ -19491,17 +19500,19 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A167" s="53" t="s">
+    <row r="167" spans="1:120" ht="15" customHeight="1">
+      <c r="A167" s="50" t="s">
         <v>286</v>
       </c>
       <c r="B167" s="32">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17">
+        <v>100</v>
+      </c>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>777848</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>262</v>
@@ -19623,7 +19634,7 @@
       <c r="DP167" s="15"/>
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A168" s="53" t="s">
+      <c r="A168" s="50" t="s">
         <v>292</v>
       </c>
       <c r="B168" s="32">
@@ -19753,17 +19764,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A169" s="53" t="s">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
+      <c r="A169" s="50" t="s">
         <v>293</v>
       </c>
       <c r="B169" s="32">
         <v>9973.69</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>5</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>0</v>
+        <v>49868.450000000004</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>262</v>
@@ -19884,19 +19897,21 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A170" s="53" t="s">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+      <c r="A170" s="50" t="s">
         <v>287</v>
       </c>
       <c r="B170" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>5</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E170" s="49" t="s">
+        <v>45282.55</v>
+      </c>
+      <c r="E170" s="46" t="s">
         <v>296</v>
       </c>
       <c r="F170" s="30"/>
@@ -20016,7 +20031,7 @@
       <c r="DP170" s="15"/>
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
-      <c r="A171" s="53" t="s">
+      <c r="A171" s="50" t="s">
         <v>288</v>
       </c>
       <c r="B171" s="32">
@@ -20147,19 +20162,19 @@
       <c r="DP171" s="15"/>
     </row>
     <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A172" s="71" t="s">
+      <c r="A172" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B172" s="72"/>
-      <c r="C172" s="43">
+      <c r="B172" s="66"/>
+      <c r="C172" s="40">
         <f>SUBTOTAL(9,C6:C171)</f>
-        <v>650</v>
-      </c>
-      <c r="D172" s="50">
+        <v>370</v>
+      </c>
+      <c r="D172" s="47">
         <f>SUBTOTAL(9,D6:D171)</f>
-        <v>904790.39999999991</v>
-      </c>
-      <c r="E172" s="44"/>
+        <v>1418541.45</v>
+      </c>
+      <c r="E172" s="41"/>
       <c r="F172" s="30"/>
       <c r="G172" s="30"/>
       <c r="H172" s="30"/>
@@ -20277,7 +20292,7 @@
       <c r="DP172" s="15"/>
     </row>
     <row r="173" spans="1:120" ht="15" customHeight="1">
-      <c r="A173" s="55"/>
+      <c r="A173" s="52"/>
       <c r="B173" s="33"/>
       <c r="C173" s="20"/>
       <c r="D173" s="21"/>
@@ -20399,28 +20414,28 @@
       <c r="DP173" s="15"/>
     </row>
     <row r="174" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B174" s="63"/>
-      <c r="C174" s="63"/>
-      <c r="D174" s="63"/>
-      <c r="E174" s="63"/>
+      <c r="B174" s="57"/>
+      <c r="C174" s="57"/>
+      <c r="D174" s="57"/>
+      <c r="E174" s="57"/>
     </row>
     <row r="175" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B175" s="68" t="s">
+      <c r="B175" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C175" s="69"/>
-      <c r="D175" s="70"/>
+      <c r="C175" s="63"/>
+      <c r="D175" s="64"/>
       <c r="E175" s="28"/>
     </row>
     <row r="176" spans="1:120" ht="9" customHeight="1" thickBot="1"/>
     <row r="177" spans="2:5">
-      <c r="B177" s="56" t="s">
+      <c r="B177" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C177" s="57" t="s">
+      <c r="C177" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="D177" s="58" t="s">
+      <c r="D177" s="77" t="s">
         <v>135</v>
       </c>
       <c r="E177" s="22"/>
@@ -20430,7 +20445,7 @@
         <v>281</v>
       </c>
       <c r="C178" s="23">
-        <v>900000</v>
+        <v>0</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
@@ -20449,19 +20464,21 @@
       <c r="B180" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C180" s="23"/>
+      <c r="C180" s="23">
+        <v>127392</v>
+      </c>
       <c r="D180" s="24"/>
       <c r="E180" s="22"/>
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
-      <c r="B181" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C181" s="37">
-        <f>SUM(C178:C180)</f>
-        <v>900000</v>
-      </c>
-      <c r="D181" s="38"/>
+      <c r="B181" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="C181" s="73">
+        <f>D172-C180</f>
+        <v>1291149.45</v>
+      </c>
+      <c r="D181" s="74"/>
       <c r="E181" s="27"/>
     </row>
     <row r="182" spans="2:5" ht="15" customHeight="1"/>
@@ -20509,33 +20526,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77" t="e">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="77"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -22476,10 +22493,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="73" t="s">
+      <c r="A101" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="73"/>
+      <c r="B101" s="67"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -436,9 +436,6 @@
     <t>L150</t>
   </si>
   <si>
-    <t>D75</t>
-  </si>
-  <si>
     <t>T85</t>
   </si>
   <si>
@@ -925,7 +922,10 @@
     <t>BL99</t>
   </si>
   <si>
-    <t>Need to Deposit =</t>
+    <t>D78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deposit =</t>
   </si>
 </sst>
 </file>
@@ -1601,6 +1601,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1644,24 +1662,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1981,7 +1981,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J102" sqref="J102"/>
+      <selection pane="bottomRight" activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1997,28 +1997,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="61"/>
+      <c r="B2" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="67"/>
       <c r="D2" s="48" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="39">
         <f ca="1">TODAY()+1</f>
-        <v>44428</v>
+        <v>44431</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2036,12 +2036,12 @@
         <v>82</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" s="32">
         <v>7244.21</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2110,22 +2110,20 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6" s="32">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>25</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>176419</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2181,7 +2179,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="32">
         <v>892.23</v>
@@ -2192,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2252,7 +2250,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="32">
         <v>789.97</v>
@@ -2263,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -2394,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
@@ -2514,7 +2512,7 @@
     </row>
     <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="32">
         <v>779.94</v>
@@ -2525,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2585,7 +2583,7 @@
     </row>
     <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="32">
         <v>774.93</v>
@@ -2596,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2656,7 +2654,7 @@
     </row>
     <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" s="32">
         <v>769.92</v>
@@ -2667,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2727,7 +2725,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="32">
         <v>972.42499999999995</v>
@@ -2738,12 +2736,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B14" s="32">
         <v>721.8</v>
@@ -2754,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2814,7 +2812,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="32">
         <v>779.95</v>
@@ -2825,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2885,7 +2883,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B16" s="32">
         <v>770.92</v>
@@ -2896,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2956,7 +2954,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B17" s="32">
         <v>779.96</v>
@@ -2967,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -3027,7 +3025,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B18" s="32">
         <v>1032.575</v>
@@ -3038,30 +3036,28 @@
         <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:120" ht="15" customHeight="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B19" s="32">
         <v>982.45</v>
       </c>
-      <c r="C19" s="17">
-        <v>100</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>98245</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B20" s="32">
         <v>994.36</v>
@@ -3072,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3132,7 +3128,7 @@
     </row>
     <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B21" s="32">
         <v>1120.8</v>
@@ -3143,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3210,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3270,7 +3266,7 @@
     </row>
     <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23" s="32">
         <v>896.23500000000001</v>
@@ -3528,7 +3524,7 @@
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" s="32">
         <v>901.24800000000005</v>
@@ -3539,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
@@ -3657,22 +3653,20 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B26" s="32">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>20</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>22616.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
@@ -3792,7 +3786,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B27" s="32">
         <v>824.06</v>
@@ -3803,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
@@ -3923,7 +3917,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B28" s="32">
         <v>1030.45</v>
@@ -3934,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
@@ -4065,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
@@ -4196,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
@@ -4316,7 +4310,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B31" s="32">
         <v>858.14</v>
@@ -4327,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
@@ -4447,7 +4441,7 @@
     </row>
     <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="32">
         <v>858.14</v>
@@ -4576,7 +4570,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" s="32">
         <v>878.19</v>
@@ -4638,7 +4632,7 @@
     </row>
     <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="32">
         <v>936.34</v>
@@ -4700,7 +4694,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B35" s="32">
         <v>955.38</v>
@@ -4829,7 +4823,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B36" s="32">
         <v>1014.53</v>
@@ -4840,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
@@ -4960,7 +4954,7 @@
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B37" s="32">
         <v>1178.8</v>
@@ -4971,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
@@ -5091,7 +5085,7 @@
     </row>
     <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B38" s="32">
         <v>1120.08</v>
@@ -5104,7 +5098,7 @@
         <v>22401.599999999999</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
@@ -5224,7 +5218,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39" s="32">
         <v>1217.8900000000001</v>
@@ -5235,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
@@ -5484,7 +5478,7 @@
     </row>
     <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B41" s="32">
         <v>1264.78</v>
@@ -5611,20 +5605,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B42" s="32">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>20</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28447.600000000002</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
@@ -5873,7 +5869,7 @@
     </row>
     <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B44" s="32">
         <v>1244.723</v>
@@ -6002,7 +5998,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B45" s="32">
         <v>1238.0899999999999</v>
@@ -6131,7 +6127,7 @@
     </row>
     <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B46" s="32">
         <v>800</v>
@@ -6260,7 +6256,7 @@
     </row>
     <row r="47" spans="1:120" s="36" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B47" s="32">
         <v>848.12</v>
@@ -6322,7 +6318,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B48" s="32">
         <v>1101.75</v>
@@ -6333,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
@@ -6451,20 +6447,22 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:120" ht="15" customHeight="1">
       <c r="A49" s="51" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="B49" s="32">
-        <v>1159.8900000000001</v>
-      </c>
-      <c r="C49" s="17"/>
+        <v>1166.77</v>
+      </c>
+      <c r="C49" s="17">
+        <v>200</v>
+      </c>
       <c r="D49" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>233354</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
@@ -6584,7 +6582,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B50" s="32">
         <v>1066.6600000000001</v>
@@ -6595,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="30"/>
@@ -6715,7 +6713,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B51" s="32">
         <v>1014.53</v>
@@ -6726,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
@@ -6846,7 +6844,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B52" s="32">
         <v>1264.153</v>
@@ -6975,7 +6973,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B53" s="32">
         <v>2702.42</v>
@@ -6986,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F53" s="30"/>
       <c r="G53" s="30"/>
@@ -7106,7 +7104,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B54" s="32">
         <v>4500</v>
@@ -7117,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
@@ -7235,20 +7233,22 @@
       <c r="DO54" s="15"/>
       <c r="DP54" s="15"/>
     </row>
-    <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="55" spans="1:120" ht="15" customHeight="1">
       <c r="A55" s="54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B55" s="55">
         <v>4706.18</v>
       </c>
-      <c r="C55" s="56"/>
+      <c r="C55" s="56">
+        <v>10</v>
+      </c>
       <c r="D55" s="53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47061.8</v>
       </c>
       <c r="E55" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B56" s="32">
         <v>20340.84</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="30"/>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="59" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B59" s="32">
         <v>6900.2079999999996</v>
@@ -7886,7 +7886,7 @@
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B60" s="32">
         <v>6715.95</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="32">
         <v>8573.3799999999992</v>
@@ -8144,7 +8144,7 @@
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B62" s="32">
         <v>4044.61</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F62" s="30"/>
       <c r="G62" s="30"/>
@@ -8275,7 +8275,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B63" s="32">
         <v>8088.17</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B64" s="32">
         <v>5158.25</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B65" s="32">
         <v>4885.6000000000004</v>
@@ -8662,7 +8662,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B66" s="32">
         <v>5247.46</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB66" s="14"/>
       <c r="BC66" s="14"/>
@@ -8802,7 +8802,7 @@
     </row>
     <row r="68" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B68" s="32">
         <v>5607.32</v>
@@ -8864,7 +8864,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B69" s="32">
         <v>4866.5600000000004</v>
@@ -8926,7 +8926,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B70" s="32">
         <v>5603.31</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
@@ -8990,7 +8990,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B71" s="32">
         <v>5411.86</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
@@ -9054,7 +9054,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B72" s="32">
         <v>5412.5</v>
@@ -9116,7 +9116,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A73" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B73" s="32">
         <v>5792.76</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B74" s="32">
         <v>5793.45</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
@@ -9244,7 +9244,7 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B75" s="32">
         <v>7714.24</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B76" s="32">
         <v>8225.51</v>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B77" s="32">
         <v>5382.7857000000004</v>
@@ -9430,7 +9430,7 @@
     </row>
     <row r="78" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B78" s="32">
         <v>6306.98</v>
@@ -9441,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F78" s="30"/>
       <c r="G78" s="30"/>
@@ -9561,7 +9561,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B79" s="32">
         <v>5708.6</v>
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="30"/>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B80" s="32">
         <v>6405.21</v>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="30"/>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F81" s="30"/>
       <c r="G81" s="30"/>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="82" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B82" s="32">
         <v>1199.99</v>
@@ -10083,7 +10083,7 @@
     </row>
     <row r="83" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B83" s="32">
         <v>1189.97</v>
@@ -10145,7 +10145,7 @@
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B84" s="32">
         <v>1062.6500000000001</v>
@@ -10156,7 +10156,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
@@ -10207,22 +10207,20 @@
       <c r="AZ84" s="29"/>
       <c r="BA84" s="29"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>20</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>24939.200000000001</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
@@ -10279,7 +10277,7 @@
     </row>
     <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B86" s="32">
         <v>1306.26</v>
@@ -10290,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F86" s="30"/>
       <c r="G86" s="30"/>
@@ -10548,7 +10546,7 @@
     </row>
     <row r="89" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B89" s="32">
         <v>5607.9849999999997</v>
@@ -10559,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F89" s="30"/>
       <c r="G89" s="30"/>
@@ -10690,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
@@ -10810,7 +10808,7 @@
     </row>
     <row r="91" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B91" s="32">
         <v>1072.68</v>
@@ -11068,7 +11066,7 @@
     </row>
     <row r="93" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B93" s="32">
         <v>1551.87</v>
@@ -11197,7 +11195,7 @@
     </row>
     <row r="94" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A94" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B94" s="32">
         <v>1306.26</v>
@@ -11208,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
@@ -11261,7 +11259,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B95" s="32">
         <v>1004.39</v>
@@ -11272,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -11325,7 +11323,7 @@
     </row>
     <row r="96" spans="1:120" ht="15" customHeight="1">
       <c r="A96" s="51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B96" s="32">
         <v>1364.45</v>
@@ -11338,7 +11336,7 @@
         <v>27289</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F96" s="30"/>
       <c r="G96" s="30"/>
@@ -11458,7 +11456,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B97" s="32">
         <v>1403.33</v>
@@ -11471,7 +11469,7 @@
         <v>28066.6</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
@@ -11720,7 +11718,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B99" s="32">
         <v>985.46</v>
@@ -11731,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F99" s="30"/>
       <c r="G99" s="30"/>
@@ -11851,7 +11849,7 @@
     </row>
     <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B100" s="32">
         <v>1178.94</v>
@@ -11862,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
@@ -11970,7 +11968,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B101" s="32">
         <v>1214.8900000000001</v>
@@ -11981,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
@@ -12034,20 +12032,20 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B102" s="32">
         <v>1188.82</v>
       </c>
       <c r="C102" s="17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>23776.399999999998</v>
+        <v>35664.6</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
@@ -12155,7 +12153,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B103" s="32">
         <v>945.36</v>
@@ -12228,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F104" s="30"/>
       <c r="G104" s="30"/>
@@ -12348,7 +12346,7 @@
     </row>
     <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B105" s="32">
         <v>1024.5550000000001</v>
@@ -12359,7 +12357,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F105" s="30"/>
       <c r="G105" s="30"/>
@@ -12479,7 +12477,7 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106" s="32">
         <v>1024.56</v>
@@ -12608,7 +12606,7 @@
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B107" s="32">
         <v>1101.75</v>
@@ -12737,7 +12735,7 @@
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B108" s="32">
         <v>1297.24</v>
@@ -12748,7 +12746,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F108" s="30"/>
       <c r="G108" s="30"/>
@@ -12868,7 +12866,7 @@
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B109" s="32">
         <v>1297.24</v>
@@ -12997,7 +12995,7 @@
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B110" s="32">
         <v>1150.8699999999999</v>
@@ -13008,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BB110" s="14"/>
       <c r="BC110" s="14"/>
@@ -13068,7 +13066,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B111" s="32">
         <v>12215.46</v>
@@ -13335,7 +13333,7 @@
     </row>
     <row r="114" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B114" s="32">
         <v>10616.475</v>
@@ -13464,7 +13462,7 @@
     </row>
     <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B115" s="32">
         <v>5607.32</v>
@@ -13475,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F115" s="30"/>
       <c r="G115" s="30"/>
@@ -13735,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F117" s="30"/>
       <c r="G117" s="30"/>
@@ -14113,7 +14111,7 @@
     </row>
     <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B120" s="32">
         <v>1159.8900000000001</v>
@@ -14124,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F120" s="30"/>
       <c r="G120" s="30"/>
@@ -14244,7 +14242,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B121" s="32">
         <v>1072.675</v>
@@ -14502,7 +14500,7 @@
     </row>
     <row r="123" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B123" s="32">
         <v>5476.38</v>
@@ -14829,7 +14827,7 @@
     </row>
     <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B126" s="32">
         <v>1219.04</v>
@@ -14840,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F126" s="30"/>
       <c r="G126" s="30"/>
@@ -14960,7 +14958,7 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B127" s="32">
         <v>1336.33</v>
@@ -14971,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F127" s="30"/>
       <c r="G127" s="30"/>
@@ -15091,7 +15089,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B128" s="32">
         <v>1188.97</v>
@@ -15349,7 +15347,7 @@
     </row>
     <row r="130" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B130" s="32">
         <v>8641.5499999999993</v>
@@ -15478,7 +15476,7 @@
     </row>
     <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B131" s="32">
         <v>1208.01</v>
@@ -15489,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F131" s="30"/>
       <c r="G131" s="30"/>
@@ -15609,7 +15607,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B132" s="32">
         <v>3520.36</v>
@@ -15620,7 +15618,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F132" s="30"/>
       <c r="G132" s="30"/>
@@ -15740,7 +15738,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B133" s="32">
         <v>3793.1</v>
@@ -15751,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F133" s="30"/>
       <c r="G133" s="30"/>
@@ -15871,7 +15869,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B134" s="32">
         <v>4174.41</v>
@@ -15882,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F134" s="30"/>
       <c r="G134" s="30"/>
@@ -16002,7 +16000,7 @@
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B135" s="32">
         <v>4174.41</v>
@@ -16130,7 +16128,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B136" s="32">
         <v>5510.74</v>
@@ -16259,7 +16257,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B137" s="32">
         <v>4896.21</v>
@@ -16388,7 +16386,7 @@
     </row>
     <row r="138" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B138" s="32">
         <v>4076.68</v>
@@ -16399,7 +16397,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F138" s="29"/>
       <c r="G138" s="29"/>
@@ -16452,7 +16450,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B139" s="32">
         <v>5150.8500000000004</v>
@@ -16514,7 +16512,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B140" s="32">
         <v>4973.3999999999996</v>
@@ -16576,7 +16574,7 @@
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B141" s="32">
         <v>5423.53</v>
@@ -16638,7 +16636,7 @@
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B142" s="32">
         <v>5940.82</v>
@@ -16711,7 +16709,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F143" s="29"/>
       <c r="G143" s="29"/>
@@ -16764,7 +16762,7 @@
     </row>
     <row r="144" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B144" s="32">
         <v>3558.64</v>
@@ -16826,7 +16824,7 @@
     </row>
     <row r="145" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B145" s="35">
         <v>3257.12</v>
@@ -16837,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F145" s="30"/>
       <c r="G145" s="30"/>
@@ -16957,7 +16955,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B146" s="32">
         <v>4389.43</v>
@@ -16968,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F146" s="30"/>
       <c r="G146" s="30"/>
@@ -17088,7 +17086,7 @@
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B147" s="32">
         <v>4389.95</v>
@@ -17228,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F148" s="30"/>
       <c r="G148" s="30"/>
@@ -17348,7 +17346,7 @@
     </row>
     <row r="149" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B149" s="35">
         <v>3934.81</v>
@@ -17477,7 +17475,7 @@
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B150" s="35">
         <v>4027.04</v>
@@ -17488,7 +17486,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F150" s="30"/>
       <c r="G150" s="30"/>
@@ -17608,7 +17606,7 @@
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B151" s="35">
         <v>3891.71</v>
@@ -17619,7 +17617,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F151" s="30"/>
       <c r="G151" s="30"/>
@@ -17739,7 +17737,7 @@
     </row>
     <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B152" s="32">
         <v>4507.24</v>
@@ -17868,7 +17866,7 @@
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B153" s="32">
         <v>4409</v>
@@ -17997,7 +17995,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B154" s="32">
         <v>4165.3900000000003</v>
@@ -18008,7 +18006,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F154" s="30"/>
       <c r="G154" s="30"/>
@@ -18128,7 +18126,7 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B155" s="32">
         <v>3617.59</v>
@@ -18139,7 +18137,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F155" s="30"/>
       <c r="G155" s="30"/>
@@ -18259,7 +18257,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B156" s="32">
         <v>3548.43</v>
@@ -18270,7 +18268,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BB156" s="14"/>
       <c r="BC156" s="14"/>
@@ -18392,7 +18390,7 @@
     </row>
     <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B158" s="32">
         <v>7165.87</v>
@@ -18403,7 +18401,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F158" s="29"/>
       <c r="G158" s="29"/>
@@ -18456,7 +18454,7 @@
     </row>
     <row r="159" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A159" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B159" s="32">
         <v>7691.27</v>
@@ -18585,7 +18583,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B160" s="32">
         <v>7093.04</v>
@@ -18596,7 +18594,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F160" s="30"/>
       <c r="G160" s="30"/>
@@ -18714,22 +18712,20 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" customHeight="1">
+    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B161" s="32">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17">
-        <v>10</v>
-      </c>
+      <c r="C161" s="17"/>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>72422</v>
+        <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F161" s="30"/>
       <c r="G161" s="30"/>
@@ -18849,7 +18845,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B162" s="32">
         <v>8101.24</v>
@@ -18978,7 +18974,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B163" s="32">
         <v>7501.24</v>
@@ -19107,7 +19103,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B164" s="32">
         <v>7778.48</v>
@@ -19118,7 +19114,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F164" s="30"/>
       <c r="G164" s="30"/>
@@ -19236,20 +19232,22 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A165" s="50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B165" s="32">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="17">
+        <v>5</v>
+      </c>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>45332.700000000004</v>
       </c>
       <c r="E165" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F165" s="30"/>
       <c r="G165" s="30"/>
@@ -19367,22 +19365,20 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B166" s="32">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17">
-        <v>5</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>49367.25</v>
+        <v>0</v>
       </c>
       <c r="E166" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F166" s="30"/>
       <c r="G166" s="30"/>
@@ -19500,22 +19496,20 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B167" s="32">
         <v>7778.48</v>
       </c>
-      <c r="C167" s="17">
-        <v>100</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
-        <v>777848</v>
+        <v>0</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F167" s="30"/>
       <c r="G167" s="30"/>
@@ -19635,7 +19629,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B168" s="32">
         <v>9056.51</v>
@@ -19646,7 +19640,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F168" s="30"/>
       <c r="G168" s="30"/>
@@ -19764,22 +19758,20 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B169" s="32">
         <v>9973.69</v>
       </c>
-      <c r="C169" s="17">
-        <v>5</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>49868.450000000004</v>
+        <v>0</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F169" s="30"/>
       <c r="G169" s="30"/>
@@ -19897,22 +19889,20 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B170" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>5</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E170" s="46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F170" s="30"/>
       <c r="G170" s="30"/>
@@ -20032,7 +20022,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A171" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B171" s="32">
         <v>10133.07</v>
@@ -20043,7 +20033,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F171" s="30"/>
       <c r="G171" s="30"/>
@@ -20162,17 +20152,17 @@
       <c r="DP171" s="15"/>
     </row>
     <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A172" s="65" t="s">
+      <c r="A172" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B172" s="66"/>
+      <c r="B172" s="72"/>
       <c r="C172" s="40">
-        <f>SUBTOTAL(9,C6:C171)</f>
-        <v>370</v>
+        <f>SUBTOTAL(9,C38:C171)</f>
+        <v>325</v>
       </c>
       <c r="D172" s="47">
-        <f>SUBTOTAL(9,D6:D171)</f>
-        <v>1418541.45</v>
+        <f>SUBTOTAL(9,D38:D171)</f>
+        <v>467617.89999999997</v>
       </c>
       <c r="E172" s="41"/>
       <c r="F172" s="30"/>
@@ -20414,38 +20404,38 @@
       <c r="DP173" s="15"/>
     </row>
     <row r="174" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B174" s="57"/>
-      <c r="C174" s="57"/>
-      <c r="D174" s="57"/>
-      <c r="E174" s="57"/>
+      <c r="B174" s="63"/>
+      <c r="C174" s="63"/>
+      <c r="D174" s="63"/>
+      <c r="E174" s="63"/>
     </row>
     <row r="175" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B175" s="62" t="s">
+      <c r="B175" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C175" s="63"/>
-      <c r="D175" s="64"/>
+      <c r="C175" s="69"/>
+      <c r="D175" s="70"/>
       <c r="E175" s="28"/>
     </row>
     <row r="176" spans="1:120" ht="9" customHeight="1" thickBot="1"/>
     <row r="177" spans="2:5">
-      <c r="B177" s="75" t="s">
+      <c r="B177" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C177" s="76" t="s">
+      <c r="C177" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D177" s="77" t="s">
+      <c r="D177" s="62" t="s">
         <v>135</v>
       </c>
       <c r="E177" s="22"/>
     </row>
     <row r="178" spans="2:5" ht="15" customHeight="1">
       <c r="B178" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C178" s="23">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
@@ -20454,7 +20444,7 @@
     </row>
     <row r="179" spans="2:5">
       <c r="B179" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="25"/>
@@ -20462,23 +20452,23 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C180" s="23">
-        <v>127392</v>
+        <v>0</v>
       </c>
       <c r="D180" s="24"/>
       <c r="E180" s="22"/>
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
-      <c r="B181" s="72" t="s">
+      <c r="B181" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="C181" s="73">
-        <f>D172-C180</f>
-        <v>1291149.45</v>
-      </c>
-      <c r="D181" s="74"/>
+      <c r="C181" s="58">
+        <f>SUBTOTAL(9,C178:C180)</f>
+        <v>1800000</v>
+      </c>
+      <c r="D181" s="59"/>
       <c r="E181" s="27"/>
     </row>
     <row r="182" spans="2:5" ht="15" customHeight="1"/>
@@ -20526,33 +20516,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71" t="e">
+      <c r="B3" s="76"/>
+      <c r="C3" s="77" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -22493,10 +22483,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="67" t="s">
+      <c r="A101" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="67"/>
+      <c r="B101" s="73"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1981,7 +1981,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G177" sqref="G177"/>
+      <selection pane="bottomRight" activeCell="K173" sqref="K173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="E2" s="39">
         <f ca="1">TODAY()+1</f>
-        <v>44431</v>
+        <v>44432</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2723,17 +2723,19 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="13" spans="1:120" ht="15" customHeight="1">
       <c r="A13" s="50" t="s">
         <v>241</v>
       </c>
       <c r="B13" s="32">
         <v>972.42499999999995</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="17">
+        <v>120</v>
+      </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>116691</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>261</v>
@@ -3126,17 +3128,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="50" t="s">
         <v>249</v>
       </c>
       <c r="B21" s="32">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>100</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>112080</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>261</v>
@@ -3653,17 +3657,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="50" t="s">
         <v>265</v>
       </c>
       <c r="B26" s="32">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>40</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45232.799999999996</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>261</v>
@@ -4952,17 +4958,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="50" t="s">
         <v>217</v>
       </c>
       <c r="B37" s="32">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>60</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70728</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>261</v>
@@ -5083,19 +5091,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="50" t="s">
         <v>250</v>
       </c>
       <c r="B38" s="32">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17">
-        <v>20</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>22401.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>261</v>
@@ -5613,11 +5619,11 @@
         <v>1422.38</v>
       </c>
       <c r="C42" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>85342.8</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>261</v>
@@ -6447,19 +6453,17 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" customHeight="1">
+    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="51" t="s">
         <v>299</v>
       </c>
       <c r="B49" s="32">
         <v>1166.77</v>
       </c>
-      <c r="C49" s="17">
-        <v>200</v>
-      </c>
+      <c r="C49" s="17"/>
       <c r="D49" s="18">
         <f t="shared" si="1"/>
-        <v>233354</v>
+        <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>261</v>
@@ -7233,19 +7237,17 @@
       <c r="DO54" s="15"/>
       <c r="DP54" s="15"/>
     </row>
-    <row r="55" spans="1:120" ht="15" customHeight="1">
+    <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="54" t="s">
         <v>296</v>
       </c>
       <c r="B55" s="55">
         <v>4706.18</v>
       </c>
-      <c r="C55" s="56">
-        <v>10</v>
-      </c>
+      <c r="C55" s="56"/>
       <c r="D55" s="53">
         <f t="shared" si="1"/>
-        <v>47061.8</v>
+        <v>0</v>
       </c>
       <c r="E55" s="53" t="s">
         <v>261</v>
@@ -10207,17 +10209,19 @@
       <c r="AZ84" s="29"/>
       <c r="BA84" s="29"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="51" t="s">
         <v>266</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>40</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49878.400000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>261</v>
@@ -11321,19 +11325,17 @@
       <c r="AZ95" s="29"/>
       <c r="BA95" s="29"/>
     </row>
-    <row r="96" spans="1:120" ht="15" customHeight="1">
+    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="51" t="s">
         <v>270</v>
       </c>
       <c r="B96" s="32">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17">
-        <v>20</v>
-      </c>
+      <c r="C96" s="17"/>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>27289</v>
+        <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>261</v>
@@ -11454,19 +11456,17 @@
       <c r="DO96" s="15"/>
       <c r="DP96" s="15"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="51" t="s">
         <v>274</v>
       </c>
       <c r="B97" s="32">
         <v>1403.33</v>
       </c>
-      <c r="C97" s="17">
-        <v>20</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="2"/>
-        <v>28066.6</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>261</v>
@@ -11847,17 +11847,19 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="50" t="s">
         <v>227</v>
       </c>
       <c r="B100" s="32">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="17">
+        <v>40</v>
+      </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>47157.600000000006</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>261</v>
@@ -12030,7 +12032,7 @@
       <c r="AZ101" s="29"/>
       <c r="BA101" s="29"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A102" s="50" t="s">
         <v>277</v>
       </c>
@@ -12038,11 +12040,11 @@
         <v>1188.82</v>
       </c>
       <c r="C102" s="17">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>35664.6</v>
+        <v>71329.2</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>261</v>
@@ -18326,7 +18328,7 @@
       <c r="DC156" s="14"/>
       <c r="DD156" s="14"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A157" s="50" t="s">
         <v>132</v>
       </c>
@@ -18388,7 +18390,7 @@
       <c r="AZ157" s="29"/>
       <c r="BA157" s="29"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="50" t="s">
         <v>240</v>
       </c>
@@ -19232,19 +19234,17 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="50" t="s">
         <v>284</v>
       </c>
       <c r="B165" s="32">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17">
-        <v>5</v>
-      </c>
+      <c r="C165" s="17"/>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>45332.700000000004</v>
+        <v>0</v>
       </c>
       <c r="E165" s="53" t="s">
         <v>261</v>
@@ -20157,12 +20157,12 @@
       </c>
       <c r="B172" s="72"/>
       <c r="C172" s="40">
-        <f>SUBTOTAL(9,C38:C171)</f>
-        <v>325</v>
+        <f>SUBTOTAL(9,C13:C171)</f>
+        <v>520</v>
       </c>
       <c r="D172" s="47">
-        <f>SUBTOTAL(9,D38:D171)</f>
-        <v>467617.89999999997</v>
+        <f>SUBTOTAL(9,D13:D171)</f>
+        <v>598439.79999999993</v>
       </c>
       <c r="E172" s="41"/>
       <c r="F172" s="30"/>
@@ -20435,7 +20435,7 @@
         <v>280</v>
       </c>
       <c r="C178" s="23">
-        <v>1800000</v>
+        <v>600000</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
@@ -20466,7 +20466,7 @@
       </c>
       <c r="C181" s="58">
         <f>SUBTOTAL(9,C178:C180)</f>
-        <v>1800000</v>
+        <v>600000</v>
       </c>
       <c r="D181" s="59"/>
       <c r="E181" s="27"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1981,7 +1981,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K173" sqref="K173"/>
+      <selection pane="bottomRight" activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="E2" s="39">
         <f ca="1">TODAY()+1</f>
-        <v>44432</v>
+        <v>44433</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2110,17 +2110,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="50" t="s">
         <v>288</v>
       </c>
       <c r="B6" s="32">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>15</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105851.40000000001</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>261</v>
@@ -2723,19 +2725,17 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" customHeight="1">
+    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="50" t="s">
         <v>241</v>
       </c>
       <c r="B13" s="32">
         <v>972.42499999999995</v>
       </c>
-      <c r="C13" s="17">
-        <v>120</v>
-      </c>
+      <c r="C13" s="17"/>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>116691</v>
+        <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>261</v>
@@ -3136,11 +3136,11 @@
         <v>1120.8</v>
       </c>
       <c r="C21" s="17">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>112080</v>
+        <v>22416</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>261</v>
@@ -3657,19 +3657,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="50" t="s">
         <v>265</v>
       </c>
       <c r="B26" s="32">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>40</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>45232.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>261</v>
@@ -4966,11 +4964,11 @@
         <v>1178.8</v>
       </c>
       <c r="C37" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>70728</v>
+        <v>23576</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>261</v>
@@ -5091,17 +5089,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="50" t="s">
         <v>250</v>
       </c>
       <c r="B38" s="32">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>20</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>0</v>
+        <v>22401.599999999999</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>261</v>
@@ -5611,19 +5611,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="50" t="s">
         <v>200</v>
       </c>
       <c r="B42" s="32">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>60</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>85342.8</v>
+        <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>261</v>
@@ -10217,11 +10215,11 @@
         <v>1246.96</v>
       </c>
       <c r="C85" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>49878.400000000001</v>
+        <v>24939.200000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>261</v>
@@ -11855,11 +11853,11 @@
         <v>1178.94</v>
       </c>
       <c r="C100" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>47157.600000000006</v>
+        <v>23578.800000000003</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>261</v>
@@ -12032,7 +12030,7 @@
       <c r="AZ101" s="29"/>
       <c r="BA101" s="29"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="50" t="s">
         <v>277</v>
       </c>
@@ -12040,11 +12038,11 @@
         <v>1188.82</v>
       </c>
       <c r="C102" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>71329.2</v>
+        <v>23776.399999999998</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>261</v>
@@ -18328,7 +18326,7 @@
       <c r="DC156" s="14"/>
       <c r="DD156" s="14"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A157" s="50" t="s">
         <v>132</v>
       </c>
@@ -18390,7 +18388,7 @@
       <c r="AZ157" s="29"/>
       <c r="BA157" s="29"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="50" t="s">
         <v>240</v>
       </c>
@@ -18714,17 +18712,19 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:120" ht="15" customHeight="1">
       <c r="A161" s="50" t="s">
         <v>278</v>
       </c>
       <c r="B161" s="32">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17"/>
+      <c r="C161" s="17">
+        <v>10</v>
+      </c>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>72422</v>
       </c>
       <c r="E161" s="18" t="s">
         <v>261</v>
@@ -19234,20 +19234,22 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1">
       <c r="A165" s="50" t="s">
         <v>284</v>
       </c>
       <c r="B165" s="32">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="17">
+        <v>5</v>
+      </c>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E165" s="53" t="s">
-        <v>261</v>
+        <v>45332.700000000004</v>
+      </c>
+      <c r="E165" s="46" t="s">
+        <v>290</v>
       </c>
       <c r="F165" s="30"/>
       <c r="G165" s="30"/>
@@ -19627,17 +19629,19 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:120" ht="15" customHeight="1">
       <c r="A168" s="50" t="s">
         <v>291</v>
       </c>
       <c r="B168" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17"/>
+      <c r="C168" s="17">
+        <v>5</v>
+      </c>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>261</v>
@@ -19758,17 +19762,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="50" t="s">
         <v>292</v>
       </c>
       <c r="B169" s="32">
         <v>9973.69</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>5</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>0</v>
+        <v>49868.450000000004</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>261</v>
@@ -19889,17 +19895,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="50" t="s">
         <v>286</v>
       </c>
       <c r="B170" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>5</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E170" s="46" t="s">
         <v>295</v>
@@ -20157,12 +20165,12 @@
       </c>
       <c r="B172" s="72"/>
       <c r="C172" s="40">
-        <f>SUBTOTAL(9,C13:C171)</f>
-        <v>520</v>
+        <f>SUBTOTAL(9,C6:C171)</f>
+        <v>165</v>
       </c>
       <c r="D172" s="47">
-        <f>SUBTOTAL(9,D13:D171)</f>
-        <v>598439.79999999993</v>
+        <f>SUBTOTAL(9,D6:D171)</f>
+        <v>504727.65</v>
       </c>
       <c r="E172" s="41"/>
       <c r="F172" s="30"/>
@@ -20435,7 +20443,7 @@
         <v>280</v>
       </c>
       <c r="C178" s="23">
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
@@ -20466,7 +20474,7 @@
       </c>
       <c r="C181" s="58">
         <f>SUBTOTAL(9,C178:C180)</f>
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="D181" s="59"/>
       <c r="E181" s="27"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1981,7 +1981,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M161" sqref="M161"/>
+      <selection pane="bottomRight" activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="E2" s="39">
         <f ca="1">TODAY()+1</f>
-        <v>44433</v>
+        <v>44434</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2118,11 +2118,11 @@
         <v>7056.76</v>
       </c>
       <c r="C6" s="17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>105851.40000000001</v>
+        <v>141135.20000000001</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>261</v>
@@ -3128,19 +3128,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="50" t="s">
         <v>249</v>
       </c>
       <c r="B21" s="32">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17">
-        <v>20</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>22416</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>261</v>
@@ -3919,17 +3917,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="50" t="s">
         <v>298</v>
       </c>
       <c r="B28" s="32">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>377</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>388479.65</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>261</v>
@@ -4956,19 +4956,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="50" t="s">
         <v>217</v>
       </c>
       <c r="B37" s="32">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>20</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>23576</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>261</v>
@@ -10207,19 +10205,17 @@
       <c r="AZ84" s="29"/>
       <c r="BA84" s="29"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="51" t="s">
         <v>266</v>
       </c>
       <c r="B85" s="32">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>20</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>24939.200000000001</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>261</v>
@@ -11845,19 +11841,17 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="50" t="s">
         <v>227</v>
       </c>
       <c r="B100" s="32">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17">
-        <v>20</v>
-      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>23578.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>261</v>
@@ -12030,19 +12024,17 @@
       <c r="AZ101" s="29"/>
       <c r="BA101" s="29"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="50" t="s">
         <v>277</v>
       </c>
       <c r="B102" s="32">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17">
-        <v>20</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>23776.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>261</v>
@@ -18712,19 +18704,17 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" customHeight="1">
+    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="50" t="s">
         <v>278</v>
       </c>
       <c r="B161" s="32">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17">
-        <v>10</v>
-      </c>
+      <c r="C161" s="17"/>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>72422</v>
+        <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
         <v>261</v>
@@ -19234,19 +19224,17 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1">
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="50" t="s">
         <v>284</v>
       </c>
       <c r="B165" s="32">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17">
-        <v>5</v>
-      </c>
+      <c r="C165" s="17"/>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>45332.700000000004</v>
+        <v>0</v>
       </c>
       <c r="E165" s="46" t="s">
         <v>290</v>
@@ -19629,7 +19617,7 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" customHeight="1">
+    <row r="168" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A168" s="50" t="s">
         <v>291</v>
       </c>
@@ -19762,19 +19750,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="50" t="s">
         <v>292</v>
       </c>
       <c r="B169" s="32">
         <v>9973.69</v>
       </c>
-      <c r="C169" s="17">
-        <v>5</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>49868.450000000004</v>
+        <v>0</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>261</v>
@@ -19895,19 +19881,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="50" t="s">
         <v>286</v>
       </c>
       <c r="B170" s="32">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>5</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E170" s="46" t="s">
         <v>295</v>
@@ -20166,11 +20150,11 @@
       <c r="B172" s="72"/>
       <c r="C172" s="40">
         <f>SUBTOTAL(9,C6:C171)</f>
-        <v>165</v>
+        <v>422</v>
       </c>
       <c r="D172" s="47">
         <f>SUBTOTAL(9,D6:D171)</f>
-        <v>504727.65</v>
+        <v>597299.00000000012</v>
       </c>
       <c r="E172" s="41"/>
       <c r="F172" s="30"/>
@@ -20443,7 +20427,7 @@
         <v>280</v>
       </c>
       <c r="C178" s="23">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="22" t="s">
@@ -20474,7 +20458,7 @@
       </c>
       <c r="C181" s="58">
         <f>SUBTOTAL(9,C178:C180)</f>
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="D181" s="59"/>
       <c r="E181" s="27"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="301">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -418,9 +418,6 @@
     <t>P9_2GB</t>
   </si>
   <si>
-    <t>i60</t>
-  </si>
-  <si>
     <t>Z10</t>
   </si>
   <si>
@@ -926,6 +923,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Deposit =</t>
+  </si>
+  <si>
+    <t>i32</t>
   </si>
 </sst>
 </file>
@@ -1936,10 +1936,10 @@
   <dimension ref="A1:DP182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J170" sqref="J170"/>
+      <selection pane="bottomRight" activeCell="K178" sqref="K178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1968,7 +1968,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="42" t="s">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44434</v>
+        <v>44437</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1994,12 +1994,12 @@
         <v>82</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="29">
         <v>7244.21</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="29">
         <v>7056.76</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" s="29">
         <v>892.23</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="29">
         <v>789.97</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="29">
         <v>779.94</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="29">
         <v>774.93</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="29">
         <v>769.92</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2683,25 +2683,25 @@
     </row>
     <row r="13" spans="1:120" ht="15" customHeight="1">
       <c r="A13" s="44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="29">
         <v>972.42499999999995</v>
       </c>
       <c r="C13" s="17">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>77794</v>
+        <v>126415.25</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B14" s="29">
         <v>721.8</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" s="29">
         <v>779.95</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="29">
         <v>770.92</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="29">
         <v>779.96</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B18" s="29">
         <v>1032.575</v>
@@ -2996,12 +2996,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B19" s="29">
         <v>982.45</v>
@@ -3012,12 +3012,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B20" s="29">
         <v>994.36</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3086,22 +3086,20 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B21" s="29">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17">
-        <v>20</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>22416</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3168,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3228,7 +3226,7 @@
     </row>
     <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B23" s="29">
         <v>896.23500000000001</v>
@@ -3486,7 +3484,7 @@
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="29">
         <v>901.24800000000005</v>
@@ -3497,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
@@ -3617,7 +3615,7 @@
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
@@ -3628,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -3748,7 +3746,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B27" s="29">
         <v>824.06</v>
@@ -3759,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
@@ -3879,20 +3877,20 @@
     </row>
     <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B28" s="29">
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>61827</v>
+        <v>82436</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
@@ -4023,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
@@ -4154,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
@@ -4274,7 +4272,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B31" s="29">
         <v>858.14</v>
@@ -4285,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
@@ -4405,7 +4403,7 @@
     </row>
     <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" s="29">
         <v>858.14</v>
@@ -4534,7 +4532,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33" s="29">
         <v>878.19</v>
@@ -4596,7 +4594,7 @@
     </row>
     <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="29">
         <v>936.34</v>
@@ -4658,7 +4656,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B35" s="29">
         <v>955.38</v>
@@ -4787,7 +4785,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" s="29">
         <v>1014.53</v>
@@ -4798,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
@@ -4918,7 +4916,7 @@
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B37" s="29">
         <v>1178.8</v>
@@ -4929,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
@@ -5047,22 +5045,20 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B38" s="29">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17">
-        <v>30</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>33602.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
@@ -5182,7 +5178,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B39" s="29">
         <v>1217.8900000000001</v>
@@ -5193,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
@@ -5442,7 +5438,7 @@
     </row>
     <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B41" s="29">
         <v>1264.78</v>
@@ -5571,7 +5567,7 @@
     </row>
     <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B42" s="29">
         <v>1422.38</v>
@@ -5582,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
@@ -5831,7 +5827,7 @@
     </row>
     <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B44" s="29">
         <v>1244.723</v>
@@ -5960,7 +5956,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B45" s="29">
         <v>1238.0899999999999</v>
@@ -6089,7 +6085,7 @@
     </row>
     <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B46" s="29">
         <v>800</v>
@@ -6218,7 +6214,7 @@
     </row>
     <row r="47" spans="1:120" s="33" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B47" s="29">
         <v>848.12</v>
@@ -6280,7 +6276,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B48" s="29">
         <v>1101.75</v>
@@ -6291,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F48" s="27"/>
       <c r="G48" s="27"/>
@@ -6411,7 +6407,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B49" s="29">
         <v>1166.77</v>
@@ -6422,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
@@ -6542,7 +6538,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B50" s="29">
         <v>1066.6600000000001</v>
@@ -6553,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
@@ -6673,7 +6669,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B51" s="29">
         <v>1014.53</v>
@@ -6684,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
@@ -6804,7 +6800,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B52" s="29">
         <v>1264.153</v>
@@ -6933,7 +6929,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B53" s="29">
         <v>2702.42</v>
@@ -6944,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
@@ -7064,7 +7060,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B54" s="29">
         <v>4500</v>
@@ -7075,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
@@ -7193,22 +7189,20 @@
       <c r="DO54" s="15"/>
       <c r="DP54" s="15"/>
     </row>
-    <row r="55" spans="1:120" ht="15" customHeight="1">
+    <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B55" s="49">
         <v>4706.18</v>
       </c>
-      <c r="C55" s="50">
-        <v>20</v>
-      </c>
+      <c r="C55" s="50"/>
       <c r="D55" s="47">
         <f t="shared" si="1"/>
-        <v>94123.6</v>
+        <v>0</v>
       </c>
       <c r="E55" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
@@ -7328,7 +7322,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B56" s="29">
         <v>20340.84</v>
@@ -7597,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
@@ -7717,7 +7711,7 @@
     </row>
     <row r="59" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B59" s="29">
         <v>6900.2079999999996</v>
@@ -7846,7 +7840,7 @@
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B60" s="29">
         <v>6715.95</v>
@@ -7975,7 +7969,7 @@
     </row>
     <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B61" s="29">
         <v>8573.3799999999992</v>
@@ -8104,7 +8098,7 @@
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B62" s="29">
         <v>4044.61</v>
@@ -8115,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
@@ -8235,7 +8229,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B63" s="29">
         <v>8088.17</v>
@@ -8364,7 +8358,7 @@
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B64" s="29">
         <v>5158.25</v>
@@ -8493,7 +8487,7 @@
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B65" s="29">
         <v>4885.6000000000004</v>
@@ -8622,7 +8616,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B66" s="29">
         <v>5247.46</v>
@@ -8633,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB66" s="14"/>
       <c r="BC66" s="14"/>
@@ -8691,19 +8685,23 @@
       <c r="DC66" s="14"/>
       <c r="DD66" s="14"/>
     </row>
-    <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="67" spans="1:120" ht="15" customHeight="1">
       <c r="A67" s="44" t="s">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="B67" s="29">
-        <v>6397.96</v>
-      </c>
-      <c r="C67" s="17"/>
+        <v>5142.21</v>
+      </c>
+      <c r="C67" s="17">
+        <v>30</v>
+      </c>
       <c r="D67" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="18"/>
+        <v>154266.29999999999</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>260</v>
+      </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
       <c r="BD67" s="14"/>
@@ -8762,7 +8760,7 @@
     </row>
     <row r="68" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B68" s="29">
         <v>5607.32</v>
@@ -8824,7 +8822,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B69" s="29">
         <v>4866.5600000000004</v>
@@ -8886,7 +8884,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B70" s="29">
         <v>5603.31</v>
@@ -8897,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
@@ -8950,7 +8948,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B71" s="29">
         <v>5411.86</v>
@@ -8961,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
@@ -9014,7 +9012,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B72" s="29">
         <v>5412.5</v>
@@ -9076,7 +9074,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A73" s="44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B73" s="29">
         <v>5792.76</v>
@@ -9087,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
@@ -9140,7 +9138,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B74" s="29">
         <v>5793.45</v>
@@ -9151,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
@@ -9204,7 +9202,7 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B75" s="29">
         <v>7714.24</v>
@@ -9266,7 +9264,7 @@
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B76" s="29">
         <v>8225.51</v>
@@ -9328,7 +9326,7 @@
     </row>
     <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B77" s="29">
         <v>5382.7857000000004</v>
@@ -9390,7 +9388,7 @@
     </row>
     <row r="78" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B78" s="29">
         <v>6306.98</v>
@@ -9401,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
@@ -9521,7 +9519,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B79" s="29">
         <v>5708.6</v>
@@ -9532,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
@@ -9652,7 +9650,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B80" s="29">
         <v>6405.21</v>
@@ -9663,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
@@ -9794,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
@@ -9914,7 +9912,7 @@
     </row>
     <row r="82" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B82" s="29">
         <v>1199.99</v>
@@ -10043,7 +10041,7 @@
     </row>
     <row r="83" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B83" s="29">
         <v>1189.97</v>
@@ -10105,7 +10103,7 @@
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B84" s="29">
         <v>1062.6500000000001</v>
@@ -10116,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F84" s="26"/>
       <c r="G84" s="26"/>
@@ -10169,7 +10167,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B85" s="29">
         <v>1246.96</v>
@@ -10180,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F85" s="26"/>
       <c r="G85" s="26"/>
@@ -10237,7 +10235,7 @@
     </row>
     <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B86" s="29">
         <v>1306.26</v>
@@ -10248,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F86" s="27"/>
       <c r="G86" s="27"/>
@@ -10368,7 +10366,7 @@
     </row>
     <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B87" s="29">
         <v>1042.5999999999999</v>
@@ -10437,7 +10435,7 @@
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B88" s="29">
         <v>1435.58</v>
@@ -10506,7 +10504,7 @@
     </row>
     <row r="89" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B89" s="29">
         <v>5607.9849999999997</v>
@@ -10517,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
@@ -10648,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
@@ -10768,7 +10766,7 @@
     </row>
     <row r="91" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B91" s="29">
         <v>1072.68</v>
@@ -11026,7 +11024,7 @@
     </row>
     <row r="93" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B93" s="29">
         <v>1551.87</v>
@@ -11155,7 +11153,7 @@
     </row>
     <row r="94" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A94" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B94" s="29">
         <v>1306.26</v>
@@ -11166,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
@@ -11219,7 +11217,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B95" s="29">
         <v>1004.39</v>
@@ -11230,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F95" s="26"/>
       <c r="G95" s="26"/>
@@ -11283,7 +11281,7 @@
     </row>
     <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B96" s="29">
         <v>1364.45</v>
@@ -11294,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
@@ -11414,7 +11412,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B97" s="29">
         <v>1403.33</v>
@@ -11425,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
@@ -11674,7 +11672,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B99" s="29">
         <v>985.46</v>
@@ -11685,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F99" s="27"/>
       <c r="G99" s="27"/>
@@ -11805,7 +11803,7 @@
     </row>
     <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B100" s="29">
         <v>1178.94</v>
@@ -11816,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -11924,20 +11922,20 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B101" s="29">
         <v>1214.8900000000001</v>
       </c>
       <c r="C101" s="17">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D101" s="18">
         <f t="shared" si="2"/>
-        <v>48595.600000000006</v>
+        <v>85042.3</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F101" s="26"/>
       <c r="G101" s="26"/>
@@ -11988,22 +11986,20 @@
       <c r="AZ101" s="26"/>
       <c r="BA101" s="26"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B102" s="29">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17">
-        <v>20</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>23776.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F102" s="26"/>
       <c r="G102" s="26"/>
@@ -12111,7 +12107,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B103" s="29">
         <v>945.36</v>
@@ -12184,7 +12180,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F104" s="27"/>
       <c r="G104" s="27"/>
@@ -12304,7 +12300,7 @@
     </row>
     <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B105" s="29">
         <v>1024.5550000000001</v>
@@ -12315,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
@@ -12435,7 +12431,7 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B106" s="29">
         <v>1024.56</v>
@@ -12564,7 +12560,7 @@
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B107" s="29">
         <v>1101.75</v>
@@ -12693,7 +12689,7 @@
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B108" s="29">
         <v>1297.24</v>
@@ -12704,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
@@ -12824,7 +12820,7 @@
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B109" s="29">
         <v>1297.24</v>
@@ -12953,7 +12949,7 @@
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B110" s="29">
         <v>1150.8699999999999</v>
@@ -12964,7 +12960,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BB110" s="14"/>
       <c r="BC110" s="14"/>
@@ -13024,7 +13020,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B111" s="29">
         <v>12215.46</v>
@@ -13291,7 +13287,7 @@
     </row>
     <row r="114" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B114" s="29">
         <v>10616.475</v>
@@ -13420,7 +13416,7 @@
     </row>
     <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B115" s="29">
         <v>5607.32</v>
@@ -13431,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F115" s="27"/>
       <c r="G115" s="27"/>
@@ -13691,7 +13687,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F117" s="27"/>
       <c r="G117" s="27"/>
@@ -14069,7 +14065,7 @@
     </row>
     <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B120" s="29">
         <v>1159.8900000000001</v>
@@ -14080,7 +14076,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F120" s="27"/>
       <c r="G120" s="27"/>
@@ -14200,7 +14196,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B121" s="29">
         <v>1072.675</v>
@@ -14458,7 +14454,7 @@
     </row>
     <row r="123" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B123" s="29">
         <v>5476.38</v>
@@ -14656,7 +14652,7 @@
     </row>
     <row r="125" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B125" s="29">
         <v>7679.15</v>
@@ -14785,7 +14781,7 @@
     </row>
     <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B126" s="29">
         <v>1219.04</v>
@@ -14796,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
@@ -14916,7 +14912,7 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B127" s="29">
         <v>1336.33</v>
@@ -14927,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F127" s="27"/>
       <c r="G127" s="27"/>
@@ -15047,7 +15043,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B128" s="29">
         <v>1188.97</v>
@@ -15305,7 +15301,7 @@
     </row>
     <row r="130" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B130" s="29">
         <v>8641.5499999999993</v>
@@ -15434,7 +15430,7 @@
     </row>
     <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B131" s="29">
         <v>1208.01</v>
@@ -15445,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
@@ -15565,7 +15561,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B132" s="29">
         <v>3520.36</v>
@@ -15576,7 +15572,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F132" s="27"/>
       <c r="G132" s="27"/>
@@ -15696,7 +15692,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B133" s="29">
         <v>3793.1</v>
@@ -15707,7 +15703,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F133" s="27"/>
       <c r="G133" s="27"/>
@@ -15827,7 +15823,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B134" s="29">
         <v>4174.41</v>
@@ -15838,7 +15834,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F134" s="27"/>
       <c r="G134" s="27"/>
@@ -15958,7 +15954,7 @@
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B135" s="29">
         <v>4174.41</v>
@@ -16086,7 +16082,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B136" s="29">
         <v>5510.74</v>
@@ -16215,7 +16211,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B137" s="29">
         <v>4896.21</v>
@@ -16344,7 +16340,7 @@
     </row>
     <row r="138" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B138" s="29">
         <v>4076.68</v>
@@ -16355,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F138" s="26"/>
       <c r="G138" s="26"/>
@@ -16408,7 +16404,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B139" s="29">
         <v>5150.8500000000004</v>
@@ -16470,7 +16466,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B140" s="29">
         <v>4973.3999999999996</v>
@@ -16532,7 +16528,7 @@
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B141" s="29">
         <v>5423.53</v>
@@ -16594,7 +16590,7 @@
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142" s="29">
         <v>5940.82</v>
@@ -16667,7 +16663,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F143" s="26"/>
       <c r="G143" s="26"/>
@@ -16720,7 +16716,7 @@
     </row>
     <row r="144" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B144" s="29">
         <v>3558.64</v>
@@ -16782,7 +16778,7 @@
     </row>
     <row r="145" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B145" s="32">
         <v>3257.12</v>
@@ -16793,7 +16789,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F145" s="27"/>
       <c r="G145" s="27"/>
@@ -16913,7 +16909,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B146" s="29">
         <v>4389.43</v>
@@ -16924,7 +16920,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F146" s="27"/>
       <c r="G146" s="27"/>
@@ -17044,7 +17040,7 @@
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B147" s="29">
         <v>4389.95</v>
@@ -17184,7 +17180,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F148" s="27"/>
       <c r="G148" s="27"/>
@@ -17304,7 +17300,7 @@
     </row>
     <row r="149" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B149" s="32">
         <v>3934.81</v>
@@ -17433,7 +17429,7 @@
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B150" s="32">
         <v>4027.04</v>
@@ -17444,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F150" s="27"/>
       <c r="G150" s="27"/>
@@ -17564,7 +17560,7 @@
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B151" s="32">
         <v>3891.71</v>
@@ -17575,7 +17571,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
@@ -17695,7 +17691,7 @@
     </row>
     <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B152" s="29">
         <v>4507.24</v>
@@ -17824,7 +17820,7 @@
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B153" s="29">
         <v>4409</v>
@@ -17953,7 +17949,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B154" s="29">
         <v>4165.3900000000003</v>
@@ -17964,7 +17960,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F154" s="27"/>
       <c r="G154" s="27"/>
@@ -18084,7 +18080,7 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B155" s="29">
         <v>3617.59</v>
@@ -18095,7 +18091,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F155" s="27"/>
       <c r="G155" s="27"/>
@@ -18215,7 +18211,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B156" s="29">
         <v>3548.43</v>
@@ -18226,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB156" s="14"/>
       <c r="BC156" s="14"/>
@@ -18286,7 +18282,7 @@
     </row>
     <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A157" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B157" s="29">
         <v>4849.09</v>
@@ -18348,7 +18344,7 @@
     </row>
     <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B158" s="29">
         <v>7165.87</v>
@@ -18359,7 +18355,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F158" s="26"/>
       <c r="G158" s="26"/>
@@ -18412,7 +18408,7 @@
     </row>
     <row r="159" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A159" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B159" s="29">
         <v>7691.27</v>
@@ -18541,7 +18537,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B160" s="29">
         <v>7093.04</v>
@@ -18552,7 +18548,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F160" s="27"/>
       <c r="G160" s="27"/>
@@ -18672,7 +18668,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B161" s="29">
         <v>7242.2</v>
@@ -18683,7 +18679,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F161" s="27"/>
       <c r="G161" s="27"/>
@@ -18803,7 +18799,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B162" s="29">
         <v>8101.24</v>
@@ -18932,7 +18928,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B163" s="29">
         <v>7501.24</v>
@@ -19061,7 +19057,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B164" s="29">
         <v>7778.48</v>
@@ -19072,7 +19068,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F164" s="27"/>
       <c r="G164" s="27"/>
@@ -19190,22 +19186,20 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1">
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B165" s="29">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17">
-        <v>5</v>
-      </c>
+      <c r="C165" s="17"/>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>45332.700000000004</v>
+        <v>0</v>
       </c>
       <c r="E165" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="27"/>
@@ -19323,9 +19317,9 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A166" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B166" s="29">
         <v>9873.4500000000007</v>
@@ -19338,7 +19332,7 @@
         <v>49367.25</v>
       </c>
       <c r="E166" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F166" s="27"/>
       <c r="G166" s="27"/>
@@ -19458,7 +19452,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B167" s="29">
         <v>7778.48</v>
@@ -19469,7 +19463,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F167" s="27"/>
       <c r="G167" s="27"/>
@@ -19587,22 +19581,20 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" customHeight="1">
+    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B168" s="29">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17">
-        <v>7</v>
-      </c>
+      <c r="C168" s="17"/>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>63395.57</v>
+        <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F168" s="27"/>
       <c r="G168" s="27"/>
@@ -19722,7 +19714,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B169" s="29">
         <v>9973.69</v>
@@ -19733,7 +19725,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F169" s="27"/>
       <c r="G169" s="27"/>
@@ -19851,22 +19843,20 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B170" s="29">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>5</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E170" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F170" s="27"/>
       <c r="G170" s="27"/>
@@ -19986,7 +19976,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A171" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B171" s="29">
         <v>10133.07</v>
@@ -19997,7 +19987,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F171" s="27"/>
       <c r="G171" s="27"/>
@@ -20122,11 +20112,11 @@
       <c r="B172" s="73"/>
       <c r="C172" s="61">
         <f>SUBTOTAL(9,C13:C171)</f>
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="D172" s="62">
         <f>SUBTOTAL(9,D13:D171)</f>
-        <v>565513.07000000007</v>
+        <v>497527.1</v>
       </c>
       <c r="E172" s="63"/>
       <c r="F172" s="27"/>
@@ -20390,39 +20380,37 @@
         <v>86</v>
       </c>
       <c r="D177" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E177" s="22"/>
     </row>
     <row r="178" spans="2:5" ht="15" customHeight="1">
       <c r="B178" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C178" s="54">
         <v>500000</v>
       </c>
       <c r="D178" s="23"/>
       <c r="E178" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B179" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="C179" s="56">
-        <v>70954</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C179" s="56"/>
       <c r="D179" s="57"/>
       <c r="E179" s="22"/>
     </row>
     <row r="180" spans="2:5" ht="19.5" thickBot="1">
       <c r="B180" s="58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C180" s="60">
         <f>C179+C178</f>
-        <v>570954</v>
+        <v>500000</v>
       </c>
       <c r="D180" s="59"/>
       <c r="E180" s="24"/>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation.xlsx
@@ -1936,10 +1936,10 @@
   <dimension ref="A1:DP182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K178" sqref="K178"/>
+      <selection pane="bottomRight" activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44437</v>
+        <v>44439</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2068,17 +2068,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="44" t="s">
         <v>287</v>
       </c>
       <c r="B6" s="29">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>12</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84681.12</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>260</v>
@@ -2689,11 +2691,11 @@
         <v>972.42499999999995</v>
       </c>
       <c r="C13" s="17">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>126415.25</v>
+        <v>97242.5</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>260</v>
@@ -3883,11 +3885,11 @@
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>82436</v>
+        <v>154567.5</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>260</v>
@@ -8685,19 +8687,17 @@
       <c r="DC66" s="14"/>
       <c r="DD66" s="14"/>
     </row>
-    <row r="67" spans="1:120" ht="15" customHeight="1">
+    <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="44" t="s">
         <v>300</v>
       </c>
       <c r="B67" s="29">
         <v>5142.21</v>
       </c>
-      <c r="C67" s="17">
-        <v>30</v>
-      </c>
+      <c r="C67" s="17"/>
       <c r="D67" s="18">
         <f t="shared" si="1"/>
-        <v>154266.29999999999</v>
+        <v>0</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>260</v>
@@ -19186,17 +19186,19 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1">
       <c r="A165" s="44" t="s">
         <v>283</v>
       </c>
       <c r="B165" s="29">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="17">
+        <v>5</v>
+      </c>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>45332.700000000004</v>
       </c>
       <c r="E165" s="41" t="s">
         <v>289</v>
@@ -19317,7 +19319,7 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
       <c r="A166" s="44" t="s">
         <v>270</v>
       </c>
@@ -19581,17 +19583,19 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:120" ht="15" customHeight="1">
       <c r="A168" s="44" t="s">
         <v>290</v>
       </c>
       <c r="B168" s="29">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17"/>
+      <c r="C168" s="17">
+        <v>10</v>
+      </c>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90565.1</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>260</v>
@@ -19712,17 +19716,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="44" t="s">
         <v>291</v>
       </c>
       <c r="B169" s="29">
         <v>9973.69</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>5</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>0</v>
+        <v>49868.450000000004</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>260</v>
@@ -20111,12 +20117,12 @@
       </c>
       <c r="B172" s="73"/>
       <c r="C172" s="61">
-        <f>SUBTOTAL(9,C13:C171)</f>
-        <v>315</v>
+        <f>SUBTOTAL(9,C6:C171)</f>
+        <v>357</v>
       </c>
       <c r="D172" s="62">
-        <f>SUBTOTAL(9,D13:D171)</f>
-        <v>497527.1</v>
+        <f>SUBTOTAL(9,D6:D171)</f>
+        <v>656666.91999999993</v>
       </c>
       <c r="E172" s="63"/>
       <c r="F172" s="27"/>
@@ -20389,7 +20395,7 @@
         <v>279</v>
       </c>
       <c r="C178" s="54">
-        <v>500000</v>
+        <v>650000</v>
       </c>
       <c r="D178" s="23"/>
       <c r="E178" s="22" t="s">
@@ -20410,7 +20416,7 @@
       </c>
       <c r="C180" s="60">
         <f>C179+C178</f>
-        <v>500000</v>
+        <v>650000</v>
       </c>
       <c r="D180" s="59"/>
       <c r="E180" s="24"/>
